--- a/InputData/fuels/BS/BAU Subsidies.xlsx
+++ b/InputData/fuels/BS/BAU Subsidies.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\Canada\canada-eps\InputData\fuels\BS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pembinainstitute.sharepoint.com/sites/PRO-EnergyPolicySimulator2021/Shared Documents/Research and Analysis/CANADA-inputData/fuels/BS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94366C1-6C21-4260-A8EA-4297BE58D191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2089" documentId="13_ncr:1_{9487F567-7ACB-4CC8-A941-FB5B2797BEF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{309140BC-7A4A-44E5-9F0B-FE95BC36D52B}"/>
   <bookViews>
-    <workbookView xWindow="11925" yWindow="150" windowWidth="14730" windowHeight="17070" tabRatio="827" firstSheet="13" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="827" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <sheet name="BS-BSfTFpEUP" sheetId="10" r:id="rId13"/>
     <sheet name="BS-BSpUEO-PreRet" sheetId="30" r:id="rId14"/>
     <sheet name="BS-BSpUEO-PreNonRet" sheetId="31" r:id="rId15"/>
-    <sheet name="BS-BSpUEO-NewBlt" sheetId="32" r:id="rId16"/>
+    <sheet name="BS-BSpUEO-NewBit" sheetId="32" r:id="rId16"/>
     <sheet name="BS-BSpUECB" sheetId="22" r:id="rId17"/>
     <sheet name="Tasks " sheetId="28" r:id="rId18"/>
   </sheets>
@@ -6993,6 +6993,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7016,18 +7028,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -8481,7 +8481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B83"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
       <selection activeCell="A77" sqref="A77:A79"/>
     </sheetView>
   </sheetViews>
@@ -9676,7 +9676,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A28" s="95" t="s">
         <v>499</v>
       </c>
@@ -9705,7 +9705,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A29" s="96" t="s">
         <v>499</v>
       </c>
@@ -9734,7 +9734,7 @@
         <v>44448</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A30" s="95" t="s">
         <v>499</v>
       </c>
@@ -9763,7 +9763,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A31" s="96" t="s">
         <v>499</v>
       </c>
@@ -9792,7 +9792,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A32" s="95" t="s">
         <v>499</v>
       </c>
@@ -9821,7 +9821,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A33" s="96" t="s">
         <v>499</v>
       </c>
@@ -9850,7 +9850,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A34" s="95" t="s">
         <v>499</v>
       </c>
@@ -9879,7 +9879,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A35" s="95" t="s">
         <v>499</v>
       </c>
@@ -9908,7 +9908,7 @@
         <v>44381</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A36" s="96" t="s">
         <v>499</v>
       </c>
@@ -9937,7 +9937,7 @@
         <v>44533</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A37" s="95" t="s">
         <v>499</v>
       </c>
@@ -9966,7 +9966,7 @@
         <v>44289</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A38" s="96" t="s">
         <v>499</v>
       </c>
@@ -10053,7 +10053,7 @@
         <v>44288</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A41" s="95" t="s">
         <v>499</v>
       </c>
@@ -10111,7 +10111,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A43" s="95" t="s">
         <v>499</v>
       </c>
@@ -10140,7 +10140,7 @@
         <v>44147</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A44" s="96" t="s">
         <v>499</v>
       </c>
@@ -10573,7 +10573,7 @@
       <c r="P1" s="132" t="s">
         <v>651</v>
       </c>
-      <c r="Q1" s="143" t="s">
+      <c r="Q1" s="147" t="s">
         <v>581</v>
       </c>
       <c r="R1" s="132" t="s">
@@ -10646,7 +10646,7 @@
       <c r="P2" s="119" t="s">
         <v>668</v>
       </c>
-      <c r="Q2" s="144">
+      <c r="Q2" s="148">
         <v>44297</v>
       </c>
       <c r="R2" s="119"/>
@@ -10710,7 +10710,7 @@
       <c r="P3" s="119" t="s">
         <v>679</v>
       </c>
-      <c r="Q3" s="145"/>
+      <c r="Q3" s="149"/>
       <c r="R3" s="120">
         <v>44297</v>
       </c>
@@ -10769,7 +10769,7 @@
       <c r="P4" s="119" t="s">
         <v>686</v>
       </c>
-      <c r="Q4" s="146" t="s">
+      <c r="Q4" s="150" t="s">
         <v>687</v>
       </c>
       <c r="R4" s="120">
@@ -10830,7 +10830,7 @@
       <c r="P5" s="119" t="s">
         <v>686</v>
       </c>
-      <c r="Q5" s="146" t="s">
+      <c r="Q5" s="150" t="s">
         <v>687</v>
       </c>
       <c r="R5" s="120">
@@ -10896,7 +10896,7 @@
       <c r="P6" s="119" t="s">
         <v>696</v>
       </c>
-      <c r="Q6" s="144">
+      <c r="Q6" s="148">
         <v>44387</v>
       </c>
       <c r="R6" s="119" t="s">
@@ -10971,7 +10971,7 @@
       <c r="P7" s="132" t="s">
         <v>705</v>
       </c>
-      <c r="Q7" s="143" t="s">
+      <c r="Q7" s="147" t="s">
         <v>637</v>
       </c>
       <c r="R7" s="132"/>
@@ -11040,7 +11040,7 @@
       <c r="P8" s="119" t="s">
         <v>710</v>
       </c>
-      <c r="Q8" s="146" t="s">
+      <c r="Q8" s="150" t="s">
         <v>711</v>
       </c>
       <c r="R8" s="119"/>
@@ -11104,7 +11104,7 @@
       <c r="P9" s="119" t="s">
         <v>710</v>
       </c>
-      <c r="Q9" s="145"/>
+      <c r="Q9" s="149"/>
       <c r="R9" s="121"/>
       <c r="S9" s="119" t="s">
         <v>669</v>
@@ -11166,7 +11166,7 @@
       <c r="P10" s="119" t="s">
         <v>717</v>
       </c>
-      <c r="Q10" s="146" t="s">
+      <c r="Q10" s="150" t="s">
         <v>718</v>
       </c>
       <c r="R10" s="119"/>
@@ -11230,7 +11230,7 @@
       <c r="P11" s="119" t="s">
         <v>723</v>
       </c>
-      <c r="Q11" s="146" t="s">
+      <c r="Q11" s="150" t="s">
         <v>724</v>
       </c>
       <c r="R11" s="119"/>
@@ -11294,7 +11294,7 @@
       <c r="P12" s="119" t="s">
         <v>728</v>
       </c>
-      <c r="Q12" s="146" t="s">
+      <c r="Q12" s="150" t="s">
         <v>729</v>
       </c>
       <c r="R12" s="119"/>
@@ -11358,7 +11358,7 @@
       <c r="P13" s="119" t="s">
         <v>733</v>
       </c>
-      <c r="Q13" s="146" t="s">
+      <c r="Q13" s="150" t="s">
         <v>734</v>
       </c>
       <c r="R13" s="119"/>
@@ -11422,7 +11422,7 @@
       <c r="P14" s="119" t="s">
         <v>739</v>
       </c>
-      <c r="Q14" s="144">
+      <c r="Q14" s="148">
         <v>44203</v>
       </c>
       <c r="R14" s="119"/>
@@ -11486,7 +11486,7 @@
       <c r="P15" s="119" t="s">
         <v>744</v>
       </c>
-      <c r="Q15" s="146" t="s">
+      <c r="Q15" s="150" t="s">
         <v>745</v>
       </c>
       <c r="R15" s="119"/>
@@ -11550,7 +11550,7 @@
       <c r="P16" s="119" t="s">
         <v>750</v>
       </c>
-      <c r="Q16" s="146" t="s">
+      <c r="Q16" s="150" t="s">
         <v>751</v>
       </c>
       <c r="R16" s="119"/>
@@ -11614,7 +11614,7 @@
       <c r="P17" s="119" t="s">
         <v>750</v>
       </c>
-      <c r="Q17" s="146" t="s">
+      <c r="Q17" s="150" t="s">
         <v>751</v>
       </c>
       <c r="R17" s="119"/>
@@ -11678,7 +11678,7 @@
       <c r="P18" s="119" t="s">
         <v>744</v>
       </c>
-      <c r="Q18" s="144">
+      <c r="Q18" s="148">
         <v>44415</v>
       </c>
       <c r="R18" s="119"/>
@@ -11742,7 +11742,7 @@
       <c r="P19" s="119" t="s">
         <v>761</v>
       </c>
-      <c r="Q19" s="144">
+      <c r="Q19" s="148">
         <v>44446</v>
       </c>
       <c r="R19" s="119"/>
@@ -11806,7 +11806,7 @@
       <c r="P20" s="119" t="s">
         <v>764</v>
       </c>
-      <c r="Q20" s="144">
+      <c r="Q20" s="148">
         <v>44446</v>
       </c>
       <c r="R20" s="119"/>
@@ -11879,7 +11879,7 @@
       <c r="P21" s="132" t="s">
         <v>769</v>
       </c>
-      <c r="Q21" s="147">
+      <c r="Q21" s="151">
         <v>43840</v>
       </c>
       <c r="R21" s="132"/>
@@ -11948,7 +11948,7 @@
       <c r="P22" s="119" t="s">
         <v>744</v>
       </c>
-      <c r="Q22" s="144">
+      <c r="Q22" s="148">
         <v>44324</v>
       </c>
       <c r="R22" s="120">
@@ -12023,7 +12023,7 @@
       <c r="P23" s="132" t="s">
         <v>777</v>
       </c>
-      <c r="Q23" s="147">
+      <c r="Q23" s="151">
         <v>44147</v>
       </c>
       <c r="R23" s="132"/>
@@ -12092,7 +12092,7 @@
       <c r="P24" s="119" t="s">
         <v>781</v>
       </c>
-      <c r="Q24" s="144">
+      <c r="Q24" s="148">
         <v>44445</v>
       </c>
       <c r="R24" s="119"/>
@@ -12156,7 +12156,7 @@
       <c r="P25" s="119" t="s">
         <v>785</v>
       </c>
-      <c r="Q25" s="144">
+      <c r="Q25" s="148">
         <v>44445</v>
       </c>
       <c r="R25" s="119"/>
@@ -12220,7 +12220,7 @@
       <c r="P26" s="119" t="s">
         <v>785</v>
       </c>
-      <c r="Q26" s="144">
+      <c r="Q26" s="148">
         <v>44445</v>
       </c>
       <c r="R26" s="119"/>
@@ -12284,7 +12284,7 @@
       <c r="P27" s="119" t="s">
         <v>785</v>
       </c>
-      <c r="Q27" s="144">
+      <c r="Q27" s="148">
         <v>44261</v>
       </c>
       <c r="R27" s="119"/>
@@ -12348,7 +12348,7 @@
       <c r="P28" s="119" t="s">
         <v>785</v>
       </c>
-      <c r="Q28" s="144">
+      <c r="Q28" s="148">
         <v>44261</v>
       </c>
       <c r="R28" s="119"/>
@@ -12412,7 +12412,7 @@
       <c r="P29" s="119" t="s">
         <v>800</v>
       </c>
-      <c r="Q29" s="146" t="s">
+      <c r="Q29" s="150" t="s">
         <v>592</v>
       </c>
       <c r="R29" s="119"/>
@@ -12488,7 +12488,7 @@
       <c r="P30" s="132" t="s">
         <v>810</v>
       </c>
-      <c r="Q30" s="143" t="s">
+      <c r="Q30" s="147" t="s">
         <v>811</v>
       </c>
       <c r="R30" s="132"/>
@@ -12557,7 +12557,7 @@
       <c r="P31" s="119" t="s">
         <v>800</v>
       </c>
-      <c r="Q31" s="146" t="s">
+      <c r="Q31" s="150" t="s">
         <v>815</v>
       </c>
       <c r="R31" s="119"/>
@@ -12621,7 +12621,7 @@
       <c r="P32" s="119" t="s">
         <v>820</v>
       </c>
-      <c r="Q32" s="146" t="s">
+      <c r="Q32" s="150" t="s">
         <v>592</v>
       </c>
       <c r="R32" s="119"/>
@@ -12685,7 +12685,7 @@
       <c r="P33" s="119" t="s">
         <v>824</v>
       </c>
-      <c r="Q33" s="146" t="s">
+      <c r="Q33" s="150" t="s">
         <v>825</v>
       </c>
       <c r="R33" s="119"/>
@@ -12749,7 +12749,7 @@
       <c r="P34" s="119" t="s">
         <v>829</v>
       </c>
-      <c r="Q34" s="146" t="s">
+      <c r="Q34" s="150" t="s">
         <v>830</v>
       </c>
       <c r="R34" s="119"/>
@@ -12813,7 +12813,7 @@
       <c r="P35" s="119" t="s">
         <v>834</v>
       </c>
-      <c r="Q35" s="144">
+      <c r="Q35" s="148">
         <v>44505</v>
       </c>
       <c r="R35" s="119"/>
@@ -12877,7 +12877,7 @@
       <c r="P36" s="119" t="s">
         <v>838</v>
       </c>
-      <c r="Q36" s="144">
+      <c r="Q36" s="148">
         <v>44505</v>
       </c>
       <c r="R36" s="119"/>
@@ -12941,7 +12941,7 @@
       <c r="P37" s="119" t="s">
         <v>842</v>
       </c>
-      <c r="Q37" s="144">
+      <c r="Q37" s="148">
         <v>44505</v>
       </c>
       <c r="R37" s="119"/>
@@ -13005,7 +13005,7 @@
       <c r="P38" s="119" t="s">
         <v>847</v>
       </c>
-      <c r="Q38" s="144">
+      <c r="Q38" s="148">
         <v>44198</v>
       </c>
       <c r="R38" s="119"/>
@@ -13069,7 +13069,7 @@
       <c r="P39" s="119" t="s">
         <v>851</v>
       </c>
-      <c r="Q39" s="144">
+      <c r="Q39" s="148">
         <v>44200</v>
       </c>
       <c r="R39" s="119"/>
@@ -13133,7 +13133,7 @@
       <c r="P40" s="119" t="s">
         <v>856</v>
       </c>
-      <c r="Q40" s="146" t="s">
+      <c r="Q40" s="150" t="s">
         <v>596</v>
       </c>
       <c r="R40" s="119"/>
@@ -13197,7 +13197,7 @@
       <c r="P41" s="119" t="s">
         <v>860</v>
       </c>
-      <c r="Q41" s="146" t="s">
+      <c r="Q41" s="150" t="s">
         <v>861</v>
       </c>
       <c r="R41" s="119"/>
@@ -13261,7 +13261,7 @@
       <c r="P42" s="119" t="s">
         <v>847</v>
       </c>
-      <c r="Q42" s="146" t="s">
+      <c r="Q42" s="150" t="s">
         <v>865</v>
       </c>
       <c r="R42" s="119"/>
@@ -13325,7 +13325,7 @@
       <c r="P43" s="119" t="s">
         <v>870</v>
       </c>
-      <c r="Q43" s="146" t="s">
+      <c r="Q43" s="150" t="s">
         <v>865</v>
       </c>
       <c r="R43" s="119"/>
@@ -13389,7 +13389,7 @@
       <c r="P44" s="119" t="s">
         <v>874</v>
       </c>
-      <c r="Q44" s="146" t="s">
+      <c r="Q44" s="150" t="s">
         <v>875</v>
       </c>
       <c r="R44" s="119"/>
@@ -13453,7 +13453,7 @@
       <c r="P45" s="119" t="s">
         <v>879</v>
       </c>
-      <c r="Q45" s="146" t="s">
+      <c r="Q45" s="150" t="s">
         <v>880</v>
       </c>
       <c r="R45" s="119"/>
@@ -13517,7 +13517,7 @@
       <c r="P46" s="119" t="s">
         <v>884</v>
       </c>
-      <c r="Q46" s="146" t="s">
+      <c r="Q46" s="150" t="s">
         <v>880</v>
       </c>
       <c r="R46" s="119"/>
@@ -13581,7 +13581,7 @@
       <c r="P47" s="119" t="s">
         <v>879</v>
       </c>
-      <c r="Q47" s="146" t="s">
+      <c r="Q47" s="150" t="s">
         <v>880</v>
       </c>
       <c r="R47" s="119"/>
@@ -13645,7 +13645,7 @@
       <c r="P48" s="119" t="s">
         <v>889</v>
       </c>
-      <c r="Q48" s="146" t="s">
+      <c r="Q48" s="150" t="s">
         <v>880</v>
       </c>
       <c r="R48" s="119"/>
@@ -13709,7 +13709,7 @@
       <c r="P49" s="119" t="s">
         <v>892</v>
       </c>
-      <c r="Q49" s="146" t="s">
+      <c r="Q49" s="150" t="s">
         <v>880</v>
       </c>
       <c r="R49" s="119"/>
@@ -13782,7 +13782,7 @@
       <c r="P50" s="132" t="s">
         <v>895</v>
       </c>
-      <c r="Q50" s="147">
+      <c r="Q50" s="151">
         <v>44147</v>
       </c>
       <c r="R50" s="132"/>
@@ -13851,7 +13851,7 @@
       <c r="P51" s="137" t="s">
         <v>899</v>
       </c>
-      <c r="Q51" s="148" t="s">
+      <c r="Q51" s="152" t="s">
         <v>900</v>
       </c>
       <c r="R51" s="137" t="s">
@@ -13917,7 +13917,7 @@
       <c r="P52" s="119" t="s">
         <v>904</v>
       </c>
-      <c r="Q52" s="146" t="s">
+      <c r="Q52" s="150" t="s">
         <v>880</v>
       </c>
       <c r="R52" s="119"/>
@@ -13981,7 +13981,7 @@
       <c r="P53" s="119" t="s">
         <v>847</v>
       </c>
-      <c r="Q53" s="144">
+      <c r="Q53" s="148">
         <v>44534</v>
       </c>
       <c r="R53" s="119"/>
@@ -14045,7 +14045,7 @@
       <c r="P54" s="119" t="s">
         <v>910</v>
       </c>
-      <c r="Q54" s="146" t="s">
+      <c r="Q54" s="150" t="s">
         <v>596</v>
       </c>
       <c r="R54" s="119"/>
@@ -14121,7 +14121,7 @@
       <c r="P55" s="132" t="s">
         <v>916</v>
       </c>
-      <c r="Q55" s="147">
+      <c r="Q55" s="151">
         <v>43842</v>
       </c>
       <c r="R55" s="132"/>
@@ -14199,7 +14199,7 @@
       <c r="P56" s="132" t="s">
         <v>921</v>
       </c>
-      <c r="Q56" s="143" t="s">
+      <c r="Q56" s="147" t="s">
         <v>586</v>
       </c>
       <c r="R56" s="132"/>
@@ -14268,7 +14268,7 @@
       <c r="P57" s="119" t="s">
         <v>925</v>
       </c>
-      <c r="Q57" s="146" t="s">
+      <c r="Q57" s="150" t="s">
         <v>596</v>
       </c>
       <c r="R57" s="119"/>
@@ -14332,7 +14332,7 @@
       <c r="P58" s="119" t="s">
         <v>925</v>
       </c>
-      <c r="Q58" s="146" t="s">
+      <c r="Q58" s="150" t="s">
         <v>596</v>
       </c>
       <c r="R58" s="119"/>
@@ -14396,7 +14396,7 @@
       <c r="P59" s="119" t="s">
         <v>931</v>
       </c>
-      <c r="Q59" s="146" t="s">
+      <c r="Q59" s="150" t="s">
         <v>596</v>
       </c>
       <c r="R59" s="119"/>
@@ -14469,7 +14469,7 @@
       <c r="P60" s="132" t="s">
         <v>937</v>
       </c>
-      <c r="Q60" s="149"/>
+      <c r="Q60" s="153"/>
       <c r="R60" s="133"/>
       <c r="S60" s="132" t="s">
         <v>669</v>
@@ -14536,7 +14536,7 @@
       <c r="P61" s="119" t="s">
         <v>941</v>
       </c>
-      <c r="Q61" s="146" t="s">
+      <c r="Q61" s="150" t="s">
         <v>596</v>
       </c>
       <c r="R61" s="119"/>
@@ -14600,7 +14600,7 @@
       <c r="P62" s="119" t="s">
         <v>945</v>
       </c>
-      <c r="Q62" s="146" t="s">
+      <c r="Q62" s="150" t="s">
         <v>596</v>
       </c>
       <c r="R62" s="119"/>
@@ -14664,7 +14664,7 @@
       <c r="P63" s="119" t="s">
         <v>950</v>
       </c>
-      <c r="Q63" s="146" t="s">
+      <c r="Q63" s="150" t="s">
         <v>596</v>
       </c>
       <c r="R63" s="119"/>
@@ -14728,7 +14728,7 @@
       <c r="P64" s="119" t="s">
         <v>950</v>
       </c>
-      <c r="Q64" s="146" t="s">
+      <c r="Q64" s="150" t="s">
         <v>596</v>
       </c>
       <c r="R64" s="119"/>
@@ -14792,7 +14792,7 @@
       <c r="P65" s="119" t="s">
         <v>955</v>
       </c>
-      <c r="Q65" s="146" t="s">
+      <c r="Q65" s="150" t="s">
         <v>596</v>
       </c>
       <c r="R65" s="119"/>
@@ -14856,7 +14856,7 @@
       <c r="P66" s="119" t="s">
         <v>860</v>
       </c>
-      <c r="Q66" s="146" t="s">
+      <c r="Q66" s="150" t="s">
         <v>861</v>
       </c>
       <c r="R66" s="119"/>
@@ -14920,7 +14920,7 @@
       <c r="P67" s="119" t="s">
         <v>860</v>
       </c>
-      <c r="Q67" s="146" t="s">
+      <c r="Q67" s="150" t="s">
         <v>861</v>
       </c>
       <c r="R67" s="119"/>
@@ -14984,7 +14984,7 @@
       <c r="P68" s="119" t="s">
         <v>955</v>
       </c>
-      <c r="Q68" s="146" t="s">
+      <c r="Q68" s="150" t="s">
         <v>602</v>
       </c>
       <c r="R68" s="119"/>
@@ -15048,7 +15048,7 @@
       <c r="P69" s="119" t="s">
         <v>967</v>
       </c>
-      <c r="Q69" s="146" t="s">
+      <c r="Q69" s="150" t="s">
         <v>968</v>
       </c>
       <c r="R69" s="119"/>
@@ -15112,7 +15112,7 @@
       <c r="P70" s="119" t="s">
         <v>972</v>
       </c>
-      <c r="Q70" s="146" t="s">
+      <c r="Q70" s="150" t="s">
         <v>968</v>
       </c>
       <c r="R70" s="119"/>
@@ -15185,7 +15185,7 @@
       <c r="P71" s="132" t="s">
         <v>978</v>
       </c>
-      <c r="Q71" s="147">
+      <c r="Q71" s="151">
         <v>44448</v>
       </c>
       <c r="R71" s="132"/>
@@ -15254,7 +15254,7 @@
       <c r="P72" s="119" t="s">
         <v>982</v>
       </c>
-      <c r="Q72" s="145"/>
+      <c r="Q72" s="149"/>
       <c r="R72" s="121"/>
       <c r="S72" s="119" t="s">
         <v>669</v>
@@ -15316,7 +15316,7 @@
       <c r="P73" s="119" t="s">
         <v>986</v>
       </c>
-      <c r="Q73" s="146" t="s">
+      <c r="Q73" s="150" t="s">
         <v>968</v>
       </c>
       <c r="R73" s="119"/>
@@ -15380,7 +15380,7 @@
       <c r="P74" s="119" t="s">
         <v>986</v>
       </c>
-      <c r="Q74" s="146" t="s">
+      <c r="Q74" s="150" t="s">
         <v>968</v>
       </c>
       <c r="R74" s="119"/>
@@ -15439,7 +15439,7 @@
       <c r="P75" s="119" t="s">
         <v>991</v>
       </c>
-      <c r="Q75" s="144">
+      <c r="Q75" s="148">
         <v>44381</v>
       </c>
       <c r="R75" s="119"/>
@@ -15503,7 +15503,7 @@
       <c r="P76" s="119" t="s">
         <v>995</v>
       </c>
-      <c r="Q76" s="144">
+      <c r="Q76" s="148">
         <v>44351</v>
       </c>
       <c r="R76" s="119"/>
@@ -15567,7 +15567,7 @@
       <c r="P77" s="119" t="s">
         <v>999</v>
       </c>
-      <c r="Q77" s="144">
+      <c r="Q77" s="148">
         <v>44351</v>
       </c>
       <c r="R77" s="119"/>
@@ -15631,7 +15631,7 @@
       <c r="P78" s="119" t="s">
         <v>999</v>
       </c>
-      <c r="Q78" s="144">
+      <c r="Q78" s="148">
         <v>44381</v>
       </c>
       <c r="R78" s="119"/>
@@ -15695,7 +15695,7 @@
       <c r="P79" s="119" t="s">
         <v>1007</v>
       </c>
-      <c r="Q79" s="146" t="s">
+      <c r="Q79" s="150" t="s">
         <v>1008</v>
       </c>
       <c r="R79" s="119"/>
@@ -15759,7 +15759,7 @@
       <c r="P80" s="119" t="s">
         <v>1007</v>
       </c>
-      <c r="Q80" s="146" t="s">
+      <c r="Q80" s="150" t="s">
         <v>1008</v>
       </c>
       <c r="R80" s="119"/>
@@ -15823,7 +15823,7 @@
       <c r="P81" s="119" t="s">
         <v>1015</v>
       </c>
-      <c r="Q81" s="146" t="s">
+      <c r="Q81" s="150" t="s">
         <v>1016</v>
       </c>
       <c r="R81" s="119"/>
@@ -15887,7 +15887,7 @@
       <c r="P82" s="119" t="s">
         <v>1015</v>
       </c>
-      <c r="Q82" s="146" t="s">
+      <c r="Q82" s="150" t="s">
         <v>1016</v>
       </c>
       <c r="R82" s="119"/>
@@ -15951,7 +15951,7 @@
       <c r="P83" s="119" t="s">
         <v>1023</v>
       </c>
-      <c r="Q83" s="146" t="s">
+      <c r="Q83" s="150" t="s">
         <v>1016</v>
       </c>
       <c r="R83" s="119"/>
@@ -16015,7 +16015,7 @@
       <c r="P84" s="119" t="s">
         <v>1027</v>
       </c>
-      <c r="Q84" s="146" t="s">
+      <c r="Q84" s="150" t="s">
         <v>1028</v>
       </c>
       <c r="R84" s="119"/>
@@ -16079,7 +16079,7 @@
       <c r="P85" s="119" t="s">
         <v>1015</v>
       </c>
-      <c r="Q85" s="146" t="s">
+      <c r="Q85" s="150" t="s">
         <v>1028</v>
       </c>
       <c r="R85" s="119"/>
@@ -16143,7 +16143,7 @@
       <c r="P86" s="119" t="s">
         <v>1036</v>
       </c>
-      <c r="Q86" s="146" t="s">
+      <c r="Q86" s="150" t="s">
         <v>1028</v>
       </c>
       <c r="R86" s="119"/>
@@ -16207,7 +16207,7 @@
       <c r="P87" s="119" t="s">
         <v>1040</v>
       </c>
-      <c r="Q87" s="146" t="s">
+      <c r="Q87" s="150" t="s">
         <v>1041</v>
       </c>
       <c r="R87" s="119"/>
@@ -16271,7 +16271,7 @@
       <c r="P88" s="119" t="s">
         <v>1046</v>
       </c>
-      <c r="Q88" s="146" t="s">
+      <c r="Q88" s="150" t="s">
         <v>1047</v>
       </c>
       <c r="R88" s="119"/>
@@ -16335,7 +16335,7 @@
       <c r="P89" s="119" t="s">
         <v>1051</v>
       </c>
-      <c r="Q89" s="146" t="s">
+      <c r="Q89" s="150" t="s">
         <v>1047</v>
       </c>
       <c r="R89" s="119"/>
@@ -16399,7 +16399,7 @@
       <c r="P90" s="119" t="s">
         <v>1055</v>
       </c>
-      <c r="Q90" s="146" t="s">
+      <c r="Q90" s="150" t="s">
         <v>1056</v>
       </c>
       <c r="R90" s="119"/>
@@ -16475,7 +16475,7 @@
       <c r="P91" s="132" t="s">
         <v>1063</v>
       </c>
-      <c r="Q91" s="143" t="s">
+      <c r="Q91" s="147" t="s">
         <v>596</v>
       </c>
       <c r="R91" s="132"/>
@@ -16542,7 +16542,7 @@
       <c r="P92" s="137" t="s">
         <v>1067</v>
       </c>
-      <c r="Q92" s="148" t="s">
+      <c r="Q92" s="152" t="s">
         <v>1068</v>
       </c>
       <c r="R92" s="137"/>
@@ -16609,7 +16609,7 @@
       <c r="P93" s="137" t="s">
         <v>1067</v>
       </c>
-      <c r="Q93" s="148" t="s">
+      <c r="Q93" s="152" t="s">
         <v>1068</v>
       </c>
       <c r="R93" s="137"/>
@@ -16676,7 +16676,7 @@
         <v>949</v>
       </c>
       <c r="P94" s="121"/>
-      <c r="Q94" s="144">
+      <c r="Q94" s="148">
         <v>44533</v>
       </c>
       <c r="R94" s="119"/>
@@ -16738,7 +16738,7 @@
         <v>949</v>
       </c>
       <c r="P95" s="121"/>
-      <c r="Q95" s="144">
+      <c r="Q95" s="148">
         <v>44533</v>
       </c>
       <c r="R95" s="119"/>
@@ -16814,7 +16814,7 @@
       <c r="P96" s="132" t="s">
         <v>1075</v>
       </c>
-      <c r="Q96" s="143" t="s">
+      <c r="Q96" s="147" t="s">
         <v>602</v>
       </c>
       <c r="R96" s="132"/>
@@ -16883,7 +16883,7 @@
       <c r="P97" s="119" t="s">
         <v>1079</v>
       </c>
-      <c r="Q97" s="146" t="s">
+      <c r="Q97" s="150" t="s">
         <v>1080</v>
       </c>
       <c r="R97" s="119"/>
@@ -16947,7 +16947,7 @@
       <c r="P98" s="119" t="s">
         <v>1084</v>
       </c>
-      <c r="Q98" s="144">
+      <c r="Q98" s="148">
         <v>44289</v>
       </c>
       <c r="R98" s="119"/>
@@ -17011,7 +17011,7 @@
       <c r="P99" s="119" t="s">
         <v>1084</v>
       </c>
-      <c r="Q99" s="144">
+      <c r="Q99" s="148">
         <v>44289</v>
       </c>
       <c r="R99" s="119"/>
@@ -17075,7 +17075,7 @@
       <c r="P100" s="119" t="s">
         <v>1079</v>
       </c>
-      <c r="Q100" s="144">
+      <c r="Q100" s="148">
         <v>44289</v>
       </c>
       <c r="R100" s="119"/>
@@ -17135,7 +17135,7 @@
       <c r="P101" s="132" t="s">
         <v>1094</v>
       </c>
-      <c r="Q101" s="143" t="s">
+      <c r="Q101" s="147" t="s">
         <v>1095</v>
       </c>
       <c r="R101" s="132"/>
@@ -17204,7 +17204,7 @@
       <c r="P102" s="119" t="s">
         <v>1079</v>
       </c>
-      <c r="Q102" s="144">
+      <c r="Q102" s="148">
         <v>44289</v>
       </c>
       <c r="R102" s="119"/>
@@ -17268,7 +17268,7 @@
       <c r="P103" s="119" t="s">
         <v>1102</v>
       </c>
-      <c r="Q103" s="146" t="s">
+      <c r="Q103" s="150" t="s">
         <v>1103</v>
       </c>
       <c r="R103" s="119"/>
@@ -17332,7 +17332,7 @@
       <c r="P104" s="119" t="s">
         <v>1107</v>
       </c>
-      <c r="Q104" s="146" t="s">
+      <c r="Q104" s="150" t="s">
         <v>1103</v>
       </c>
       <c r="R104" s="119"/>
@@ -17396,7 +17396,7 @@
       <c r="P105" s="119" t="s">
         <v>1111</v>
       </c>
-      <c r="Q105" s="146" t="s">
+      <c r="Q105" s="150" t="s">
         <v>1112</v>
       </c>
       <c r="R105" s="119"/>
@@ -17469,7 +17469,7 @@
       <c r="P106" s="132" t="s">
         <v>1117</v>
       </c>
-      <c r="Q106" s="147">
+      <c r="Q106" s="151">
         <v>44533</v>
       </c>
       <c r="R106" s="132"/>
@@ -17538,7 +17538,7 @@
       <c r="P107" s="119" t="s">
         <v>1121</v>
       </c>
-      <c r="Q107" s="146" t="s">
+      <c r="Q107" s="150" t="s">
         <v>861</v>
       </c>
       <c r="R107" s="119"/>
@@ -17602,7 +17602,7 @@
       <c r="P108" s="119" t="s">
         <v>1125</v>
       </c>
-      <c r="Q108" s="146" t="s">
+      <c r="Q108" s="150" t="s">
         <v>1126</v>
       </c>
       <c r="R108" s="119" t="s">
@@ -17668,7 +17668,7 @@
       <c r="P109" s="119" t="s">
         <v>1130</v>
       </c>
-      <c r="Q109" s="146" t="s">
+      <c r="Q109" s="150" t="s">
         <v>1131</v>
       </c>
       <c r="R109" s="119"/>
@@ -17727,7 +17727,7 @@
       <c r="P110" s="119" t="s">
         <v>1134</v>
       </c>
-      <c r="Q110" s="144">
+      <c r="Q110" s="148">
         <v>44502</v>
       </c>
       <c r="R110" s="119"/>
@@ -17791,7 +17791,7 @@
       <c r="P111" s="119" t="s">
         <v>1138</v>
       </c>
-      <c r="Q111" s="144">
+      <c r="Q111" s="148">
         <v>44238</v>
       </c>
       <c r="R111" s="119"/>
@@ -17855,7 +17855,7 @@
       <c r="P112" s="119" t="s">
         <v>1138</v>
       </c>
-      <c r="Q112" s="144">
+      <c r="Q112" s="148">
         <v>44502</v>
       </c>
       <c r="R112" s="119"/>
@@ -17919,7 +17919,7 @@
       <c r="P113" s="119" t="s">
         <v>1144</v>
       </c>
-      <c r="Q113" s="144">
+      <c r="Q113" s="148">
         <v>44471</v>
       </c>
       <c r="R113" s="119"/>
@@ -17978,7 +17978,7 @@
       <c r="P114" s="119" t="s">
         <v>1149</v>
       </c>
-      <c r="Q114" s="144">
+      <c r="Q114" s="148">
         <v>44288</v>
       </c>
       <c r="R114" s="119"/>
@@ -18042,7 +18042,7 @@
       <c r="P115" s="119" t="s">
         <v>1055</v>
       </c>
-      <c r="Q115" s="144">
+      <c r="Q115" s="148">
         <v>44198</v>
       </c>
       <c r="R115" s="119"/>
@@ -18106,7 +18106,7 @@
       <c r="P116" s="119" t="s">
         <v>1156</v>
       </c>
-      <c r="Q116" s="144">
+      <c r="Q116" s="148">
         <v>44198</v>
       </c>
       <c r="R116" s="119"/>
@@ -18170,7 +18170,7 @@
       <c r="P117" s="119" t="s">
         <v>1160</v>
       </c>
-      <c r="Q117" s="146" t="s">
+      <c r="Q117" s="150" t="s">
         <v>1161</v>
       </c>
       <c r="R117" s="119"/>
@@ -18234,7 +18234,7 @@
       <c r="P118" s="119" t="s">
         <v>1165</v>
       </c>
-      <c r="Q118" s="146" t="s">
+      <c r="Q118" s="150" t="s">
         <v>1166</v>
       </c>
       <c r="R118" s="119"/>
@@ -18298,7 +18298,7 @@
       <c r="P119" s="119" t="s">
         <v>1170</v>
       </c>
-      <c r="Q119" s="146" t="s">
+      <c r="Q119" s="150" t="s">
         <v>1171</v>
       </c>
       <c r="R119" s="119"/>
@@ -18362,7 +18362,7 @@
       <c r="P120" s="119" t="s">
         <v>1055</v>
       </c>
-      <c r="Q120" s="146" t="s">
+      <c r="Q120" s="150" t="s">
         <v>1175</v>
       </c>
       <c r="R120" s="119"/>
@@ -18426,7 +18426,7 @@
       <c r="P121" s="119" t="s">
         <v>1055</v>
       </c>
-      <c r="Q121" s="146" t="s">
+      <c r="Q121" s="150" t="s">
         <v>1175</v>
       </c>
       <c r="R121" s="119"/>
@@ -18490,7 +18490,7 @@
       <c r="P122" s="119" t="s">
         <v>1183</v>
       </c>
-      <c r="Q122" s="144">
+      <c r="Q122" s="148">
         <v>44501</v>
       </c>
       <c r="R122" s="119"/>
@@ -18554,7 +18554,7 @@
       <c r="P123" s="119" t="s">
         <v>1156</v>
       </c>
-      <c r="Q123" s="144">
+      <c r="Q123" s="148">
         <v>44531</v>
       </c>
       <c r="R123" s="119"/>
@@ -18618,7 +18618,7 @@
       <c r="P124" s="119" t="s">
         <v>1156</v>
       </c>
-      <c r="Q124" s="146" t="s">
+      <c r="Q124" s="150" t="s">
         <v>1190</v>
       </c>
       <c r="R124" s="119"/>
@@ -18682,7 +18682,7 @@
       <c r="P125" s="119" t="s">
         <v>1194</v>
       </c>
-      <c r="Q125" s="144">
+      <c r="Q125" s="148">
         <v>44348</v>
       </c>
       <c r="R125" s="119"/>
@@ -18746,7 +18746,7 @@
       <c r="P126" s="119" t="s">
         <v>1198</v>
       </c>
-      <c r="Q126" s="144">
+      <c r="Q126" s="148">
         <v>44197</v>
       </c>
       <c r="R126" s="119"/>
@@ -18822,7 +18822,7 @@
       <c r="P127" s="132" t="s">
         <v>1079</v>
       </c>
-      <c r="Q127" s="147">
+      <c r="Q127" s="151">
         <v>44289</v>
       </c>
       <c r="R127" s="132"/>
@@ -18886,7 +18886,7 @@
       <c r="P128" s="119" t="s">
         <v>1206</v>
       </c>
-      <c r="Q128" s="146" t="s">
+      <c r="Q128" s="150" t="s">
         <v>617</v>
       </c>
       <c r="R128" s="119"/>
@@ -18950,7 +18950,7 @@
       <c r="P129" s="119" t="s">
         <v>1211</v>
       </c>
-      <c r="Q129" s="146" t="s">
+      <c r="Q129" s="150" t="s">
         <v>1212</v>
       </c>
       <c r="R129" s="119"/>
@@ -19014,7 +19014,7 @@
       <c r="P130" s="119" t="s">
         <v>1216</v>
       </c>
-      <c r="Q130" s="146" t="s">
+      <c r="Q130" s="150" t="s">
         <v>1212</v>
       </c>
       <c r="R130" s="119"/>
@@ -19078,7 +19078,7 @@
       <c r="P131" s="119" t="s">
         <v>1220</v>
       </c>
-      <c r="Q131" s="146" t="s">
+      <c r="Q131" s="150" t="s">
         <v>1221</v>
       </c>
       <c r="R131" s="119"/>
@@ -19142,7 +19142,7 @@
       <c r="P132" s="119" t="s">
         <v>1225</v>
       </c>
-      <c r="Q132" s="144">
+      <c r="Q132" s="148">
         <v>44147</v>
       </c>
       <c r="R132" s="119"/>
@@ -19206,7 +19206,7 @@
       <c r="P133" s="119" t="s">
         <v>1229</v>
       </c>
-      <c r="Q133" s="144">
+      <c r="Q133" s="148">
         <v>44147</v>
       </c>
       <c r="R133" s="119"/>
@@ -19270,7 +19270,7 @@
       <c r="P134" s="119" t="s">
         <v>1233</v>
       </c>
-      <c r="Q134" s="144">
+      <c r="Q134" s="148">
         <v>44147</v>
       </c>
       <c r="R134" s="119"/>
@@ -19334,7 +19334,7 @@
       <c r="P135" s="119" t="s">
         <v>1236</v>
       </c>
-      <c r="Q135" s="144">
+      <c r="Q135" s="148">
         <v>44147</v>
       </c>
       <c r="R135" s="119"/>
@@ -19394,7 +19394,7 @@
       <c r="P136" s="132" t="s">
         <v>1239</v>
       </c>
-      <c r="Q136" s="147">
+      <c r="Q136" s="151">
         <v>44384</v>
       </c>
       <c r="R136" s="132"/>
@@ -19461,7 +19461,7 @@
       <c r="P137" s="132" t="s">
         <v>904</v>
       </c>
-      <c r="Q137" s="143" t="s">
+      <c r="Q137" s="147" t="s">
         <v>880</v>
       </c>
       <c r="R137" s="132"/>
@@ -19530,7 +19530,7 @@
       <c r="P138" s="119" t="s">
         <v>1247</v>
       </c>
-      <c r="Q138" s="144">
+      <c r="Q138" s="148">
         <v>44147</v>
       </c>
       <c r="R138" s="119"/>
@@ -19594,7 +19594,7 @@
       <c r="P139" s="119" t="s">
         <v>1250</v>
       </c>
-      <c r="Q139" s="144">
+      <c r="Q139" s="148">
         <v>44147</v>
       </c>
       <c r="R139" s="119"/>
@@ -19658,7 +19658,7 @@
       <c r="P140" s="119" t="s">
         <v>1253</v>
       </c>
-      <c r="Q140" s="144">
+      <c r="Q140" s="148">
         <v>44147</v>
       </c>
       <c r="R140" s="119"/>
@@ -19731,7 +19731,7 @@
       <c r="P141" s="132" t="s">
         <v>1258</v>
       </c>
-      <c r="Q141" s="143" t="s">
+      <c r="Q141" s="147" t="s">
         <v>622</v>
       </c>
       <c r="R141" s="132"/>
@@ -19809,7 +19809,7 @@
       <c r="P142" s="132" t="s">
         <v>1261</v>
       </c>
-      <c r="Q142" s="143" t="s">
+      <c r="Q142" s="147" t="s">
         <v>624</v>
       </c>
       <c r="R142" s="132"/>
@@ -19878,7 +19878,7 @@
       <c r="P143" s="119" t="s">
         <v>1265</v>
       </c>
-      <c r="Q143" s="146" t="s">
+      <c r="Q143" s="150" t="s">
         <v>622</v>
       </c>
       <c r="R143" s="119"/>
@@ -19942,7 +19942,7 @@
       <c r="P144" s="119" t="s">
         <v>1268</v>
       </c>
-      <c r="Q144" s="146" t="s">
+      <c r="Q144" s="150" t="s">
         <v>622</v>
       </c>
       <c r="R144" s="119"/>
@@ -20006,7 +20006,7 @@
       <c r="P145" s="119" t="s">
         <v>1271</v>
       </c>
-      <c r="Q145" s="146" t="s">
+      <c r="Q145" s="150" t="s">
         <v>1272</v>
       </c>
       <c r="R145" s="119"/>
@@ -20070,7 +20070,7 @@
       <c r="P146" s="119" t="s">
         <v>1271</v>
       </c>
-      <c r="Q146" s="146" t="s">
+      <c r="Q146" s="150" t="s">
         <v>1272</v>
       </c>
       <c r="R146" s="119"/>
@@ -20134,7 +20134,7 @@
       <c r="P147" s="119" t="s">
         <v>1280</v>
       </c>
-      <c r="Q147" s="146" t="s">
+      <c r="Q147" s="150" t="s">
         <v>1281</v>
       </c>
       <c r="R147" s="119"/>
@@ -20198,7 +20198,7 @@
       <c r="P148" s="119" t="s">
         <v>1285</v>
       </c>
-      <c r="Q148" s="146" t="s">
+      <c r="Q148" s="150" t="s">
         <v>1286</v>
       </c>
       <c r="R148" s="119"/>
@@ -20262,7 +20262,7 @@
       <c r="P149" s="119" t="s">
         <v>1290</v>
       </c>
-      <c r="Q149" s="146" t="s">
+      <c r="Q149" s="150" t="s">
         <v>1281</v>
       </c>
       <c r="R149" s="119"/>
@@ -20326,7 +20326,7 @@
       <c r="P150" s="119" t="s">
         <v>1294</v>
       </c>
-      <c r="Q150" s="144">
+      <c r="Q150" s="148">
         <v>44111</v>
       </c>
       <c r="R150" s="119"/>
@@ -20390,7 +20390,7 @@
       <c r="P151" s="119" t="s">
         <v>1298</v>
       </c>
-      <c r="Q151" s="144">
+      <c r="Q151" s="148">
         <v>44085</v>
       </c>
       <c r="R151" s="119"/>
@@ -20454,7 +20454,7 @@
       <c r="P152" s="119" t="s">
         <v>1302</v>
       </c>
-      <c r="Q152" s="144">
+      <c r="Q152" s="148">
         <v>44144</v>
       </c>
       <c r="R152" s="119"/>
@@ -20518,7 +20518,7 @@
       <c r="P153" s="119" t="s">
         <v>1302</v>
       </c>
-      <c r="Q153" s="144">
+      <c r="Q153" s="148">
         <v>44115</v>
       </c>
       <c r="R153" s="119"/>
@@ -20582,7 +20582,7 @@
       <c r="P154" s="119" t="s">
         <v>1229</v>
       </c>
-      <c r="Q154" s="146" t="s">
+      <c r="Q154" s="150" t="s">
         <v>1309</v>
       </c>
       <c r="R154" s="119"/>
@@ -20646,7 +20646,7 @@
       <c r="P155" s="119" t="s">
         <v>1229</v>
       </c>
-      <c r="Q155" s="146" t="s">
+      <c r="Q155" s="150" t="s">
         <v>1309</v>
       </c>
       <c r="R155" s="119"/>
@@ -20710,7 +20710,7 @@
       <c r="P156" s="119" t="s">
         <v>1229</v>
       </c>
-      <c r="Q156" s="146" t="s">
+      <c r="Q156" s="150" t="s">
         <v>1309</v>
       </c>
       <c r="R156" s="119"/>
@@ -20774,7 +20774,7 @@
       <c r="P157" s="119" t="s">
         <v>1229</v>
       </c>
-      <c r="Q157" s="146" t="s">
+      <c r="Q157" s="150" t="s">
         <v>1309</v>
       </c>
       <c r="R157" s="119"/>
@@ -20838,7 +20838,7 @@
       <c r="P158" s="119" t="s">
         <v>1229</v>
       </c>
-      <c r="Q158" s="146" t="s">
+      <c r="Q158" s="150" t="s">
         <v>1309</v>
       </c>
       <c r="R158" s="119"/>
@@ -20902,7 +20902,7 @@
       <c r="P159" s="119" t="s">
         <v>1321</v>
       </c>
-      <c r="Q159" s="146" t="s">
+      <c r="Q159" s="150" t="s">
         <v>1322</v>
       </c>
       <c r="R159" s="119"/>
@@ -20966,7 +20966,7 @@
       <c r="P160" s="119" t="s">
         <v>1107</v>
       </c>
-      <c r="Q160" s="144">
+      <c r="Q160" s="148">
         <v>43872</v>
       </c>
       <c r="R160" s="119"/>
@@ -21030,7 +21030,7 @@
       <c r="P161" s="119" t="s">
         <v>1330</v>
       </c>
-      <c r="Q161" s="144">
+      <c r="Q161" s="148">
         <v>43872</v>
       </c>
       <c r="R161" s="119"/>
@@ -21094,7 +21094,7 @@
       <c r="P162" s="119" t="s">
         <v>1335</v>
       </c>
-      <c r="Q162" s="144">
+      <c r="Q162" s="148">
         <v>43993</v>
       </c>
       <c r="R162" s="119"/>
@@ -21158,7 +21158,7 @@
       <c r="P163" s="119" t="s">
         <v>1340</v>
       </c>
-      <c r="Q163" s="144">
+      <c r="Q163" s="148">
         <v>43872</v>
       </c>
       <c r="R163" s="119"/>
@@ -21222,7 +21222,7 @@
       <c r="P164" s="119" t="s">
         <v>1340</v>
       </c>
-      <c r="Q164" s="144">
+      <c r="Q164" s="148">
         <v>43872</v>
       </c>
       <c r="R164" s="119"/>
@@ -21286,7 +21286,7 @@
       <c r="P165" s="119" t="s">
         <v>1107</v>
       </c>
-      <c r="Q165" s="144">
+      <c r="Q165" s="148">
         <v>43872</v>
       </c>
       <c r="R165" s="119"/>
@@ -21359,7 +21359,7 @@
       <c r="P166" s="132" t="s">
         <v>1352</v>
       </c>
-      <c r="Q166" s="143" t="s">
+      <c r="Q166" s="147" t="s">
         <v>596</v>
       </c>
       <c r="R166" s="132"/>
@@ -21428,7 +21428,7 @@
       <c r="P167" s="119" t="s">
         <v>1356</v>
       </c>
-      <c r="Q167" s="144">
+      <c r="Q167" s="148">
         <v>43901</v>
       </c>
       <c r="R167" s="119"/>
@@ -21492,7 +21492,7 @@
       <c r="P168" s="119" t="s">
         <v>1360</v>
       </c>
-      <c r="Q168" s="146" t="s">
+      <c r="Q168" s="150" t="s">
         <v>1361</v>
       </c>
       <c r="R168" s="119"/>
@@ -21568,7 +21568,7 @@
       <c r="P169" s="132" t="s">
         <v>904</v>
       </c>
-      <c r="Q169" s="143" t="s">
+      <c r="Q169" s="147" t="s">
         <v>880</v>
       </c>
       <c r="R169" s="132"/>
@@ -21637,7 +21637,7 @@
       <c r="P170" s="119" t="s">
         <v>1369</v>
       </c>
-      <c r="Q170" s="146" t="s">
+      <c r="Q170" s="150" t="s">
         <v>1370</v>
       </c>
       <c r="R170" s="119"/>
@@ -21701,7 +21701,7 @@
       <c r="P171" s="119" t="s">
         <v>1107</v>
       </c>
-      <c r="Q171" s="146" t="s">
+      <c r="Q171" s="150" t="s">
         <v>1361</v>
       </c>
       <c r="R171" s="119"/>
@@ -21765,7 +21765,7 @@
       <c r="P172" s="119" t="s">
         <v>1107</v>
       </c>
-      <c r="Q172" s="146" t="s">
+      <c r="Q172" s="150" t="s">
         <v>1377</v>
       </c>
       <c r="R172" s="119"/>
@@ -21829,7 +21829,7 @@
       <c r="P173" s="119" t="s">
         <v>1381</v>
       </c>
-      <c r="Q173" s="146" t="s">
+      <c r="Q173" s="150" t="s">
         <v>1382</v>
       </c>
       <c r="R173" s="119"/>
@@ -21893,7 +21893,7 @@
       <c r="P174" s="119" t="s">
         <v>1386</v>
       </c>
-      <c r="Q174" s="146" t="s">
+      <c r="Q174" s="150" t="s">
         <v>1387</v>
       </c>
       <c r="R174" s="119"/>
@@ -21957,7 +21957,7 @@
       <c r="P175" s="119" t="s">
         <v>1386</v>
       </c>
-      <c r="Q175" s="146" t="s">
+      <c r="Q175" s="150" t="s">
         <v>1387</v>
       </c>
       <c r="R175" s="119"/>
@@ -22021,7 +22021,7 @@
       <c r="P176" s="119" t="s">
         <v>1393</v>
       </c>
-      <c r="Q176" s="146" t="s">
+      <c r="Q176" s="150" t="s">
         <v>1394</v>
       </c>
       <c r="R176" s="119"/>
@@ -22087,7 +22087,7 @@
       <c r="P177" s="119" t="s">
         <v>1399</v>
       </c>
-      <c r="Q177" s="146" t="s">
+      <c r="Q177" s="150" t="s">
         <v>1387</v>
       </c>
       <c r="R177" s="119"/>
@@ -22151,7 +22151,7 @@
       <c r="P178" s="119" t="s">
         <v>1403</v>
       </c>
-      <c r="Q178" s="146" t="s">
+      <c r="Q178" s="150" t="s">
         <v>1404</v>
       </c>
       <c r="R178" s="119"/>
@@ -22215,7 +22215,7 @@
       <c r="P179" s="119" t="s">
         <v>1408</v>
       </c>
-      <c r="Q179" s="146" t="s">
+      <c r="Q179" s="150" t="s">
         <v>1361</v>
       </c>
       <c r="R179" s="119"/>
@@ -22279,7 +22279,7 @@
       <c r="P180" s="119" t="s">
         <v>1412</v>
       </c>
-      <c r="Q180" s="146" t="s">
+      <c r="Q180" s="150" t="s">
         <v>1377</v>
       </c>
       <c r="R180" s="119"/>
@@ -22352,7 +22352,7 @@
       <c r="P181" s="132" t="s">
         <v>1417</v>
       </c>
-      <c r="Q181" s="143" t="s">
+      <c r="Q181" s="147" t="s">
         <v>624</v>
       </c>
       <c r="R181" s="132"/>
@@ -22416,7 +22416,7 @@
       <c r="P182" s="119" t="s">
         <v>1420</v>
       </c>
-      <c r="Q182" s="146" t="s">
+      <c r="Q182" s="150" t="s">
         <v>627</v>
       </c>
       <c r="R182" s="120">
@@ -22494,7 +22494,7 @@
       <c r="P183" s="132" t="s">
         <v>1424</v>
       </c>
-      <c r="Q183" s="143" t="s">
+      <c r="Q183" s="147" t="s">
         <v>596</v>
       </c>
       <c r="R183" s="132"/>
@@ -22563,7 +22563,7 @@
       <c r="P184" s="119" t="s">
         <v>1427</v>
       </c>
-      <c r="Q184" s="144">
+      <c r="Q184" s="148">
         <v>44053</v>
       </c>
       <c r="R184" s="119"/>
@@ -22627,7 +22627,7 @@
       <c r="P185" s="119" t="s">
         <v>1427</v>
       </c>
-      <c r="Q185" s="144">
+      <c r="Q185" s="148">
         <v>44053</v>
       </c>
       <c r="R185" s="119"/>
@@ -22691,7 +22691,7 @@
       <c r="P186" s="119" t="s">
         <v>1433</v>
       </c>
-      <c r="Q186" s="146" t="s">
+      <c r="Q186" s="150" t="s">
         <v>1434</v>
       </c>
       <c r="R186" s="119"/>
@@ -22755,7 +22755,7 @@
       <c r="P187" s="119" t="s">
         <v>1438</v>
       </c>
-      <c r="Q187" s="146" t="s">
+      <c r="Q187" s="150" t="s">
         <v>1434</v>
       </c>
       <c r="R187" s="119"/>
@@ -22819,7 +22819,7 @@
       <c r="P188" s="119" t="s">
         <v>769</v>
       </c>
-      <c r="Q188" s="144">
+      <c r="Q188" s="148">
         <v>43840</v>
       </c>
       <c r="R188" s="119"/>
@@ -22883,7 +22883,7 @@
       <c r="P189" s="119" t="s">
         <v>769</v>
       </c>
-      <c r="Q189" s="144">
+      <c r="Q189" s="148">
         <v>43840</v>
       </c>
       <c r="R189" s="119"/>
@@ -22956,7 +22956,7 @@
       <c r="P190" s="132" t="s">
         <v>1447</v>
       </c>
-      <c r="Q190" s="147">
+      <c r="Q190" s="151">
         <v>44084</v>
       </c>
       <c r="R190" s="132"/>
@@ -23025,7 +23025,7 @@
       <c r="P191" s="119" t="s">
         <v>1451</v>
       </c>
-      <c r="Q191" s="146" t="s">
+      <c r="Q191" s="150" t="s">
         <v>630</v>
       </c>
       <c r="R191" s="119"/>
@@ -23098,7 +23098,7 @@
       <c r="P192" s="132" t="s">
         <v>1458</v>
       </c>
-      <c r="Q192" s="147">
+      <c r="Q192" s="151">
         <v>44173</v>
       </c>
       <c r="R192" s="132"/>
@@ -23176,7 +23176,7 @@
       <c r="P193" s="132" t="s">
         <v>1463</v>
       </c>
-      <c r="Q193" s="147">
+      <c r="Q193" s="151">
         <v>44083</v>
       </c>
       <c r="R193" s="132"/>
@@ -23240,7 +23240,7 @@
       <c r="P194" s="119" t="s">
         <v>1467</v>
       </c>
-      <c r="Q194" s="146" t="s">
+      <c r="Q194" s="150" t="s">
         <v>1468</v>
       </c>
       <c r="R194" s="119"/>
@@ -23304,7 +23304,7 @@
       <c r="P195" s="119" t="s">
         <v>1472</v>
       </c>
-      <c r="Q195" s="146" t="s">
+      <c r="Q195" s="150" t="s">
         <v>1473</v>
       </c>
       <c r="R195" s="119"/>
@@ -23368,7 +23368,7 @@
       <c r="P196" s="119" t="s">
         <v>1478</v>
       </c>
-      <c r="Q196" s="146" t="s">
+      <c r="Q196" s="150" t="s">
         <v>1479</v>
       </c>
       <c r="R196" s="119"/>
@@ -23432,7 +23432,7 @@
       <c r="P197" s="119" t="s">
         <v>1483</v>
       </c>
-      <c r="Q197" s="146" t="s">
+      <c r="Q197" s="150" t="s">
         <v>1484</v>
       </c>
       <c r="R197" s="119"/>
@@ -23496,7 +23496,7 @@
       <c r="P198" s="119" t="s">
         <v>1483</v>
       </c>
-      <c r="Q198" s="146" t="s">
+      <c r="Q198" s="150" t="s">
         <v>1484</v>
       </c>
       <c r="R198" s="119"/>
@@ -23560,7 +23560,7 @@
       <c r="P199" s="119" t="s">
         <v>1420</v>
       </c>
-      <c r="Q199" s="144">
+      <c r="Q199" s="148">
         <v>44113</v>
       </c>
       <c r="R199" s="119"/>
@@ -23624,7 +23624,7 @@
       <c r="P200" s="119" t="s">
         <v>1494</v>
       </c>
-      <c r="Q200" s="146" t="s">
+      <c r="Q200" s="150" t="s">
         <v>1495</v>
       </c>
       <c r="R200" s="119"/>
@@ -23688,7 +23688,7 @@
       <c r="P201" s="119" t="s">
         <v>1500</v>
       </c>
-      <c r="Q201" s="146" t="s">
+      <c r="Q201" s="150" t="s">
         <v>1495</v>
       </c>
       <c r="R201" s="119"/>
@@ -23752,7 +23752,7 @@
       <c r="P202" s="119" t="s">
         <v>1504</v>
       </c>
-      <c r="Q202" s="146" t="s">
+      <c r="Q202" s="150" t="s">
         <v>1505</v>
       </c>
       <c r="R202" s="119"/>
@@ -23825,7 +23825,7 @@
       <c r="P203" s="132" t="s">
         <v>1504</v>
       </c>
-      <c r="Q203" s="143" t="s">
+      <c r="Q203" s="147" t="s">
         <v>630</v>
       </c>
       <c r="R203" s="132"/>
@@ -23893,7 +23893,7 @@
       <c r="P204" s="119" t="s">
         <v>1512</v>
       </c>
-      <c r="Q204" s="146" t="s">
+      <c r="Q204" s="150" t="s">
         <v>1513</v>
       </c>
       <c r="R204" s="119"/>
@@ -23957,7 +23957,7 @@
       <c r="P205" s="119" t="s">
         <v>1517</v>
       </c>
-      <c r="Q205" s="144">
+      <c r="Q205" s="148">
         <v>43991</v>
       </c>
       <c r="R205" s="119"/>
@@ -24021,7 +24021,7 @@
       <c r="P206" s="119" t="s">
         <v>1522</v>
       </c>
-      <c r="Q206" s="144">
+      <c r="Q206" s="148">
         <v>44021</v>
       </c>
       <c r="R206" s="119"/>
@@ -24097,7 +24097,7 @@
       <c r="P207" s="132" t="s">
         <v>1504</v>
       </c>
-      <c r="Q207" s="143" t="s">
+      <c r="Q207" s="147" t="s">
         <v>630</v>
       </c>
       <c r="R207" s="132"/>
@@ -24165,7 +24165,7 @@
       <c r="P208" s="119" t="s">
         <v>1463</v>
       </c>
-      <c r="Q208" s="144">
+      <c r="Q208" s="148">
         <v>44052</v>
       </c>
       <c r="R208" s="119"/>
@@ -24229,7 +24229,7 @@
       <c r="P209" s="119" t="s">
         <v>1463</v>
       </c>
-      <c r="Q209" s="144">
+      <c r="Q209" s="148">
         <v>44052</v>
       </c>
       <c r="R209" s="119"/>
@@ -24293,7 +24293,7 @@
       <c r="P210" s="119" t="s">
         <v>1463</v>
       </c>
-      <c r="Q210" s="144">
+      <c r="Q210" s="148">
         <v>44052</v>
       </c>
       <c r="R210" s="119"/>
@@ -24357,7 +24357,7 @@
       <c r="P211" s="119" t="s">
         <v>1463</v>
       </c>
-      <c r="Q211" s="144">
+      <c r="Q211" s="148">
         <v>44052</v>
       </c>
       <c r="R211" s="119"/>
@@ -24433,7 +24433,7 @@
       <c r="P212" s="132" t="s">
         <v>1543</v>
       </c>
-      <c r="Q212" s="143" t="s">
+      <c r="Q212" s="147" t="s">
         <v>634</v>
       </c>
       <c r="R212" s="132" t="s">
@@ -24503,7 +24503,7 @@
       <c r="P213" s="119" t="s">
         <v>1547</v>
       </c>
-      <c r="Q213" s="144">
+      <c r="Q213" s="148">
         <v>43930</v>
       </c>
       <c r="R213" s="119"/>
@@ -24567,7 +24567,7 @@
       <c r="P214" s="119" t="s">
         <v>1547</v>
       </c>
-      <c r="Q214" s="144">
+      <c r="Q214" s="148">
         <v>43930</v>
       </c>
       <c r="R214" s="119"/>
@@ -24631,7 +24631,7 @@
       <c r="P215" s="119" t="s">
         <v>1551</v>
       </c>
-      <c r="Q215" s="146" t="s">
+      <c r="Q215" s="150" t="s">
         <v>1552</v>
       </c>
       <c r="R215" s="119"/>
@@ -24695,7 +24695,7 @@
       <c r="P216" s="119" t="s">
         <v>1551</v>
       </c>
-      <c r="Q216" s="144">
+      <c r="Q216" s="148">
         <v>43870</v>
       </c>
       <c r="R216" s="119"/>
@@ -24759,7 +24759,7 @@
       <c r="P217" s="119" t="s">
         <v>1551</v>
       </c>
-      <c r="Q217" s="144">
+      <c r="Q217" s="148">
         <v>43839</v>
       </c>
       <c r="R217" s="119"/>
@@ -24823,7 +24823,7 @@
       <c r="P218" s="119" t="s">
         <v>937</v>
       </c>
-      <c r="Q218" s="145"/>
+      <c r="Q218" s="149"/>
       <c r="R218" s="121"/>
       <c r="S218" s="119" t="s">
         <v>669</v>
@@ -24885,7 +24885,7 @@
       <c r="P219" s="119" t="s">
         <v>937</v>
       </c>
-      <c r="Q219" s="145"/>
+      <c r="Q219" s="149"/>
       <c r="R219" s="121"/>
       <c r="S219" s="119" t="s">
         <v>669</v>
@@ -24947,7 +24947,7 @@
       <c r="P220" s="119" t="s">
         <v>1551</v>
       </c>
-      <c r="Q220" s="146" t="s">
+      <c r="Q220" s="150" t="s">
         <v>1568</v>
       </c>
       <c r="R220" s="119"/>
@@ -25011,7 +25011,7 @@
       <c r="P221" s="119" t="s">
         <v>1551</v>
       </c>
-      <c r="Q221" s="146" t="s">
+      <c r="Q221" s="150" t="s">
         <v>1552</v>
       </c>
       <c r="R221" s="119"/>
@@ -25075,7 +25075,7 @@
       <c r="P222" s="119" t="s">
         <v>1551</v>
       </c>
-      <c r="Q222" s="146" t="s">
+      <c r="Q222" s="150" t="s">
         <v>1574</v>
       </c>
       <c r="R222" s="119"/>
@@ -25133,7 +25133,7 @@
       <c r="P223" s="119" t="s">
         <v>1578</v>
       </c>
-      <c r="Q223" s="146" t="s">
+      <c r="Q223" s="150" t="s">
         <v>1112</v>
       </c>
       <c r="R223" s="119"/>
@@ -25197,7 +25197,7 @@
       <c r="P224" s="119" t="s">
         <v>1581</v>
       </c>
-      <c r="Q224" s="144">
+      <c r="Q224" s="148">
         <v>44143</v>
       </c>
       <c r="R224" s="119"/>
@@ -25261,7 +25261,7 @@
       <c r="P225" s="119" t="s">
         <v>1585</v>
       </c>
-      <c r="Q225" s="146" t="s">
+      <c r="Q225" s="150" t="s">
         <v>1586</v>
       </c>
       <c r="R225" s="119"/>
@@ -25319,7 +25319,7 @@
       <c r="P226" s="119" t="s">
         <v>1107</v>
       </c>
-      <c r="Q226" s="144">
+      <c r="Q226" s="148">
         <v>43872</v>
       </c>
       <c r="R226" s="119"/>
@@ -25383,7 +25383,7 @@
       <c r="P227" s="119" t="s">
         <v>937</v>
       </c>
-      <c r="Q227" s="144">
+      <c r="Q227" s="148">
         <v>44020</v>
       </c>
       <c r="R227" s="119"/>
@@ -25439,7 +25439,7 @@
       <c r="P228" s="119" t="s">
         <v>1594</v>
       </c>
-      <c r="Q228" s="144">
+      <c r="Q228" s="148">
         <v>43959</v>
       </c>
       <c r="R228" s="119"/>
@@ -25503,7 +25503,7 @@
       <c r="P229" s="119" t="s">
         <v>937</v>
       </c>
-      <c r="Q229" s="145"/>
+      <c r="Q229" s="149"/>
       <c r="R229" s="121"/>
       <c r="S229" s="119" t="s">
         <v>669</v>
@@ -25565,7 +25565,7 @@
       <c r="P230" s="119" t="s">
         <v>1600</v>
       </c>
-      <c r="Q230" s="146" t="s">
+      <c r="Q230" s="150" t="s">
         <v>1601</v>
       </c>
       <c r="R230" s="119"/>
@@ -25629,7 +25629,7 @@
       <c r="P231" s="119" t="s">
         <v>1606</v>
       </c>
-      <c r="Q231" s="146" t="s">
+      <c r="Q231" s="150" t="s">
         <v>1404</v>
       </c>
       <c r="R231" s="119"/>
@@ -25691,7 +25691,7 @@
         <v>1605</v>
       </c>
       <c r="P232" s="121"/>
-      <c r="Q232" s="144">
+      <c r="Q232" s="148">
         <v>44111</v>
       </c>
       <c r="R232" s="119"/>
@@ -25753,7 +25753,7 @@
       <c r="P233" s="119" t="s">
         <v>1614</v>
       </c>
-      <c r="Q233" s="146" t="s">
+      <c r="Q233" s="150" t="s">
         <v>1615</v>
       </c>
       <c r="R233" s="119" t="s">
@@ -25819,7 +25819,7 @@
       <c r="P234" s="119" t="s">
         <v>1620</v>
       </c>
-      <c r="Q234" s="146" t="s">
+      <c r="Q234" s="150" t="s">
         <v>1615</v>
       </c>
       <c r="R234" s="119" t="s">
@@ -25877,7 +25877,7 @@
         <v>949</v>
       </c>
       <c r="P235" s="121"/>
-      <c r="Q235" s="144">
+      <c r="Q235" s="148">
         <v>44289</v>
       </c>
       <c r="R235" s="119"/>
@@ -25941,7 +25941,7 @@
       <c r="P236" s="119" t="s">
         <v>1627</v>
       </c>
-      <c r="Q236" s="146" t="s">
+      <c r="Q236" s="150" t="s">
         <v>634</v>
       </c>
       <c r="R236" s="119" t="s">
@@ -26007,7 +26007,7 @@
       <c r="P237" s="119" t="s">
         <v>1632</v>
       </c>
-      <c r="Q237" s="146" t="s">
+      <c r="Q237" s="150" t="s">
         <v>1633</v>
       </c>
       <c r="R237" s="119" t="s">
@@ -26073,7 +26073,7 @@
       <c r="P238" s="119" t="s">
         <v>1638</v>
       </c>
-      <c r="Q238" s="144">
+      <c r="Q238" s="148">
         <v>44019</v>
       </c>
       <c r="R238" s="119"/>
@@ -26135,7 +26135,7 @@
       <c r="P239" s="119" t="s">
         <v>1641</v>
       </c>
-      <c r="Q239" s="146" t="s">
+      <c r="Q239" s="150" t="s">
         <v>1642</v>
       </c>
       <c r="R239" s="119" t="s">
@@ -26201,7 +26201,7 @@
       <c r="P240" s="119" t="s">
         <v>1647</v>
       </c>
-      <c r="Q240" s="144">
+      <c r="Q240" s="148">
         <v>43989</v>
       </c>
       <c r="R240" s="119"/>
@@ -26259,7 +26259,7 @@
       <c r="P241" s="119" t="s">
         <v>1651</v>
       </c>
-      <c r="Q241" s="144">
+      <c r="Q241" s="148">
         <v>44048</v>
       </c>
       <c r="R241" s="119"/>
@@ -26321,7 +26321,7 @@
       <c r="P242" s="119" t="s">
         <v>1655</v>
       </c>
-      <c r="Q242" s="146" t="s">
+      <c r="Q242" s="150" t="s">
         <v>1656</v>
       </c>
       <c r="R242" s="119"/>
@@ -26383,7 +26383,7 @@
       <c r="P243" s="119" t="s">
         <v>1660</v>
       </c>
-      <c r="Q243" s="144">
+      <c r="Q243" s="148">
         <v>44019</v>
       </c>
       <c r="R243" s="119"/>
@@ -26441,7 +26441,7 @@
       <c r="P244" s="119" t="s">
         <v>800</v>
       </c>
-      <c r="Q244" s="146" t="s">
+      <c r="Q244" s="150" t="s">
         <v>592</v>
       </c>
       <c r="R244" s="119"/>
@@ -26505,7 +26505,7 @@
       <c r="P245" s="119" t="s">
         <v>1668</v>
       </c>
-      <c r="Q245" s="144">
+      <c r="Q245" s="148">
         <v>43836</v>
       </c>
       <c r="R245" s="119"/>
@@ -26569,7 +26569,7 @@
       <c r="P246" s="119" t="s">
         <v>1668</v>
       </c>
-      <c r="Q246" s="146" t="s">
+      <c r="Q246" s="150" t="s">
         <v>1672</v>
       </c>
       <c r="R246" s="119"/>
@@ -26633,7 +26633,7 @@
       <c r="P247" s="119" t="s">
         <v>1668</v>
       </c>
-      <c r="Q247" s="146" t="s">
+      <c r="Q247" s="150" t="s">
         <v>1672</v>
       </c>
       <c r="R247" s="119"/>
@@ -26697,7 +26697,7 @@
       <c r="P248" s="119" t="s">
         <v>1668</v>
       </c>
-      <c r="Q248" s="144">
+      <c r="Q248" s="148">
         <v>43836</v>
       </c>
       <c r="R248" s="119"/>
@@ -26761,7 +26761,7 @@
       <c r="P249" s="119" t="s">
         <v>1668</v>
       </c>
-      <c r="Q249" s="144">
+      <c r="Q249" s="148">
         <v>43836</v>
       </c>
       <c r="R249" s="119"/>
@@ -26825,7 +26825,7 @@
       <c r="P250" s="119" t="s">
         <v>1668</v>
       </c>
-      <c r="Q250" s="144">
+      <c r="Q250" s="148">
         <v>43836</v>
       </c>
       <c r="R250" s="119"/>
@@ -26889,7 +26889,7 @@
       <c r="P251" s="119" t="s">
         <v>1668</v>
       </c>
-      <c r="Q251" s="144">
+      <c r="Q251" s="148">
         <v>43836</v>
       </c>
       <c r="R251" s="119"/>
@@ -26953,7 +26953,7 @@
       <c r="P252" s="119" t="s">
         <v>1651</v>
       </c>
-      <c r="Q252" s="144">
+      <c r="Q252" s="148">
         <v>44113</v>
       </c>
       <c r="R252" s="119"/>
@@ -27017,7 +27017,7 @@
       <c r="P253" s="119" t="s">
         <v>1111</v>
       </c>
-      <c r="Q253" s="144">
+      <c r="Q253" s="148">
         <v>44170</v>
       </c>
       <c r="R253" s="119"/>
@@ -27081,7 +27081,7 @@
       <c r="P254" s="119" t="s">
         <v>1695</v>
       </c>
-      <c r="Q254" s="144">
+      <c r="Q254" s="148">
         <v>44170</v>
       </c>
       <c r="R254" s="119"/>
@@ -27145,7 +27145,7 @@
       <c r="P255" s="119" t="s">
         <v>1668</v>
       </c>
-      <c r="Q255" s="146" t="s">
+      <c r="Q255" s="150" t="s">
         <v>1699</v>
       </c>
       <c r="R255" s="119"/>
@@ -27209,7 +27209,7 @@
       <c r="P256" s="119" t="s">
         <v>1704</v>
       </c>
-      <c r="Q256" s="144">
+      <c r="Q256" s="148">
         <v>43834</v>
       </c>
       <c r="R256" s="119"/>
@@ -27273,7 +27273,7 @@
       <c r="P257" s="119" t="s">
         <v>1708</v>
       </c>
-      <c r="Q257" s="146" t="s">
+      <c r="Q257" s="150" t="s">
         <v>1709</v>
       </c>
       <c r="R257" s="119"/>
@@ -27337,7 +27337,7 @@
       <c r="P258" s="119" t="s">
         <v>1708</v>
       </c>
-      <c r="Q258" s="146" t="s">
+      <c r="Q258" s="150" t="s">
         <v>1713</v>
       </c>
       <c r="R258" s="119"/>
@@ -27401,7 +27401,7 @@
       <c r="P259" s="119" t="s">
         <v>1717</v>
       </c>
-      <c r="Q259" s="146" t="s">
+      <c r="Q259" s="150" t="s">
         <v>1718</v>
       </c>
       <c r="R259" s="119"/>
@@ -27465,7 +27465,7 @@
       <c r="P260" s="119" t="s">
         <v>1722</v>
       </c>
-      <c r="Q260" s="146" t="s">
+      <c r="Q260" s="150" t="s">
         <v>1713</v>
       </c>
       <c r="R260" s="119"/>
@@ -27529,7 +27529,7 @@
       <c r="P261" s="119" t="s">
         <v>1726</v>
       </c>
-      <c r="Q261" s="146" t="s">
+      <c r="Q261" s="150" t="s">
         <v>1727</v>
       </c>
       <c r="R261" s="119"/>
@@ -27595,7 +27595,7 @@
       <c r="P262" s="119" t="s">
         <v>1668</v>
       </c>
-      <c r="Q262" s="144">
+      <c r="Q262" s="148">
         <v>43836</v>
       </c>
       <c r="R262" s="119"/>
@@ -27659,7 +27659,7 @@
       <c r="P263" s="119" t="s">
         <v>1668</v>
       </c>
-      <c r="Q263" s="144">
+      <c r="Q263" s="148">
         <v>43866</v>
       </c>
       <c r="R263" s="120">
@@ -27725,7 +27725,7 @@
       <c r="P264" s="119" t="s">
         <v>1738</v>
       </c>
-      <c r="Q264" s="144">
+      <c r="Q264" s="148">
         <v>43927</v>
       </c>
       <c r="R264" s="119"/>
@@ -27789,7 +27789,7 @@
       <c r="P265" s="119" t="s">
         <v>1708</v>
       </c>
-      <c r="Q265" s="144">
+      <c r="Q265" s="148">
         <v>43986</v>
       </c>
       <c r="R265" s="119" t="s">
@@ -27855,7 +27855,7 @@
       <c r="P266" s="119" t="s">
         <v>1746</v>
       </c>
-      <c r="Q266" s="146" t="s">
+      <c r="Q266" s="150" t="s">
         <v>1747</v>
       </c>
       <c r="R266" s="120">
@@ -27921,7 +27921,7 @@
       <c r="P267" s="119" t="s">
         <v>1746</v>
       </c>
-      <c r="Q267" s="146" t="s">
+      <c r="Q267" s="150" t="s">
         <v>1751</v>
       </c>
       <c r="R267" s="119" t="s">
@@ -27985,7 +27985,7 @@
         <v>1339</v>
       </c>
       <c r="P268" s="121"/>
-      <c r="Q268" s="144">
+      <c r="Q268" s="148">
         <v>44048</v>
       </c>
       <c r="R268" s="120">
@@ -28047,7 +28047,7 @@
       <c r="P269" s="119" t="s">
         <v>1760</v>
       </c>
-      <c r="Q269" s="146" t="s">
+      <c r="Q269" s="150" t="s">
         <v>614</v>
       </c>
       <c r="R269" s="119"/>
@@ -28111,7 +28111,7 @@
       <c r="P270" s="119" t="s">
         <v>1764</v>
       </c>
-      <c r="Q270" s="144">
+      <c r="Q270" s="148">
         <v>43834</v>
       </c>
       <c r="R270" s="119"/>
@@ -28175,7 +28175,7 @@
       <c r="P271" s="119" t="s">
         <v>1769</v>
       </c>
-      <c r="Q271" s="144">
+      <c r="Q271" s="148">
         <v>44140</v>
       </c>
       <c r="R271" s="119"/>
@@ -28239,7 +28239,7 @@
       <c r="P272" s="119" t="s">
         <v>1774</v>
       </c>
-      <c r="Q272" s="146" t="s">
+      <c r="Q272" s="150" t="s">
         <v>1775</v>
       </c>
       <c r="R272" s="119"/>
@@ -28303,7 +28303,7 @@
       <c r="P273" s="119" t="s">
         <v>1780</v>
       </c>
-      <c r="Q273" s="146" t="s">
+      <c r="Q273" s="150" t="s">
         <v>1781</v>
       </c>
       <c r="R273" s="119"/>
@@ -28367,7 +28367,7 @@
       <c r="P274" s="119" t="s">
         <v>1785</v>
       </c>
-      <c r="Q274" s="144">
+      <c r="Q274" s="148">
         <v>43835</v>
       </c>
       <c r="R274" s="120">
@@ -28433,7 +28433,7 @@
       <c r="P275" s="119" t="s">
         <v>1790</v>
       </c>
-      <c r="Q275" s="144">
+      <c r="Q275" s="148">
         <v>43926</v>
       </c>
       <c r="R275" s="119"/>
@@ -28497,7 +28497,7 @@
       <c r="P276" s="119" t="s">
         <v>1794</v>
       </c>
-      <c r="Q276" s="146" t="s">
+      <c r="Q276" s="150" t="s">
         <v>1795</v>
       </c>
       <c r="R276" s="119"/>
@@ -28561,7 +28561,7 @@
       <c r="P277" s="119" t="s">
         <v>1799</v>
       </c>
-      <c r="Q277" s="144">
+      <c r="Q277" s="148">
         <v>43834</v>
       </c>
       <c r="R277" s="120">
@@ -28627,7 +28627,7 @@
       <c r="P278" s="119" t="s">
         <v>1803</v>
       </c>
-      <c r="Q278" s="144">
+      <c r="Q278" s="148">
         <v>43834</v>
       </c>
       <c r="R278" s="120">
@@ -28693,7 +28693,7 @@
       <c r="P279" s="119" t="s">
         <v>1806</v>
       </c>
-      <c r="Q279" s="146" t="s">
+      <c r="Q279" s="150" t="s">
         <v>1672</v>
       </c>
       <c r="R279" s="119" t="s">
@@ -28759,7 +28759,7 @@
       <c r="P280" s="119" t="s">
         <v>1811</v>
       </c>
-      <c r="Q280" s="146" t="s">
+      <c r="Q280" s="150" t="s">
         <v>1775</v>
       </c>
       <c r="R280" s="119"/>
@@ -28823,7 +28823,7 @@
       <c r="P281" s="119" t="s">
         <v>1815</v>
       </c>
-      <c r="Q281" s="146" t="s">
+      <c r="Q281" s="150" t="s">
         <v>1775</v>
       </c>
       <c r="R281" s="119"/>
@@ -28889,7 +28889,7 @@
       <c r="P282" s="119" t="s">
         <v>1820</v>
       </c>
-      <c r="Q282" s="146" t="s">
+      <c r="Q282" s="150" t="s">
         <v>1821</v>
       </c>
       <c r="R282" s="119" t="s">
@@ -28955,7 +28955,7 @@
       <c r="P283" s="119" t="s">
         <v>1825</v>
       </c>
-      <c r="Q283" s="146" t="s">
+      <c r="Q283" s="150" t="s">
         <v>1713</v>
       </c>
       <c r="R283" s="119" t="s">
@@ -29021,7 +29021,7 @@
       <c r="P284" s="119" t="s">
         <v>1830</v>
       </c>
-      <c r="Q284" s="146" t="s">
+      <c r="Q284" s="150" t="s">
         <v>1752</v>
       </c>
       <c r="R284" s="119" t="s">
@@ -29084,7 +29084,7 @@
       <c r="P285" s="119" t="s">
         <v>1803</v>
       </c>
-      <c r="Q285" s="144">
+      <c r="Q285" s="148">
         <v>43834</v>
       </c>
       <c r="R285" s="119"/>
@@ -29150,7 +29150,7 @@
       <c r="P286" s="119" t="s">
         <v>1838</v>
       </c>
-      <c r="Q286" s="146" t="s">
+      <c r="Q286" s="150" t="s">
         <v>1839</v>
       </c>
       <c r="R286" s="119" t="s">
@@ -29216,7 +29216,7 @@
       <c r="P287" s="119" t="s">
         <v>1843</v>
       </c>
-      <c r="Q287" s="146" t="s">
+      <c r="Q287" s="150" t="s">
         <v>1839</v>
       </c>
       <c r="R287" s="119" t="s">
@@ -29282,7 +29282,7 @@
       <c r="P288" s="119" t="s">
         <v>1847</v>
       </c>
-      <c r="Q288" s="146" t="s">
+      <c r="Q288" s="150" t="s">
         <v>1713</v>
       </c>
       <c r="R288" s="119" t="s">
@@ -29348,7 +29348,7 @@
       <c r="P289" s="119" t="s">
         <v>1852</v>
       </c>
-      <c r="Q289" s="146" t="s">
+      <c r="Q289" s="150" t="s">
         <v>1709</v>
       </c>
       <c r="R289" s="119" t="s">
@@ -29416,7 +29416,7 @@
       <c r="P290" s="119" t="s">
         <v>1858</v>
       </c>
-      <c r="Q290" s="146" t="s">
+      <c r="Q290" s="150" t="s">
         <v>1709</v>
       </c>
       <c r="R290" s="119"/>
@@ -29480,7 +29480,7 @@
       <c r="P291" s="119" t="s">
         <v>1862</v>
       </c>
-      <c r="Q291" s="146" t="s">
+      <c r="Q291" s="150" t="s">
         <v>1709</v>
       </c>
       <c r="R291" s="119"/>
@@ -29763,276 +29763,276 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34" s="150" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="150" t="s">
+    <row r="3" spans="1:34" s="154" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="154" t="s">
         <v>1866</v>
       </c>
-      <c r="B3" s="150">
+      <c r="B3" s="154">
         <f t="shared" ref="B3:C22" si="0">C3</f>
         <v>2.794277499025946E-9</v>
       </c>
-      <c r="C3" s="150">
+      <c r="C3" s="154">
         <f t="shared" si="0"/>
         <v>2.794277499025946E-9</v>
       </c>
-      <c r="D3" s="151">
+      <c r="D3" s="155">
         <f>'Fossil Fuel Calculations'!B26</f>
         <v>2.794277499025946E-9</v>
       </c>
-      <c r="E3" s="151">
+      <c r="E3" s="155">
         <f>'Fossil Fuel Calculations'!C26</f>
         <v>2.2522135625040922E-9</v>
       </c>
-      <c r="F3" s="151">
+      <c r="F3" s="155">
         <f>'Fossil Fuel Calculations'!D26</f>
         <v>2.2522135625040922E-9</v>
       </c>
-      <c r="G3" s="151">
+      <c r="G3" s="155">
         <f>'Fossil Fuel Calculations'!E26</f>
         <v>2.2522135625040922E-9</v>
       </c>
-      <c r="H3" s="151">
+      <c r="H3" s="155">
         <f>'Fossil Fuel Calculations'!F26</f>
         <v>2.2522135625040922E-9</v>
       </c>
-      <c r="I3" s="151">
+      <c r="I3" s="155">
         <f>'Fossil Fuel Calculations'!G26</f>
         <v>2.2522135625040922E-9</v>
       </c>
-      <c r="J3" s="151">
+      <c r="J3" s="155">
         <f>'Fossil Fuel Calculations'!H26</f>
         <v>2.2522135625040922E-9</v>
       </c>
-      <c r="K3" s="151">
+      <c r="K3" s="155">
         <f>'Fossil Fuel Calculations'!I26</f>
         <v>2.2522135625040922E-9</v>
       </c>
-      <c r="L3" s="151">
+      <c r="L3" s="155">
         <f>'Fossil Fuel Calculations'!J26</f>
         <v>2.2522135625040922E-9</v>
       </c>
-      <c r="M3" s="151">
+      <c r="M3" s="155">
         <f>'Fossil Fuel Calculations'!K26</f>
         <v>2.2522135625040922E-9</v>
       </c>
-      <c r="N3" s="151">
+      <c r="N3" s="155">
         <f>'Fossil Fuel Calculations'!L26</f>
         <v>2.2522135625040922E-9</v>
       </c>
-      <c r="O3" s="151">
+      <c r="O3" s="155">
         <f>'Fossil Fuel Calculations'!$M$26</f>
         <v>2.5821153522474293E-8</v>
       </c>
-      <c r="P3" s="151">
+      <c r="P3" s="155">
         <f>'Fossil Fuel Calculations'!$M$26</f>
         <v>2.5821153522474293E-8</v>
       </c>
-      <c r="Q3" s="151">
+      <c r="Q3" s="155">
         <f>'Fossil Fuel Calculations'!$M$26</f>
         <v>2.5821153522474293E-8</v>
       </c>
-      <c r="R3" s="151">
+      <c r="R3" s="155">
         <f>'Fossil Fuel Calculations'!$M$26</f>
         <v>2.5821153522474293E-8</v>
       </c>
-      <c r="S3" s="151">
+      <c r="S3" s="155">
         <f>'Fossil Fuel Calculations'!$M$26</f>
         <v>2.5821153522474293E-8</v>
       </c>
-      <c r="T3" s="151">
+      <c r="T3" s="155">
         <f>'Fossil Fuel Calculations'!$M$26</f>
         <v>2.5821153522474293E-8</v>
       </c>
-      <c r="U3" s="151">
+      <c r="U3" s="155">
         <f>'Fossil Fuel Calculations'!$M$26</f>
         <v>2.5821153522474293E-8</v>
       </c>
-      <c r="V3" s="151">
+      <c r="V3" s="155">
         <f>'Fossil Fuel Calculations'!$M$26</f>
         <v>2.5821153522474293E-8</v>
       </c>
-      <c r="W3" s="151">
+      <c r="W3" s="155">
         <f>'Fossil Fuel Calculations'!$M$26</f>
         <v>2.5821153522474293E-8</v>
       </c>
-      <c r="X3" s="151">
+      <c r="X3" s="155">
         <f>'Fossil Fuel Calculations'!$M$26</f>
         <v>2.5821153522474293E-8</v>
       </c>
-      <c r="Y3" s="151">
+      <c r="Y3" s="155">
         <f>'Fossil Fuel Calculations'!$M$26</f>
         <v>2.5821153522474293E-8</v>
       </c>
-      <c r="Z3" s="151">
+      <c r="Z3" s="155">
         <f>'Fossil Fuel Calculations'!$M$26</f>
         <v>2.5821153522474293E-8</v>
       </c>
-      <c r="AA3" s="151">
+      <c r="AA3" s="155">
         <f>'Fossil Fuel Calculations'!$M$26</f>
         <v>2.5821153522474293E-8</v>
       </c>
-      <c r="AB3" s="151">
+      <c r="AB3" s="155">
         <f>'Fossil Fuel Calculations'!$M$26</f>
         <v>2.5821153522474293E-8</v>
       </c>
-      <c r="AC3" s="151">
+      <c r="AC3" s="155">
         <f>'Fossil Fuel Calculations'!$M$26</f>
         <v>2.5821153522474293E-8</v>
       </c>
-      <c r="AD3" s="151">
+      <c r="AD3" s="155">
         <f>'Fossil Fuel Calculations'!$M$26</f>
         <v>2.5821153522474293E-8</v>
       </c>
-      <c r="AE3" s="151">
+      <c r="AE3" s="155">
         <f>'Fossil Fuel Calculations'!$M$26</f>
         <v>2.5821153522474293E-8</v>
       </c>
-      <c r="AF3" s="151">
+      <c r="AF3" s="155">
         <f>'Fossil Fuel Calculations'!$M$26</f>
         <v>2.5821153522474293E-8</v>
       </c>
-      <c r="AG3" s="151">
+      <c r="AG3" s="155">
         <f>'Fossil Fuel Calculations'!$M$26</f>
         <v>2.5821153522474293E-8</v>
       </c>
-      <c r="AH3" s="151">
+      <c r="AH3" s="155">
         <f>'Fossil Fuel Calculations'!$M$26</f>
         <v>2.5821153522474293E-8</v>
       </c>
     </row>
-    <row r="4" spans="1:34" s="150" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="150" t="s">
+    <row r="4" spans="1:34" s="154" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="154" t="s">
         <v>1867</v>
       </c>
-      <c r="B4" s="150">
+      <c r="B4" s="154">
         <f t="shared" si="0"/>
         <v>7.9645655701622563E-7</v>
       </c>
-      <c r="C4" s="150">
+      <c r="C4" s="154">
         <f t="shared" si="0"/>
         <v>7.9645655701622563E-7</v>
       </c>
-      <c r="D4" s="151">
+      <c r="D4" s="155">
         <f>'Fossil Fuel Calculations'!B27</f>
         <v>7.9645655701622563E-7</v>
       </c>
-      <c r="E4" s="151">
+      <c r="E4" s="155">
         <f>'Fossil Fuel Calculations'!C27</f>
         <v>7.170966389267385E-7</v>
       </c>
-      <c r="F4" s="151">
+      <c r="F4" s="155">
         <f>'Fossil Fuel Calculations'!D27</f>
         <v>6.7885675294980801E-7</v>
       </c>
-      <c r="G4" s="151">
+      <c r="G4" s="155">
         <f>'Fossil Fuel Calculations'!E27</f>
         <v>6.7065775879493425E-7</v>
       </c>
-      <c r="H4" s="151">
+      <c r="H4" s="155">
         <f>'Fossil Fuel Calculations'!F27</f>
         <v>6.680698985585695E-7</v>
       </c>
-      <c r="I4" s="151">
+      <c r="I4" s="155">
         <f>'Fossil Fuel Calculations'!G27</f>
         <v>6.6833997342586527E-7</v>
       </c>
-      <c r="J4" s="151">
+      <c r="J4" s="155">
         <f>'Fossil Fuel Calculations'!H27</f>
         <v>6.6861004829316135E-7</v>
       </c>
-      <c r="K4" s="151">
+      <c r="K4" s="155">
         <f>'Fossil Fuel Calculations'!I27</f>
         <v>6.6888012316045733E-7</v>
       </c>
-      <c r="L4" s="151">
+      <c r="L4" s="155">
         <f>'Fossil Fuel Calculations'!J27</f>
         <v>6.691501980277532E-7</v>
       </c>
-      <c r="M4" s="151">
+      <c r="M4" s="155">
         <f>'Fossil Fuel Calculations'!K27</f>
         <v>6.5551927655084305E-7</v>
       </c>
-      <c r="N4" s="151">
+      <c r="N4" s="155">
         <f>'Fossil Fuel Calculations'!L27</f>
         <v>6.5578935141813882E-7</v>
       </c>
-      <c r="O4" s="151">
+      <c r="O4" s="155">
         <f>'Fossil Fuel Calculations'!$M$27</f>
         <v>6.9268013420629465E-7</v>
       </c>
-      <c r="P4" s="151">
+      <c r="P4" s="155">
         <f>'Fossil Fuel Calculations'!$M$27</f>
         <v>6.9268013420629465E-7</v>
       </c>
-      <c r="Q4" s="151">
+      <c r="Q4" s="155">
         <f>'Fossil Fuel Calculations'!$M$27</f>
         <v>6.9268013420629465E-7</v>
       </c>
-      <c r="R4" s="151">
+      <c r="R4" s="155">
         <f>'Fossil Fuel Calculations'!$M$27</f>
         <v>6.9268013420629465E-7</v>
       </c>
-      <c r="S4" s="151">
+      <c r="S4" s="155">
         <f>'Fossil Fuel Calculations'!$M$27</f>
         <v>6.9268013420629465E-7</v>
       </c>
-      <c r="T4" s="151">
+      <c r="T4" s="155">
         <f>'Fossil Fuel Calculations'!$M$27</f>
         <v>6.9268013420629465E-7</v>
       </c>
-      <c r="U4" s="151">
+      <c r="U4" s="155">
         <f>'Fossil Fuel Calculations'!$M$27</f>
         <v>6.9268013420629465E-7</v>
       </c>
-      <c r="V4" s="151">
+      <c r="V4" s="155">
         <f>'Fossil Fuel Calculations'!$M$27</f>
         <v>6.9268013420629465E-7</v>
       </c>
-      <c r="W4" s="151">
+      <c r="W4" s="155">
         <f>'Fossil Fuel Calculations'!$M$27</f>
         <v>6.9268013420629465E-7</v>
       </c>
-      <c r="X4" s="151">
+      <c r="X4" s="155">
         <f>'Fossil Fuel Calculations'!$M$27</f>
         <v>6.9268013420629465E-7</v>
       </c>
-      <c r="Y4" s="151">
+      <c r="Y4" s="155">
         <f>'Fossil Fuel Calculations'!$M$27</f>
         <v>6.9268013420629465E-7</v>
       </c>
-      <c r="Z4" s="151">
+      <c r="Z4" s="155">
         <f>'Fossil Fuel Calculations'!$M$27</f>
         <v>6.9268013420629465E-7</v>
       </c>
-      <c r="AA4" s="151">
+      <c r="AA4" s="155">
         <f>'Fossil Fuel Calculations'!$M$27</f>
         <v>6.9268013420629465E-7</v>
       </c>
-      <c r="AB4" s="151">
+      <c r="AB4" s="155">
         <f>'Fossil Fuel Calculations'!$M$27</f>
         <v>6.9268013420629465E-7</v>
       </c>
-      <c r="AC4" s="151">
+      <c r="AC4" s="155">
         <f>'Fossil Fuel Calculations'!$M$27</f>
         <v>6.9268013420629465E-7</v>
       </c>
-      <c r="AD4" s="151">
+      <c r="AD4" s="155">
         <f>'Fossil Fuel Calculations'!$M$27</f>
         <v>6.9268013420629465E-7</v>
       </c>
-      <c r="AE4" s="151">
+      <c r="AE4" s="155">
         <f>'Fossil Fuel Calculations'!$M$27</f>
         <v>6.9268013420629465E-7</v>
       </c>
-      <c r="AF4" s="151">
+      <c r="AF4" s="155">
         <f>'Fossil Fuel Calculations'!$M$27</f>
         <v>6.9268013420629465E-7</v>
       </c>
-      <c r="AG4" s="151">
+      <c r="AG4" s="155">
         <f>'Fossil Fuel Calculations'!$M$27</f>
         <v>6.9268013420629465E-7</v>
       </c>
-      <c r="AH4" s="151">
+      <c r="AH4" s="155">
         <f>'Fossil Fuel Calculations'!$M$27</f>
         <v>6.9268013420629465E-7</v>
       </c>
@@ -30567,276 +30567,276 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34" s="150" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="150" t="s">
+    <row r="10" spans="1:34" s="154" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="154" t="s">
         <v>1869</v>
       </c>
-      <c r="B10" s="150">
+      <c r="B10" s="154">
         <f t="shared" si="0"/>
         <v>1.3798614226564513E-6</v>
       </c>
-      <c r="C10" s="150">
+      <c r="C10" s="154">
         <f t="shared" si="0"/>
         <v>1.3798614226564513E-6</v>
       </c>
-      <c r="D10" s="151">
+      <c r="D10" s="155">
         <f>'Fossil Fuel Calculations'!B28</f>
         <v>1.3798614226564513E-6</v>
       </c>
-      <c r="E10" s="151">
+      <c r="E10" s="155">
         <f>'Fossil Fuel Calculations'!C28</f>
         <v>1.3148073207400491E-6</v>
       </c>
-      <c r="F10" s="151">
+      <c r="F10" s="155">
         <f>'Fossil Fuel Calculations'!D28</f>
         <v>1.2750133243733015E-6</v>
       </c>
-      <c r="G10" s="151">
+      <c r="G10" s="155">
         <f>'Fossil Fuel Calculations'!E28</f>
         <v>1.2508603534959226E-6</v>
       </c>
-      <c r="H10" s="151">
+      <c r="H10" s="155">
         <f>'Fossil Fuel Calculations'!F28</f>
         <v>1.2482724932595582E-6</v>
       </c>
-      <c r="I10" s="151">
+      <c r="I10" s="155">
         <f>'Fossil Fuel Calculations'!G28</f>
         <v>1.2485425681268536E-6</v>
       </c>
-      <c r="J10" s="151">
+      <c r="J10" s="155">
         <f>'Fossil Fuel Calculations'!H28</f>
         <v>1.2488126429941496E-6</v>
       </c>
-      <c r="K10" s="151">
+      <c r="K10" s="155">
         <f>'Fossil Fuel Calculations'!I28</f>
         <v>1.2490827178614458E-6</v>
       </c>
-      <c r="L10" s="151">
+      <c r="L10" s="155">
         <f>'Fossil Fuel Calculations'!J28</f>
         <v>1.246708807413986E-6</v>
       </c>
-      <c r="M10" s="151">
+      <c r="M10" s="155">
         <f>'Fossil Fuel Calculations'!K28</f>
         <v>1.2266831307572013E-6</v>
       </c>
-      <c r="N10" s="151">
+      <c r="N10" s="155">
         <f>'Fossil Fuel Calculations'!L28</f>
         <v>1.2269532056244969E-6</v>
       </c>
-      <c r="O10" s="151">
+      <c r="O10" s="155">
         <f>'Fossil Fuel Calculations'!$M$28</f>
         <v>1.2800439172574605E-6</v>
       </c>
-      <c r="P10" s="151">
+      <c r="P10" s="155">
         <f>'Fossil Fuel Calculations'!$M$28</f>
         <v>1.2800439172574605E-6</v>
       </c>
-      <c r="Q10" s="151">
+      <c r="Q10" s="155">
         <f>'Fossil Fuel Calculations'!$M$28</f>
         <v>1.2800439172574605E-6</v>
       </c>
-      <c r="R10" s="151">
+      <c r="R10" s="155">
         <f>'Fossil Fuel Calculations'!$M$28</f>
         <v>1.2800439172574605E-6</v>
       </c>
-      <c r="S10" s="151">
+      <c r="S10" s="155">
         <f>'Fossil Fuel Calculations'!$M$28</f>
         <v>1.2800439172574605E-6</v>
       </c>
-      <c r="T10" s="151">
+      <c r="T10" s="155">
         <f>'Fossil Fuel Calculations'!$M$28</f>
         <v>1.2800439172574605E-6</v>
       </c>
-      <c r="U10" s="151">
+      <c r="U10" s="155">
         <f>'Fossil Fuel Calculations'!$M$28</f>
         <v>1.2800439172574605E-6</v>
       </c>
-      <c r="V10" s="151">
+      <c r="V10" s="155">
         <f>'Fossil Fuel Calculations'!$M$28</f>
         <v>1.2800439172574605E-6</v>
       </c>
-      <c r="W10" s="151">
+      <c r="W10" s="155">
         <f>'Fossil Fuel Calculations'!$M$28</f>
         <v>1.2800439172574605E-6</v>
       </c>
-      <c r="X10" s="151">
+      <c r="X10" s="155">
         <f>'Fossil Fuel Calculations'!$M$28</f>
         <v>1.2800439172574605E-6</v>
       </c>
-      <c r="Y10" s="151">
+      <c r="Y10" s="155">
         <f>'Fossil Fuel Calculations'!$M$28</f>
         <v>1.2800439172574605E-6</v>
       </c>
-      <c r="Z10" s="151">
+      <c r="Z10" s="155">
         <f>'Fossil Fuel Calculations'!$M$28</f>
         <v>1.2800439172574605E-6</v>
       </c>
-      <c r="AA10" s="151">
+      <c r="AA10" s="155">
         <f>'Fossil Fuel Calculations'!$M$28</f>
         <v>1.2800439172574605E-6</v>
       </c>
-      <c r="AB10" s="151">
+      <c r="AB10" s="155">
         <f>'Fossil Fuel Calculations'!$M$28</f>
         <v>1.2800439172574605E-6</v>
       </c>
-      <c r="AC10" s="151">
+      <c r="AC10" s="155">
         <f>'Fossil Fuel Calculations'!$M$28</f>
         <v>1.2800439172574605E-6</v>
       </c>
-      <c r="AD10" s="151">
+      <c r="AD10" s="155">
         <f>'Fossil Fuel Calculations'!$M$28</f>
         <v>1.2800439172574605E-6</v>
       </c>
-      <c r="AE10" s="151">
+      <c r="AE10" s="155">
         <f>'Fossil Fuel Calculations'!$M$28</f>
         <v>1.2800439172574605E-6</v>
       </c>
-      <c r="AF10" s="151">
+      <c r="AF10" s="155">
         <f>'Fossil Fuel Calculations'!$M$28</f>
         <v>1.2800439172574605E-6</v>
       </c>
-      <c r="AG10" s="151">
+      <c r="AG10" s="155">
         <f>'Fossil Fuel Calculations'!$M$28</f>
         <v>1.2800439172574605E-6</v>
       </c>
-      <c r="AH10" s="151">
+      <c r="AH10" s="155">
         <f>'Fossil Fuel Calculations'!$M$28</f>
         <v>1.2800439172574605E-6</v>
       </c>
     </row>
-    <row r="11" spans="1:34" s="150" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="150" t="s">
+    <row r="11" spans="1:34" s="154" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="154" t="s">
         <v>1870</v>
       </c>
-      <c r="B11" s="150">
+      <c r="B11" s="154">
         <f t="shared" si="0"/>
         <v>1.3798614226564513E-6</v>
       </c>
-      <c r="C11" s="150">
+      <c r="C11" s="154">
         <f t="shared" si="0"/>
         <v>1.3798614226564513E-6</v>
       </c>
-      <c r="D11" s="151">
+      <c r="D11" s="155">
         <f>'Fossil Fuel Calculations'!B28</f>
         <v>1.3798614226564513E-6</v>
       </c>
-      <c r="E11" s="151">
+      <c r="E11" s="155">
         <f>'Fossil Fuel Calculations'!C28</f>
         <v>1.3148073207400491E-6</v>
       </c>
-      <c r="F11" s="151">
+      <c r="F11" s="155">
         <f>'Fossil Fuel Calculations'!D28</f>
         <v>1.2750133243733015E-6</v>
       </c>
-      <c r="G11" s="151">
+      <c r="G11" s="155">
         <f>'Fossil Fuel Calculations'!E28</f>
         <v>1.2508603534959226E-6</v>
       </c>
-      <c r="H11" s="151">
+      <c r="H11" s="155">
         <f>'Fossil Fuel Calculations'!F28</f>
         <v>1.2482724932595582E-6</v>
       </c>
-      <c r="I11" s="151">
+      <c r="I11" s="155">
         <f>'Fossil Fuel Calculations'!G28</f>
         <v>1.2485425681268536E-6</v>
       </c>
-      <c r="J11" s="151">
+      <c r="J11" s="155">
         <f>'Fossil Fuel Calculations'!H28</f>
         <v>1.2488126429941496E-6</v>
       </c>
-      <c r="K11" s="151">
+      <c r="K11" s="155">
         <f>'Fossil Fuel Calculations'!I28</f>
         <v>1.2490827178614458E-6</v>
       </c>
-      <c r="L11" s="151">
+      <c r="L11" s="155">
         <f>'Fossil Fuel Calculations'!J28</f>
         <v>1.246708807413986E-6</v>
       </c>
-      <c r="M11" s="151">
+      <c r="M11" s="155">
         <f>'Fossil Fuel Calculations'!K28</f>
         <v>1.2266831307572013E-6</v>
       </c>
-      <c r="N11" s="151">
+      <c r="N11" s="155">
         <f>'Fossil Fuel Calculations'!L28</f>
         <v>1.2269532056244969E-6</v>
       </c>
-      <c r="O11" s="151">
+      <c r="O11" s="155">
         <f>'Fossil Fuel Calculations'!$M$28</f>
         <v>1.2800439172574605E-6</v>
       </c>
-      <c r="P11" s="151">
+      <c r="P11" s="155">
         <f>'Fossil Fuel Calculations'!$M$28</f>
         <v>1.2800439172574605E-6</v>
       </c>
-      <c r="Q11" s="151">
+      <c r="Q11" s="155">
         <f>'Fossil Fuel Calculations'!$M$28</f>
         <v>1.2800439172574605E-6</v>
       </c>
-      <c r="R11" s="151">
+      <c r="R11" s="155">
         <f>'Fossil Fuel Calculations'!$M$28</f>
         <v>1.2800439172574605E-6</v>
       </c>
-      <c r="S11" s="151">
+      <c r="S11" s="155">
         <f>'Fossil Fuel Calculations'!$M$28</f>
         <v>1.2800439172574605E-6</v>
       </c>
-      <c r="T11" s="151">
+      <c r="T11" s="155">
         <f>'Fossil Fuel Calculations'!$M$28</f>
         <v>1.2800439172574605E-6</v>
       </c>
-      <c r="U11" s="151">
+      <c r="U11" s="155">
         <f>'Fossil Fuel Calculations'!$M$28</f>
         <v>1.2800439172574605E-6</v>
       </c>
-      <c r="V11" s="151">
+      <c r="V11" s="155">
         <f>'Fossil Fuel Calculations'!$M$28</f>
         <v>1.2800439172574605E-6</v>
       </c>
-      <c r="W11" s="151">
+      <c r="W11" s="155">
         <f>'Fossil Fuel Calculations'!$M$28</f>
         <v>1.2800439172574605E-6</v>
       </c>
-      <c r="X11" s="151">
+      <c r="X11" s="155">
         <f>'Fossil Fuel Calculations'!$M$28</f>
         <v>1.2800439172574605E-6</v>
       </c>
-      <c r="Y11" s="151">
+      <c r="Y11" s="155">
         <f>'Fossil Fuel Calculations'!$M$28</f>
         <v>1.2800439172574605E-6</v>
       </c>
-      <c r="Z11" s="151">
+      <c r="Z11" s="155">
         <f>'Fossil Fuel Calculations'!$M$28</f>
         <v>1.2800439172574605E-6</v>
       </c>
-      <c r="AA11" s="151">
+      <c r="AA11" s="155">
         <f>'Fossil Fuel Calculations'!$M$28</f>
         <v>1.2800439172574605E-6</v>
       </c>
-      <c r="AB11" s="151">
+      <c r="AB11" s="155">
         <f>'Fossil Fuel Calculations'!$M$28</f>
         <v>1.2800439172574605E-6</v>
       </c>
-      <c r="AC11" s="151">
+      <c r="AC11" s="155">
         <f>'Fossil Fuel Calculations'!$M$28</f>
         <v>1.2800439172574605E-6</v>
       </c>
-      <c r="AD11" s="151">
+      <c r="AD11" s="155">
         <f>'Fossil Fuel Calculations'!$M$28</f>
         <v>1.2800439172574605E-6</v>
       </c>
-      <c r="AE11" s="151">
+      <c r="AE11" s="155">
         <f>'Fossil Fuel Calculations'!$M$28</f>
         <v>1.2800439172574605E-6</v>
       </c>
-      <c r="AF11" s="151">
+      <c r="AF11" s="155">
         <f>'Fossil Fuel Calculations'!$M$28</f>
         <v>1.2800439172574605E-6</v>
       </c>
-      <c r="AG11" s="151">
+      <c r="AG11" s="155">
         <f>'Fossil Fuel Calculations'!$M$28</f>
         <v>1.2800439172574605E-6</v>
       </c>
-      <c r="AH11" s="151">
+      <c r="AH11" s="155">
         <f>'Fossil Fuel Calculations'!$M$28</f>
         <v>1.2800439172574605E-6</v>
       </c>
@@ -31053,139 +31053,139 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34" s="150" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="150" t="s">
+    <row r="14" spans="1:34" s="154" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="154" t="s">
         <v>1871</v>
       </c>
-      <c r="B14" s="150">
+      <c r="B14" s="154">
         <f t="shared" si="0"/>
         <v>1.3798614226564513E-6</v>
       </c>
-      <c r="C14" s="150">
+      <c r="C14" s="154">
         <f t="shared" si="0"/>
         <v>1.3798614226564513E-6</v>
       </c>
-      <c r="D14" s="151">
+      <c r="D14" s="155">
         <f>'Fossil Fuel Calculations'!B28</f>
         <v>1.3798614226564513E-6</v>
       </c>
-      <c r="E14" s="151">
+      <c r="E14" s="155">
         <f>'Fossil Fuel Calculations'!C28</f>
         <v>1.3148073207400491E-6</v>
       </c>
-      <c r="F14" s="151">
+      <c r="F14" s="155">
         <f>'Fossil Fuel Calculations'!D28</f>
         <v>1.2750133243733015E-6</v>
       </c>
-      <c r="G14" s="151">
+      <c r="G14" s="155">
         <f>'Fossil Fuel Calculations'!E28</f>
         <v>1.2508603534959226E-6</v>
       </c>
-      <c r="H14" s="151">
+      <c r="H14" s="155">
         <f>'Fossil Fuel Calculations'!F28</f>
         <v>1.2482724932595582E-6</v>
       </c>
-      <c r="I14" s="151">
+      <c r="I14" s="155">
         <f>'Fossil Fuel Calculations'!G28</f>
         <v>1.2485425681268536E-6</v>
       </c>
-      <c r="J14" s="151">
+      <c r="J14" s="155">
         <f>'Fossil Fuel Calculations'!H28</f>
         <v>1.2488126429941496E-6</v>
       </c>
-      <c r="K14" s="151">
+      <c r="K14" s="155">
         <f>'Fossil Fuel Calculations'!I28</f>
         <v>1.2490827178614458E-6</v>
       </c>
-      <c r="L14" s="151">
+      <c r="L14" s="155">
         <f>'Fossil Fuel Calculations'!J28</f>
         <v>1.246708807413986E-6</v>
       </c>
-      <c r="M14" s="151">
+      <c r="M14" s="155">
         <f>'Fossil Fuel Calculations'!K28</f>
         <v>1.2266831307572013E-6</v>
       </c>
-      <c r="N14" s="151">
+      <c r="N14" s="155">
         <f>'Fossil Fuel Calculations'!L28</f>
         <v>1.2269532056244969E-6</v>
       </c>
-      <c r="O14" s="151">
+      <c r="O14" s="155">
         <f>'Fossil Fuel Calculations'!$M$28</f>
         <v>1.2800439172574605E-6</v>
       </c>
-      <c r="P14" s="151">
+      <c r="P14" s="155">
         <f>'Fossil Fuel Calculations'!$M$28</f>
         <v>1.2800439172574605E-6</v>
       </c>
-      <c r="Q14" s="151">
+      <c r="Q14" s="155">
         <f>'Fossil Fuel Calculations'!$M$28</f>
         <v>1.2800439172574605E-6</v>
       </c>
-      <c r="R14" s="151">
+      <c r="R14" s="155">
         <f>'Fossil Fuel Calculations'!$M$28</f>
         <v>1.2800439172574605E-6</v>
       </c>
-      <c r="S14" s="151">
+      <c r="S14" s="155">
         <f>'Fossil Fuel Calculations'!$M$28</f>
         <v>1.2800439172574605E-6</v>
       </c>
-      <c r="T14" s="151">
+      <c r="T14" s="155">
         <f>'Fossil Fuel Calculations'!$M$28</f>
         <v>1.2800439172574605E-6</v>
       </c>
-      <c r="U14" s="151">
+      <c r="U14" s="155">
         <f>'Fossil Fuel Calculations'!$M$28</f>
         <v>1.2800439172574605E-6</v>
       </c>
-      <c r="V14" s="151">
+      <c r="V14" s="155">
         <f>'Fossil Fuel Calculations'!$M$28</f>
         <v>1.2800439172574605E-6</v>
       </c>
-      <c r="W14" s="151">
+      <c r="W14" s="155">
         <f>'Fossil Fuel Calculations'!$M$28</f>
         <v>1.2800439172574605E-6</v>
       </c>
-      <c r="X14" s="151">
+      <c r="X14" s="155">
         <f>'Fossil Fuel Calculations'!$M$28</f>
         <v>1.2800439172574605E-6</v>
       </c>
-      <c r="Y14" s="151">
+      <c r="Y14" s="155">
         <f>'Fossil Fuel Calculations'!$M$28</f>
         <v>1.2800439172574605E-6</v>
       </c>
-      <c r="Z14" s="151">
+      <c r="Z14" s="155">
         <f>'Fossil Fuel Calculations'!$M$28</f>
         <v>1.2800439172574605E-6</v>
       </c>
-      <c r="AA14" s="151">
+      <c r="AA14" s="155">
         <f>'Fossil Fuel Calculations'!$M$28</f>
         <v>1.2800439172574605E-6</v>
       </c>
-      <c r="AB14" s="151">
+      <c r="AB14" s="155">
         <f>'Fossil Fuel Calculations'!$M$28</f>
         <v>1.2800439172574605E-6</v>
       </c>
-      <c r="AC14" s="151">
+      <c r="AC14" s="155">
         <f>'Fossil Fuel Calculations'!$M$28</f>
         <v>1.2800439172574605E-6</v>
       </c>
-      <c r="AD14" s="151">
+      <c r="AD14" s="155">
         <f>'Fossil Fuel Calculations'!$M$28</f>
         <v>1.2800439172574605E-6</v>
       </c>
-      <c r="AE14" s="151">
+      <c r="AE14" s="155">
         <f>'Fossil Fuel Calculations'!$M$28</f>
         <v>1.2800439172574605E-6</v>
       </c>
-      <c r="AF14" s="151">
+      <c r="AF14" s="155">
         <f>'Fossil Fuel Calculations'!$M$28</f>
         <v>1.2800439172574605E-6</v>
       </c>
-      <c r="AG14" s="151">
+      <c r="AG14" s="155">
         <f>'Fossil Fuel Calculations'!$M$28</f>
         <v>1.2800439172574605E-6</v>
       </c>
-      <c r="AH14" s="151">
+      <c r="AH14" s="155">
         <f>'Fossil Fuel Calculations'!$M$28</f>
         <v>1.2800439172574605E-6</v>
       </c>
@@ -31402,413 +31402,413 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34" s="150" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="150" t="s">
+    <row r="17" spans="1:34" s="154" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="154" t="s">
         <v>1872</v>
       </c>
-      <c r="B17" s="150">
+      <c r="B17" s="154">
         <f t="shared" si="0"/>
         <v>2.794277499025946E-9</v>
       </c>
-      <c r="C17" s="150">
+      <c r="C17" s="154">
         <f t="shared" si="0"/>
         <v>2.794277499025946E-9</v>
       </c>
-      <c r="D17" s="151">
+      <c r="D17" s="155">
         <f>D3</f>
         <v>2.794277499025946E-9</v>
       </c>
-      <c r="E17" s="151">
+      <c r="E17" s="155">
         <f t="shared" ref="E17:N17" si="1">E3</f>
         <v>2.2522135625040922E-9</v>
       </c>
-      <c r="F17" s="151">
+      <c r="F17" s="155">
         <f t="shared" si="1"/>
         <v>2.2522135625040922E-9</v>
       </c>
-      <c r="G17" s="151">
+      <c r="G17" s="155">
         <f t="shared" si="1"/>
         <v>2.2522135625040922E-9</v>
       </c>
-      <c r="H17" s="151">
+      <c r="H17" s="155">
         <f t="shared" si="1"/>
         <v>2.2522135625040922E-9</v>
       </c>
-      <c r="I17" s="151">
+      <c r="I17" s="155">
         <f t="shared" si="1"/>
         <v>2.2522135625040922E-9</v>
       </c>
-      <c r="J17" s="151">
+      <c r="J17" s="155">
         <f t="shared" si="1"/>
         <v>2.2522135625040922E-9</v>
       </c>
-      <c r="K17" s="151">
+      <c r="K17" s="155">
         <f t="shared" si="1"/>
         <v>2.2522135625040922E-9</v>
       </c>
-      <c r="L17" s="151">
+      <c r="L17" s="155">
         <f t="shared" si="1"/>
         <v>2.2522135625040922E-9</v>
       </c>
-      <c r="M17" s="151">
+      <c r="M17" s="155">
         <f t="shared" si="1"/>
         <v>2.2522135625040922E-9</v>
       </c>
-      <c r="N17" s="151">
+      <c r="N17" s="155">
         <f t="shared" si="1"/>
         <v>2.2522135625040922E-9</v>
       </c>
-      <c r="O17" s="151">
+      <c r="O17" s="155">
         <f t="shared" ref="O17:AH17" si="2">O3</f>
         <v>2.5821153522474293E-8</v>
       </c>
-      <c r="P17" s="151">
+      <c r="P17" s="155">
         <f t="shared" si="2"/>
         <v>2.5821153522474293E-8</v>
       </c>
-      <c r="Q17" s="151">
+      <c r="Q17" s="155">
         <f t="shared" si="2"/>
         <v>2.5821153522474293E-8</v>
       </c>
-      <c r="R17" s="151">
+      <c r="R17" s="155">
         <f t="shared" si="2"/>
         <v>2.5821153522474293E-8</v>
       </c>
-      <c r="S17" s="151">
+      <c r="S17" s="155">
         <f t="shared" si="2"/>
         <v>2.5821153522474293E-8</v>
       </c>
-      <c r="T17" s="151">
+      <c r="T17" s="155">
         <f t="shared" si="2"/>
         <v>2.5821153522474293E-8</v>
       </c>
-      <c r="U17" s="151">
+      <c r="U17" s="155">
         <f t="shared" si="2"/>
         <v>2.5821153522474293E-8</v>
       </c>
-      <c r="V17" s="151">
+      <c r="V17" s="155">
         <f t="shared" si="2"/>
         <v>2.5821153522474293E-8</v>
       </c>
-      <c r="W17" s="151">
+      <c r="W17" s="155">
         <f t="shared" si="2"/>
         <v>2.5821153522474293E-8</v>
       </c>
-      <c r="X17" s="151">
+      <c r="X17" s="155">
         <f t="shared" si="2"/>
         <v>2.5821153522474293E-8</v>
       </c>
-      <c r="Y17" s="151">
+      <c r="Y17" s="155">
         <f t="shared" si="2"/>
         <v>2.5821153522474293E-8</v>
       </c>
-      <c r="Z17" s="151">
+      <c r="Z17" s="155">
         <f t="shared" si="2"/>
         <v>2.5821153522474293E-8</v>
       </c>
-      <c r="AA17" s="151">
+      <c r="AA17" s="155">
         <f t="shared" si="2"/>
         <v>2.5821153522474293E-8</v>
       </c>
-      <c r="AB17" s="151">
+      <c r="AB17" s="155">
         <f t="shared" si="2"/>
         <v>2.5821153522474293E-8</v>
       </c>
-      <c r="AC17" s="151">
+      <c r="AC17" s="155">
         <f t="shared" si="2"/>
         <v>2.5821153522474293E-8</v>
       </c>
-      <c r="AD17" s="151">
+      <c r="AD17" s="155">
         <f t="shared" si="2"/>
         <v>2.5821153522474293E-8</v>
       </c>
-      <c r="AE17" s="151">
+      <c r="AE17" s="155">
         <f t="shared" si="2"/>
         <v>2.5821153522474293E-8</v>
       </c>
-      <c r="AF17" s="151">
+      <c r="AF17" s="155">
         <f t="shared" si="2"/>
         <v>2.5821153522474293E-8</v>
       </c>
-      <c r="AG17" s="151">
+      <c r="AG17" s="155">
         <f t="shared" si="2"/>
         <v>2.5821153522474293E-8</v>
       </c>
-      <c r="AH17" s="151">
+      <c r="AH17" s="155">
         <f t="shared" si="2"/>
         <v>2.5821153522474293E-8</v>
       </c>
     </row>
-    <row r="18" spans="1:34" s="150" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="150" t="s">
+    <row r="18" spans="1:34" s="154" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="154" t="s">
         <v>568</v>
       </c>
-      <c r="B18" s="150">
+      <c r="B18" s="154">
         <f t="shared" si="0"/>
         <v>1.3798614226564513E-6</v>
       </c>
-      <c r="C18" s="150">
+      <c r="C18" s="154">
         <f t="shared" si="0"/>
         <v>1.3798614226564513E-6</v>
       </c>
-      <c r="D18" s="151">
+      <c r="D18" s="155">
         <f>D10</f>
         <v>1.3798614226564513E-6</v>
       </c>
-      <c r="E18" s="151">
+      <c r="E18" s="155">
         <f t="shared" ref="E18:N18" si="3">E10</f>
         <v>1.3148073207400491E-6</v>
       </c>
-      <c r="F18" s="151">
+      <c r="F18" s="155">
         <f t="shared" si="3"/>
         <v>1.2750133243733015E-6</v>
       </c>
-      <c r="G18" s="151">
+      <c r="G18" s="155">
         <f t="shared" si="3"/>
         <v>1.2508603534959226E-6</v>
       </c>
-      <c r="H18" s="151">
+      <c r="H18" s="155">
         <f t="shared" si="3"/>
         <v>1.2482724932595582E-6</v>
       </c>
-      <c r="I18" s="151">
+      <c r="I18" s="155">
         <f t="shared" si="3"/>
         <v>1.2485425681268536E-6</v>
       </c>
-      <c r="J18" s="151">
+      <c r="J18" s="155">
         <f t="shared" si="3"/>
         <v>1.2488126429941496E-6</v>
       </c>
-      <c r="K18" s="151">
+      <c r="K18" s="155">
         <f t="shared" si="3"/>
         <v>1.2490827178614458E-6</v>
       </c>
-      <c r="L18" s="151">
+      <c r="L18" s="155">
         <f t="shared" si="3"/>
         <v>1.246708807413986E-6</v>
       </c>
-      <c r="M18" s="151">
+      <c r="M18" s="155">
         <f t="shared" si="3"/>
         <v>1.2266831307572013E-6</v>
       </c>
-      <c r="N18" s="151">
+      <c r="N18" s="155">
         <f t="shared" si="3"/>
         <v>1.2269532056244969E-6</v>
       </c>
-      <c r="O18" s="151">
+      <c r="O18" s="155">
         <f t="shared" ref="O18:AH18" si="4">O10</f>
         <v>1.2800439172574605E-6</v>
       </c>
-      <c r="P18" s="151">
+      <c r="P18" s="155">
         <f t="shared" si="4"/>
         <v>1.2800439172574605E-6</v>
       </c>
-      <c r="Q18" s="151">
+      <c r="Q18" s="155">
         <f t="shared" si="4"/>
         <v>1.2800439172574605E-6</v>
       </c>
-      <c r="R18" s="151">
+      <c r="R18" s="155">
         <f t="shared" si="4"/>
         <v>1.2800439172574605E-6</v>
       </c>
-      <c r="S18" s="151">
+      <c r="S18" s="155">
         <f t="shared" si="4"/>
         <v>1.2800439172574605E-6</v>
       </c>
-      <c r="T18" s="151">
+      <c r="T18" s="155">
         <f t="shared" si="4"/>
         <v>1.2800439172574605E-6</v>
       </c>
-      <c r="U18" s="151">
+      <c r="U18" s="155">
         <f t="shared" si="4"/>
         <v>1.2800439172574605E-6</v>
       </c>
-      <c r="V18" s="151">
+      <c r="V18" s="155">
         <f t="shared" si="4"/>
         <v>1.2800439172574605E-6</v>
       </c>
-      <c r="W18" s="151">
+      <c r="W18" s="155">
         <f t="shared" si="4"/>
         <v>1.2800439172574605E-6</v>
       </c>
-      <c r="X18" s="151">
+      <c r="X18" s="155">
         <f t="shared" si="4"/>
         <v>1.2800439172574605E-6</v>
       </c>
-      <c r="Y18" s="151">
+      <c r="Y18" s="155">
         <f t="shared" si="4"/>
         <v>1.2800439172574605E-6</v>
       </c>
-      <c r="Z18" s="151">
+      <c r="Z18" s="155">
         <f t="shared" si="4"/>
         <v>1.2800439172574605E-6</v>
       </c>
-      <c r="AA18" s="151">
+      <c r="AA18" s="155">
         <f t="shared" si="4"/>
         <v>1.2800439172574605E-6</v>
       </c>
-      <c r="AB18" s="151">
+      <c r="AB18" s="155">
         <f t="shared" si="4"/>
         <v>1.2800439172574605E-6</v>
       </c>
-      <c r="AC18" s="151">
+      <c r="AC18" s="155">
         <f t="shared" si="4"/>
         <v>1.2800439172574605E-6</v>
       </c>
-      <c r="AD18" s="151">
+      <c r="AD18" s="155">
         <f t="shared" si="4"/>
         <v>1.2800439172574605E-6</v>
       </c>
-      <c r="AE18" s="151">
+      <c r="AE18" s="155">
         <f t="shared" si="4"/>
         <v>1.2800439172574605E-6</v>
       </c>
-      <c r="AF18" s="151">
+      <c r="AF18" s="155">
         <f t="shared" si="4"/>
         <v>1.2800439172574605E-6</v>
       </c>
-      <c r="AG18" s="151">
+      <c r="AG18" s="155">
         <f t="shared" si="4"/>
         <v>1.2800439172574605E-6</v>
       </c>
-      <c r="AH18" s="151">
+      <c r="AH18" s="155">
         <f t="shared" si="4"/>
         <v>1.2800439172574605E-6</v>
       </c>
     </row>
-    <row r="19" spans="1:34" s="150" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="150" t="s">
+    <row r="19" spans="1:34" s="154" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="154" t="s">
         <v>569</v>
       </c>
-      <c r="B19" s="150">
+      <c r="B19" s="154">
         <f t="shared" si="0"/>
         <v>1.3798614226564513E-6</v>
       </c>
-      <c r="C19" s="150">
+      <c r="C19" s="154">
         <f t="shared" si="0"/>
         <v>1.3798614226564513E-6</v>
       </c>
-      <c r="D19" s="151">
+      <c r="D19" s="155">
         <f>D11</f>
         <v>1.3798614226564513E-6</v>
       </c>
-      <c r="E19" s="151">
+      <c r="E19" s="155">
         <f t="shared" ref="E19:N19" si="5">E11</f>
         <v>1.3148073207400491E-6</v>
       </c>
-      <c r="F19" s="151">
+      <c r="F19" s="155">
         <f t="shared" si="5"/>
         <v>1.2750133243733015E-6</v>
       </c>
-      <c r="G19" s="151">
+      <c r="G19" s="155">
         <f t="shared" si="5"/>
         <v>1.2508603534959226E-6</v>
       </c>
-      <c r="H19" s="151">
+      <c r="H19" s="155">
         <f t="shared" si="5"/>
         <v>1.2482724932595582E-6</v>
       </c>
-      <c r="I19" s="151">
+      <c r="I19" s="155">
         <f t="shared" si="5"/>
         <v>1.2485425681268536E-6</v>
       </c>
-      <c r="J19" s="151">
+      <c r="J19" s="155">
         <f t="shared" si="5"/>
         <v>1.2488126429941496E-6</v>
       </c>
-      <c r="K19" s="151">
+      <c r="K19" s="155">
         <f t="shared" si="5"/>
         <v>1.2490827178614458E-6</v>
       </c>
-      <c r="L19" s="151">
+      <c r="L19" s="155">
         <f t="shared" si="5"/>
         <v>1.246708807413986E-6</v>
       </c>
-      <c r="M19" s="151">
+      <c r="M19" s="155">
         <f t="shared" si="5"/>
         <v>1.2266831307572013E-6</v>
       </c>
-      <c r="N19" s="151">
+      <c r="N19" s="155">
         <f t="shared" si="5"/>
         <v>1.2269532056244969E-6</v>
       </c>
-      <c r="O19" s="151">
+      <c r="O19" s="155">
         <f t="shared" ref="O19:AH19" si="6">O11</f>
         <v>1.2800439172574605E-6</v>
       </c>
-      <c r="P19" s="151">
+      <c r="P19" s="155">
         <f t="shared" si="6"/>
         <v>1.2800439172574605E-6</v>
       </c>
-      <c r="Q19" s="151">
+      <c r="Q19" s="155">
         <f t="shared" si="6"/>
         <v>1.2800439172574605E-6</v>
       </c>
-      <c r="R19" s="151">
+      <c r="R19" s="155">
         <f t="shared" si="6"/>
         <v>1.2800439172574605E-6</v>
       </c>
-      <c r="S19" s="151">
+      <c r="S19" s="155">
         <f t="shared" si="6"/>
         <v>1.2800439172574605E-6</v>
       </c>
-      <c r="T19" s="151">
+      <c r="T19" s="155">
         <f t="shared" si="6"/>
         <v>1.2800439172574605E-6</v>
       </c>
-      <c r="U19" s="151">
+      <c r="U19" s="155">
         <f t="shared" si="6"/>
         <v>1.2800439172574605E-6</v>
       </c>
-      <c r="V19" s="151">
+      <c r="V19" s="155">
         <f t="shared" si="6"/>
         <v>1.2800439172574605E-6</v>
       </c>
-      <c r="W19" s="151">
+      <c r="W19" s="155">
         <f t="shared" si="6"/>
         <v>1.2800439172574605E-6</v>
       </c>
-      <c r="X19" s="151">
+      <c r="X19" s="155">
         <f t="shared" si="6"/>
         <v>1.2800439172574605E-6</v>
       </c>
-      <c r="Y19" s="151">
+      <c r="Y19" s="155">
         <f t="shared" si="6"/>
         <v>1.2800439172574605E-6</v>
       </c>
-      <c r="Z19" s="151">
+      <c r="Z19" s="155">
         <f t="shared" si="6"/>
         <v>1.2800439172574605E-6</v>
       </c>
-      <c r="AA19" s="151">
+      <c r="AA19" s="155">
         <f t="shared" si="6"/>
         <v>1.2800439172574605E-6</v>
       </c>
-      <c r="AB19" s="151">
+      <c r="AB19" s="155">
         <f t="shared" si="6"/>
         <v>1.2800439172574605E-6</v>
       </c>
-      <c r="AC19" s="151">
+      <c r="AC19" s="155">
         <f t="shared" si="6"/>
         <v>1.2800439172574605E-6</v>
       </c>
-      <c r="AD19" s="151">
+      <c r="AD19" s="155">
         <f t="shared" si="6"/>
         <v>1.2800439172574605E-6</v>
       </c>
-      <c r="AE19" s="151">
+      <c r="AE19" s="155">
         <f t="shared" si="6"/>
         <v>1.2800439172574605E-6</v>
       </c>
-      <c r="AF19" s="151">
+      <c r="AF19" s="155">
         <f t="shared" si="6"/>
         <v>1.2800439172574605E-6</v>
       </c>
-      <c r="AG19" s="151">
+      <c r="AG19" s="155">
         <f t="shared" si="6"/>
         <v>1.2800439172574605E-6</v>
       </c>
-      <c r="AH19" s="151">
+      <c r="AH19" s="155">
         <f t="shared" si="6"/>
         <v>1.2800439172574605E-6</v>
       </c>
@@ -38284,7 +38284,7 @@
   </sheetPr>
   <dimension ref="A1:AH17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -40409,40 +40409,40 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="152" t="s">
+      <c r="A3" s="143" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="152" t="s">
+      <c r="B3" s="143" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="153" t="s">
+      <c r="C3" s="144" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="154" t="s">
+      <c r="D3" s="145" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="155" t="s">
+      <c r="E3" s="146" t="s">
         <v>62</v>
       </c>
-      <c r="F3" s="155" t="s">
+      <c r="F3" s="146" t="s">
         <v>63</v>
       </c>
-      <c r="G3" s="152" t="s">
+      <c r="G3" s="143" t="s">
         <v>64</v>
       </c>
-      <c r="H3" s="152" t="s">
+      <c r="H3" s="143" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="152"/>
-      <c r="B4" s="152"/>
-      <c r="C4" s="153"/>
-      <c r="D4" s="154"/>
-      <c r="E4" s="155"/>
-      <c r="F4" s="155"/>
-      <c r="G4" s="152"/>
-      <c r="H4" s="152"/>
+      <c r="A4" s="143"/>
+      <c r="B4" s="143"/>
+      <c r="C4" s="144"/>
+      <c r="D4" s="145"/>
+      <c r="E4" s="146"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="143"/>
+      <c r="H4" s="143"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
@@ -71709,6 +71709,9 @@
         <AccountType/>
       </UserInfo>
     </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de340059-046a-4f1a-8b62-ade039df3700">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
 </file>
@@ -71723,8 +71726,8 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6681120aa8fa62dd7a0beb503524cb55">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b98e8ac0331400a99b3dbea3ee620024" ns2:_="" ns3:_="" ns4:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fdee17017a9ad5b872047a216f95da93">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37825e9edfcb807d863c63152c6d8635" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
     <xsd:import namespace="de340059-046a-4f1a-8b62-ade039df3700"/>
     <xsd:import namespace="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
@@ -71748,6 +71751,8 @@
                 <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -71834,6 +71839,18 @@
       </xsd:simpleType>
     </xsd:element>
     <xsd:element name="MediaServiceEventHashCode" ma:index="24" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="26" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="27" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
@@ -71988,21 +72005,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03C6456E-402C-45A3-8C6B-50998FDFCC8E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
-    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
-    <ds:schemaRef ds:uri="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8CF27B3-C4C7-4E1C-9709-089B0861105B}"/>
 </file>
--- a/InputData/fuels/BS/BAU Subsidies.xlsx
+++ b/InputData/fuels/BS/BAU Subsidies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pembinainstitute.sharepoint.com/sites/PRO-EnergyPolicySimulator2021/Shared Documents/Research and Analysis/CANADA-inputData/fuels/BS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2095" documentId="13_ncr:1_{9487F567-7ACB-4CC8-A941-FB5B2797BEF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1258EC2F-9781-4240-98A6-9023E07EFF51}"/>
+  <xr:revisionPtr revIDLastSave="2096" documentId="13_ncr:1_{9487F567-7ACB-4CC8-A941-FB5B2797BEF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{017CF2F7-591B-4A4C-BF6B-B043F2B74D6A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="827" firstSheet="7" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-17925" yWindow="2610" windowWidth="21600" windowHeight="11295" tabRatio="827" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Fossil Subsidies'!$A$1:$T$131</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'New Subsidy data'!$B$1:$Z$291</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -7042,6 +7042,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -7054,8 +7056,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -8522,31 +8522,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B83"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="83.44140625" customWidth="1"/>
+    <col min="2" max="2" width="83.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -8554,396 +8554,396 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="75" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="76">
         <v>2021</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="77" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="78" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="80" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="79">
         <v>2019</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="79" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="79" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="80" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="79">
         <v>2022</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="79" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="81" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="80" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="79">
         <v>2020</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="79" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="81" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="80" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="79">
         <v>2020</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="79" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="87" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="80" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="79">
         <v>2019</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="79" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="81" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="80" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="79">
         <v>2018</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="79" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="79" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="80" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="79">
         <v>2021</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="79" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="81" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="80" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="79" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="81" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="85"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="2">
         <v>2021</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="2">
         <v>2021</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" s="156">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="152">
         <v>1.1200000000000001</v>
       </c>
       <c r="B77" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" s="156">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="152">
         <v>1.3412999999999999</v>
       </c>
       <c r="B78" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>947817077749</v>
       </c>
@@ -8951,12 +8951,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>54</v>
       </c>
@@ -8979,23 +8979,23 @@
       <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.44140625" customWidth="1"/>
-    <col min="2" max="2" width="20.88671875" customWidth="1"/>
+    <col min="1" max="1" width="33.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>508</v>
       </c>
@@ -9006,7 +9006,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>510</v>
       </c>
@@ -9017,17 +9017,17 @@
         <v>511</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>514</v>
       </c>
@@ -9039,17 +9039,17 @@
         <v>515</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>518</v>
       </c>
@@ -9058,7 +9058,7 @@
         <v>38.049999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>519</v>
       </c>
@@ -9067,7 +9067,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>520</v>
       </c>
@@ -9076,7 +9076,7 @@
         <v>38.049999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>521</v>
       </c>
@@ -9085,7 +9085,7 @@
         <v>5.26</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>522</v>
       </c>
@@ -9094,7 +9094,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>523</v>
       </c>
@@ -9103,7 +9103,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>524</v>
       </c>
@@ -9112,7 +9112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>525</v>
       </c>
@@ -9121,7 +9121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>526</v>
       </c>
@@ -9130,7 +9130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>527</v>
       </c>
@@ -9139,7 +9139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>528</v>
       </c>
@@ -9148,7 +9148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>529</v>
       </c>
@@ -9157,7 +9157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>530</v>
       </c>
@@ -9166,7 +9166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>412</v>
       </c>
@@ -9183,7 +9183,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>518</v>
       </c>
@@ -9203,7 +9203,7 @@
         <v>0.40515579326484025</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>519</v>
       </c>
@@ -9214,7 +9214,7 @@
       <c r="D29" s="24"/>
       <c r="E29" s="24"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>520</v>
       </c>
@@ -9225,7 +9225,7 @@
       <c r="D30" s="24"/>
       <c r="E30" s="24"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>521</v>
       </c>
@@ -9236,7 +9236,7 @@
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>522</v>
       </c>
@@ -9247,7 +9247,7 @@
       <c r="D32" s="24"/>
       <c r="E32" s="24"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>523</v>
       </c>
@@ -9258,7 +9258,7 @@
       <c r="D33" s="24"/>
       <c r="E33" s="24"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>524</v>
       </c>
@@ -9269,7 +9269,7 @@
       <c r="D34" s="24"/>
       <c r="E34" s="24"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>525</v>
       </c>
@@ -9280,7 +9280,7 @@
       <c r="D35" s="24"/>
       <c r="E35" s="24"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>526</v>
       </c>
@@ -9291,7 +9291,7 @@
       <c r="D36" s="24"/>
       <c r="E36" s="24"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>527</v>
       </c>
@@ -9302,7 +9302,7 @@
       <c r="D37" s="24"/>
       <c r="E37" s="24"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>528</v>
       </c>
@@ -9316,7 +9316,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>529</v>
       </c>
@@ -9336,7 +9336,7 @@
         <v>4.0515579326484019</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>530</v>
       </c>
@@ -9347,12 +9347,12 @@
       <c r="D40" s="24"/>
       <c r="E40" s="24"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="68">
         <f>SUMPRODUCT(B11:B23,E28:E40)/SUM(B11:B23)</f>
         <v>6.7834384691356966E-3</v>
@@ -9361,32 +9361,32 @@
         <v>534</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>545</v>
       </c>
@@ -9404,20 +9404,20 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="3" width="28.33203125" customWidth="1"/>
-    <col min="4" max="4" width="44.88671875" style="21" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" customWidth="1"/>
+    <col min="4" max="4" width="44.85546875" style="21" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
     <col min="9" max="9" width="19" style="52" customWidth="1"/>
     <col min="11" max="11" width="30" customWidth="1"/>
-    <col min="12" max="12" width="16.109375" customWidth="1"/>
-    <col min="13" max="13" width="25.88671875" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" customWidth="1"/>
+    <col min="13" max="13" width="25.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>546</v>
       </c>
@@ -9425,7 +9425,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="100" t="s">
         <v>548</v>
       </c>
@@ -9433,7 +9433,7 @@
       <c r="C2" s="99"/>
       <c r="D2" s="107"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="98" t="s">
         <v>549</v>
       </c>
@@ -9447,7 +9447,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>553</v>
       </c>
@@ -9461,7 +9461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>554</v>
       </c>
@@ -9469,7 +9469,7 @@
         <v>44.3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>389</v>
       </c>
@@ -9477,7 +9477,7 @@
         <v>70.8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>555</v>
       </c>
@@ -9485,7 +9485,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>556</v>
       </c>
@@ -9493,7 +9493,7 @@
         <v>379.2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>557</v>
       </c>
@@ -9501,7 +9501,7 @@
         <v>35.4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>558</v>
       </c>
@@ -9509,7 +9509,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>559</v>
       </c>
@@ -9523,7 +9523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>560</v>
       </c>
@@ -9532,7 +9532,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>561</v>
       </c>
@@ -9546,7 +9546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>562</v>
       </c>
@@ -9560,7 +9560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>563</v>
       </c>
@@ -9574,7 +9574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>564</v>
       </c>
@@ -9588,7 +9588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>565</v>
       </c>
@@ -9602,7 +9602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>566</v>
       </c>
@@ -9611,7 +9611,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>567</v>
       </c>
@@ -9625,7 +9625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>568</v>
       </c>
@@ -9639,7 +9639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>569</v>
       </c>
@@ -9653,7 +9653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>570</v>
       </c>
@@ -9667,7 +9667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>571</v>
       </c>
@@ -9681,7 +9681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="97" t="s">
         <v>572</v>
       </c>
@@ -9689,7 +9689,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="36.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>574</v>
       </c>
@@ -9718,7 +9718,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="36.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A28" s="95" t="s">
         <v>499</v>
       </c>
@@ -9747,7 +9747,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="36.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A29" s="96" t="s">
         <v>499</v>
       </c>
@@ -9776,7 +9776,7 @@
         <v>44448</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="36.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A30" s="95" t="s">
         <v>499</v>
       </c>
@@ -9805,7 +9805,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="36.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A31" s="96" t="s">
         <v>499</v>
       </c>
@@ -9834,7 +9834,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="36.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A32" s="95" t="s">
         <v>499</v>
       </c>
@@ -9863,7 +9863,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="36.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A33" s="96" t="s">
         <v>499</v>
       </c>
@@ -9892,7 +9892,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="36.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A34" s="95" t="s">
         <v>499</v>
       </c>
@@ -9921,7 +9921,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="36.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A35" s="95" t="s">
         <v>499</v>
       </c>
@@ -9950,7 +9950,7 @@
         <v>44381</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="36.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A36" s="96" t="s">
         <v>499</v>
       </c>
@@ -9979,7 +9979,7 @@
         <v>44533</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="36.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A37" s="95" t="s">
         <v>499</v>
       </c>
@@ -10008,7 +10008,7 @@
         <v>44289</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="36.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A38" s="96" t="s">
         <v>499</v>
       </c>
@@ -10037,7 +10037,7 @@
         <v>44289</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A39" s="95" t="s">
         <v>499</v>
       </c>
@@ -10066,7 +10066,7 @@
         <v>44502</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A40" s="96" t="s">
         <v>499</v>
       </c>
@@ -10095,7 +10095,7 @@
         <v>44288</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="36.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A41" s="95" t="s">
         <v>499</v>
       </c>
@@ -10124,7 +10124,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A42" s="96" t="s">
         <v>499</v>
       </c>
@@ -10153,7 +10153,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="36.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A43" s="95" t="s">
         <v>499</v>
       </c>
@@ -10182,7 +10182,7 @@
         <v>44147</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="36.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A44" s="96" t="s">
         <v>499</v>
       </c>
@@ -10211,7 +10211,7 @@
         <v>44147</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="36.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A45" s="95" t="s">
         <v>499</v>
       </c>
@@ -10240,7 +10240,7 @@
         <v>43842</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="36.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A46" s="96" t="s">
         <v>499</v>
       </c>
@@ -10269,7 +10269,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="36.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A47" s="95" t="s">
         <v>499</v>
       </c>
@@ -10298,7 +10298,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="36.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A48" s="96" t="s">
         <v>499</v>
       </c>
@@ -10327,7 +10327,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="36.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A49" s="95" t="s">
         <v>499</v>
       </c>
@@ -10356,7 +10356,7 @@
         <v>43840</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="36.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A50" s="96" t="s">
         <v>499</v>
       </c>
@@ -10385,7 +10385,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="36.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A51" s="95" t="s">
         <v>499</v>
       </c>
@@ -10414,7 +10414,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="36.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A52" s="96" t="s">
         <v>499</v>
       </c>
@@ -10443,7 +10443,7 @@
         <v>44083</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="36.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A53" s="95" t="s">
         <v>499</v>
       </c>
@@ -10472,7 +10472,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="60.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A54" s="96" t="s">
         <v>499</v>
       </c>
@@ -10501,7 +10501,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A55" s="95" t="s">
         <v>499</v>
       </c>
@@ -10550,23 +10550,23 @@
       <selection activeCell="K1" sqref="K1:O1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.109375" style="131" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="131" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" style="131"/>
-    <col min="5" max="6" width="9.109375" style="131" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.33203125" customWidth="1"/>
-    <col min="10" max="10" width="39.5546875" customWidth="1"/>
-    <col min="11" max="15" width="14.88671875" customWidth="1"/>
-    <col min="16" max="16" width="33.33203125" customWidth="1"/>
-    <col min="17" max="17" width="24.109375" style="52" customWidth="1"/>
-    <col min="18" max="18" width="31.44140625" customWidth="1"/>
-    <col min="24" max="24" width="108.44140625" customWidth="1"/>
-    <col min="31" max="31" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="131" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="131" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="131"/>
+    <col min="5" max="6" width="9.140625" style="131" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.28515625" customWidth="1"/>
+    <col min="10" max="10" width="39.5703125" customWidth="1"/>
+    <col min="11" max="15" width="14.85546875" customWidth="1"/>
+    <col min="16" max="16" width="33.28515625" customWidth="1"/>
+    <col min="17" max="17" width="24.140625" style="52" customWidth="1"/>
+    <col min="18" max="18" width="31.42578125" customWidth="1"/>
+    <col min="24" max="24" width="108.42578125" customWidth="1"/>
+    <col min="31" max="31" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="131" t="s">
         <v>640</v>
       </c>
@@ -10651,7 +10651,7 @@
       <c r="AD1" s="125"/>
       <c r="AE1" s="125"/>
     </row>
-    <row r="2" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2"/>
       <c r="B2" s="129"/>
       <c r="C2" s="129"/>
@@ -10715,7 +10715,7 @@
       </c>
       <c r="Z2" s="121"/>
     </row>
-    <row r="3" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3"/>
       <c r="B3" s="128"/>
       <c r="C3" s="128"/>
@@ -10779,7 +10779,7 @@
       </c>
       <c r="Z3" s="121"/>
     </row>
-    <row r="4" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4"/>
       <c r="G4" s="119" t="s">
         <v>499</v>
@@ -10840,7 +10840,7 @@
       </c>
       <c r="Z4" s="121"/>
     </row>
-    <row r="5" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5"/>
       <c r="G5" s="119" t="s">
         <v>499</v>
@@ -10901,7 +10901,7 @@
       </c>
       <c r="Z5" s="121"/>
     </row>
-    <row r="6" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6"/>
       <c r="B6" s="130"/>
       <c r="C6" s="130"/>
@@ -10967,7 +10967,7 @@
       </c>
       <c r="Z6" s="121"/>
     </row>
-    <row r="7" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="131" t="s">
         <v>700</v>
       </c>
@@ -11045,7 +11045,7 @@
       <c r="AD7" s="125"/>
       <c r="AE7" s="125"/>
     </row>
-    <row r="8" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8"/>
       <c r="B8" s="129"/>
       <c r="C8" s="129"/>
@@ -11109,7 +11109,7 @@
       </c>
       <c r="Z8" s="121"/>
     </row>
-    <row r="9" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9"/>
       <c r="B9" s="126"/>
       <c r="C9" s="126"/>
@@ -11171,7 +11171,7 @@
       </c>
       <c r="Z9" s="121"/>
     </row>
-    <row r="10" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10"/>
       <c r="B10" s="126"/>
       <c r="C10" s="126"/>
@@ -11235,7 +11235,7 @@
       </c>
       <c r="Z10" s="119"/>
     </row>
-    <row r="11" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11"/>
       <c r="B11" s="126"/>
       <c r="C11" s="126"/>
@@ -11299,7 +11299,7 @@
       </c>
       <c r="Z11" s="121"/>
     </row>
-    <row r="12" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12"/>
       <c r="B12" s="126"/>
       <c r="C12" s="126"/>
@@ -11363,7 +11363,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="13" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13"/>
       <c r="B13" s="126"/>
       <c r="C13" s="126"/>
@@ -11427,7 +11427,7 @@
       </c>
       <c r="Z13" s="119"/>
     </row>
-    <row r="14" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14"/>
       <c r="B14" s="126"/>
       <c r="C14" s="126"/>
@@ -11491,7 +11491,7 @@
       </c>
       <c r="Z14" s="121"/>
     </row>
-    <row r="15" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="B15" s="126"/>
       <c r="C15" s="126"/>
@@ -11555,7 +11555,7 @@
       </c>
       <c r="Z15" s="119"/>
     </row>
-    <row r="16" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="B16" s="126"/>
       <c r="C16" s="126"/>
@@ -11619,7 +11619,7 @@
       </c>
       <c r="Z16" s="121"/>
     </row>
-    <row r="17" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17"/>
       <c r="B17" s="126"/>
       <c r="C17" s="126"/>
@@ -11683,7 +11683,7 @@
       </c>
       <c r="Z17" s="121"/>
     </row>
-    <row r="18" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18"/>
       <c r="B18" s="126"/>
       <c r="C18" s="126"/>
@@ -11747,7 +11747,7 @@
       </c>
       <c r="Z18" s="121"/>
     </row>
-    <row r="19" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19"/>
       <c r="B19" s="126"/>
       <c r="C19" s="126"/>
@@ -11811,7 +11811,7 @@
       </c>
       <c r="Z19" s="119"/>
     </row>
-    <row r="20" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20"/>
       <c r="B20" s="128"/>
       <c r="C20" s="128"/>
@@ -11875,7 +11875,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="21" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="131" t="s">
         <v>67</v>
       </c>
@@ -11953,7 +11953,7 @@
       <c r="AD21" s="125"/>
       <c r="AE21" s="125"/>
     </row>
-    <row r="22" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22"/>
       <c r="B22" s="130"/>
       <c r="C22" s="130"/>
@@ -12019,7 +12019,7 @@
       </c>
       <c r="Z22" s="121"/>
     </row>
-    <row r="23" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="131" t="s">
         <v>67</v>
       </c>
@@ -12097,7 +12097,7 @@
       <c r="AD23" s="125"/>
       <c r="AE23" s="125"/>
     </row>
-    <row r="24" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24"/>
       <c r="B24" s="129"/>
       <c r="C24" s="129"/>
@@ -12161,7 +12161,7 @@
       </c>
       <c r="Z24" s="119"/>
     </row>
-    <row r="25" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25"/>
       <c r="B25" s="126"/>
       <c r="C25" s="126"/>
@@ -12225,7 +12225,7 @@
       </c>
       <c r="Z25" s="121"/>
     </row>
-    <row r="26" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26"/>
       <c r="B26" s="126"/>
       <c r="C26" s="126"/>
@@ -12289,7 +12289,7 @@
       </c>
       <c r="Z26" s="121"/>
     </row>
-    <row r="27" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27"/>
       <c r="B27" s="126"/>
       <c r="C27" s="126"/>
@@ -12353,7 +12353,7 @@
       </c>
       <c r="Z27" s="121"/>
     </row>
-    <row r="28" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28"/>
       <c r="B28" s="126"/>
       <c r="C28" s="126"/>
@@ -12417,7 +12417,7 @@
       </c>
       <c r="Z28" s="121"/>
     </row>
-    <row r="29" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29"/>
       <c r="B29" s="128"/>
       <c r="C29" s="128"/>
@@ -12481,7 +12481,7 @@
       </c>
       <c r="Z29" s="119"/>
     </row>
-    <row r="30" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="131" t="s">
         <v>803</v>
       </c>
@@ -12562,7 +12562,7 @@
       <c r="AD30" s="125"/>
       <c r="AE30" s="125"/>
     </row>
-    <row r="31" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31"/>
       <c r="B31" s="129"/>
       <c r="C31" s="129"/>
@@ -12626,7 +12626,7 @@
       </c>
       <c r="Z31" s="121"/>
     </row>
-    <row r="32" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32"/>
       <c r="B32" s="126"/>
       <c r="C32" s="126"/>
@@ -12690,7 +12690,7 @@
       </c>
       <c r="Z32" s="121"/>
     </row>
-    <row r="33" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33"/>
       <c r="B33" s="126"/>
       <c r="C33" s="126"/>
@@ -12754,7 +12754,7 @@
       </c>
       <c r="Z33" s="119"/>
     </row>
-    <row r="34" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34"/>
       <c r="B34" s="126"/>
       <c r="C34" s="126"/>
@@ -12818,7 +12818,7 @@
       </c>
       <c r="Z34" s="121"/>
     </row>
-    <row r="35" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35"/>
       <c r="B35" s="126"/>
       <c r="C35" s="126"/>
@@ -12882,7 +12882,7 @@
       </c>
       <c r="Z35" s="121"/>
     </row>
-    <row r="36" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36"/>
       <c r="B36" s="126"/>
       <c r="C36" s="126"/>
@@ -12946,7 +12946,7 @@
       </c>
       <c r="Z36" s="121"/>
     </row>
-    <row r="37" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37"/>
       <c r="B37" s="126"/>
       <c r="C37" s="126"/>
@@ -13010,7 +13010,7 @@
       </c>
       <c r="Z37" s="121"/>
     </row>
-    <row r="38" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38"/>
       <c r="B38" s="126"/>
       <c r="C38" s="126"/>
@@ -13074,7 +13074,7 @@
       </c>
       <c r="Z38" s="119"/>
     </row>
-    <row r="39" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39"/>
       <c r="B39" s="126"/>
       <c r="C39" s="126"/>
@@ -13138,7 +13138,7 @@
       </c>
       <c r="Z39" s="121"/>
     </row>
-    <row r="40" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40"/>
       <c r="B40" s="126"/>
       <c r="C40" s="126"/>
@@ -13202,7 +13202,7 @@
       </c>
       <c r="Z40" s="119"/>
     </row>
-    <row r="41" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41"/>
       <c r="B41" s="126"/>
       <c r="C41" s="126"/>
@@ -13266,7 +13266,7 @@
       </c>
       <c r="Z41" s="119"/>
     </row>
-    <row r="42" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42"/>
       <c r="B42" s="126"/>
       <c r="C42" s="126"/>
@@ -13330,7 +13330,7 @@
       </c>
       <c r="Z42" s="121"/>
     </row>
-    <row r="43" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43"/>
       <c r="B43" s="126"/>
       <c r="C43" s="126"/>
@@ -13394,7 +13394,7 @@
       </c>
       <c r="Z43" s="121"/>
     </row>
-    <row r="44" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44"/>
       <c r="B44" s="126"/>
       <c r="C44" s="126"/>
@@ -13458,7 +13458,7 @@
       </c>
       <c r="Z44" s="121"/>
     </row>
-    <row r="45" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45"/>
       <c r="B45" s="126"/>
       <c r="C45" s="126"/>
@@ -13522,7 +13522,7 @@
       </c>
       <c r="Z45" s="121"/>
     </row>
-    <row r="46" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46"/>
       <c r="B46" s="126"/>
       <c r="C46" s="126"/>
@@ -13586,7 +13586,7 @@
       </c>
       <c r="Z46" s="121"/>
     </row>
-    <row r="47" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47"/>
       <c r="B47" s="126"/>
       <c r="C47" s="126"/>
@@ -13650,7 +13650,7 @@
       </c>
       <c r="Z47" s="121"/>
     </row>
-    <row r="48" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48"/>
       <c r="B48" s="126"/>
       <c r="C48" s="126"/>
@@ -13714,7 +13714,7 @@
       </c>
       <c r="Z48" s="121"/>
     </row>
-    <row r="49" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49"/>
       <c r="B49" s="128"/>
       <c r="C49" s="128"/>
@@ -13778,7 +13778,7 @@
       </c>
       <c r="Z49" s="121"/>
     </row>
-    <row r="50" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="131" t="s">
         <v>67</v>
       </c>
@@ -13856,7 +13856,7 @@
       <c r="AD50" s="125"/>
       <c r="AE50" s="125"/>
     </row>
-    <row r="51" spans="1:31" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:31" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="142"/>
       <c r="B51" s="131"/>
       <c r="C51" s="131"/>
@@ -13922,7 +13922,7 @@
       </c>
       <c r="Z51" s="138"/>
     </row>
-    <row r="52" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52"/>
       <c r="B52" s="129"/>
       <c r="C52" s="129"/>
@@ -13986,7 +13986,7 @@
       </c>
       <c r="Z52" s="121"/>
     </row>
-    <row r="53" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53"/>
       <c r="B53" s="126"/>
       <c r="C53" s="126"/>
@@ -14050,7 +14050,7 @@
       </c>
       <c r="Z53" s="121"/>
     </row>
-    <row r="54" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54"/>
       <c r="B54" s="128"/>
       <c r="C54" s="128"/>
@@ -14114,7 +14114,7 @@
       </c>
       <c r="Z54" s="121"/>
     </row>
-    <row r="55" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="131" t="s">
         <v>913</v>
       </c>
@@ -14195,7 +14195,7 @@
       <c r="AD55" s="125"/>
       <c r="AE55" s="125"/>
     </row>
-    <row r="56" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="131" t="s">
         <v>919</v>
       </c>
@@ -14273,7 +14273,7 @@
       <c r="AD56" s="125"/>
       <c r="AE56" s="125"/>
     </row>
-    <row r="57" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57"/>
       <c r="B57" s="129"/>
       <c r="C57" s="129"/>
@@ -14337,7 +14337,7 @@
       </c>
       <c r="Z57" s="121"/>
     </row>
-    <row r="58" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58"/>
       <c r="B58" s="126"/>
       <c r="C58" s="126"/>
@@ -14401,7 +14401,7 @@
       </c>
       <c r="Z58" s="121"/>
     </row>
-    <row r="59" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59"/>
       <c r="B59" s="128"/>
       <c r="C59" s="128"/>
@@ -14465,7 +14465,7 @@
       </c>
       <c r="Z59" s="121"/>
     </row>
-    <row r="60" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="131" t="s">
         <v>934</v>
       </c>
@@ -14541,7 +14541,7 @@
       <c r="AD60" s="125"/>
       <c r="AE60" s="125"/>
     </row>
-    <row r="61" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61"/>
       <c r="B61" s="129"/>
       <c r="C61" s="129"/>
@@ -14605,7 +14605,7 @@
       </c>
       <c r="Z61" s="121"/>
     </row>
-    <row r="62" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62"/>
       <c r="B62" s="126"/>
       <c r="C62" s="126"/>
@@ -14669,7 +14669,7 @@
       </c>
       <c r="Z62" s="121"/>
     </row>
-    <row r="63" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63"/>
       <c r="B63" s="126"/>
       <c r="C63" s="126"/>
@@ -14733,7 +14733,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="64" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64"/>
       <c r="B64" s="126"/>
       <c r="C64" s="126"/>
@@ -14797,7 +14797,7 @@
       </c>
       <c r="Z64" s="121"/>
     </row>
-    <row r="65" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65"/>
       <c r="B65" s="126"/>
       <c r="C65" s="126"/>
@@ -14861,7 +14861,7 @@
       </c>
       <c r="Z65" s="121"/>
     </row>
-    <row r="66" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66"/>
       <c r="B66" s="126"/>
       <c r="C66" s="126"/>
@@ -14925,7 +14925,7 @@
       </c>
       <c r="Z66" s="121"/>
     </row>
-    <row r="67" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67"/>
       <c r="B67" s="126"/>
       <c r="C67" s="126"/>
@@ -14989,7 +14989,7 @@
       </c>
       <c r="Z67" s="121"/>
     </row>
-    <row r="68" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68"/>
       <c r="B68" s="126"/>
       <c r="C68" s="126"/>
@@ -15053,7 +15053,7 @@
       </c>
       <c r="Z68" s="121"/>
     </row>
-    <row r="69" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69"/>
       <c r="B69" s="126"/>
       <c r="C69" s="126"/>
@@ -15117,7 +15117,7 @@
       </c>
       <c r="Z69" s="121"/>
     </row>
-    <row r="70" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70"/>
       <c r="B70" s="128"/>
       <c r="C70" s="128"/>
@@ -15181,7 +15181,7 @@
       </c>
       <c r="Z70" s="121"/>
     </row>
-    <row r="71" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="131" t="s">
         <v>975</v>
       </c>
@@ -15259,7 +15259,7 @@
       <c r="AD71" s="125"/>
       <c r="AE71" s="125"/>
     </row>
-    <row r="72" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72"/>
       <c r="B72" s="129"/>
       <c r="C72" s="129"/>
@@ -15321,7 +15321,7 @@
       </c>
       <c r="Z72" s="121"/>
     </row>
-    <row r="73" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73"/>
       <c r="B73" s="126"/>
       <c r="C73" s="126"/>
@@ -15385,7 +15385,7 @@
       </c>
       <c r="Z73" s="121"/>
     </row>
-    <row r="74" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74"/>
       <c r="B74" s="128"/>
       <c r="C74" s="128"/>
@@ -15449,7 +15449,7 @@
       </c>
       <c r="Z74" s="121"/>
     </row>
-    <row r="75" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75"/>
       <c r="G75" s="119" t="s">
         <v>499</v>
@@ -15508,7 +15508,7 @@
       </c>
       <c r="Z75" s="121"/>
     </row>
-    <row r="76" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76"/>
       <c r="B76" s="129"/>
       <c r="C76" s="129"/>
@@ -15572,7 +15572,7 @@
       </c>
       <c r="Z76" s="121"/>
     </row>
-    <row r="77" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77"/>
       <c r="B77" s="126"/>
       <c r="C77" s="126"/>
@@ -15636,7 +15636,7 @@
       </c>
       <c r="Z77" s="121"/>
     </row>
-    <row r="78" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78"/>
       <c r="B78" s="126"/>
       <c r="C78" s="126"/>
@@ -15700,7 +15700,7 @@
       </c>
       <c r="Z78" s="121"/>
     </row>
-    <row r="79" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79"/>
       <c r="B79" s="126"/>
       <c r="C79" s="126"/>
@@ -15764,7 +15764,7 @@
       </c>
       <c r="Z79" s="119"/>
     </row>
-    <row r="80" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80"/>
       <c r="B80" s="126"/>
       <c r="C80" s="126"/>
@@ -15828,7 +15828,7 @@
       </c>
       <c r="Z80" s="121"/>
     </row>
-    <row r="81" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81"/>
       <c r="B81" s="126"/>
       <c r="C81" s="126"/>
@@ -15892,7 +15892,7 @@
       </c>
       <c r="Z81" s="121"/>
     </row>
-    <row r="82" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82"/>
       <c r="B82" s="126"/>
       <c r="C82" s="126"/>
@@ -15956,7 +15956,7 @@
       </c>
       <c r="Z82" s="121"/>
     </row>
-    <row r="83" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83"/>
       <c r="B83" s="126"/>
       <c r="C83" s="126"/>
@@ -16020,7 +16020,7 @@
       </c>
       <c r="Z83" s="121"/>
     </row>
-    <row r="84" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84"/>
       <c r="B84" s="126"/>
       <c r="C84" s="126"/>
@@ -16084,7 +16084,7 @@
       </c>
       <c r="Z84" s="119"/>
     </row>
-    <row r="85" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85"/>
       <c r="B85" s="126"/>
       <c r="C85" s="126"/>
@@ -16148,7 +16148,7 @@
       </c>
       <c r="Z85" s="119"/>
     </row>
-    <row r="86" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86"/>
       <c r="B86" s="126"/>
       <c r="C86" s="126"/>
@@ -16212,7 +16212,7 @@
       </c>
       <c r="Z86" s="119"/>
     </row>
-    <row r="87" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87"/>
       <c r="B87" s="126"/>
       <c r="C87" s="126"/>
@@ -16276,7 +16276,7 @@
       </c>
       <c r="Z87" s="121"/>
     </row>
-    <row r="88" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88"/>
       <c r="B88" s="126"/>
       <c r="C88" s="126"/>
@@ -16340,7 +16340,7 @@
       </c>
       <c r="Z88" s="119"/>
     </row>
-    <row r="89" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89"/>
       <c r="B89" s="126"/>
       <c r="C89" s="126"/>
@@ -16404,7 +16404,7 @@
       </c>
       <c r="Z89" s="119"/>
     </row>
-    <row r="90" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90"/>
       <c r="B90" s="128"/>
       <c r="C90" s="128"/>
@@ -16468,7 +16468,7 @@
       </c>
       <c r="Z90" s="121"/>
     </row>
-    <row r="91" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="131" t="s">
         <v>1059</v>
       </c>
@@ -16549,7 +16549,7 @@
       <c r="AD91" s="125"/>
       <c r="AE91" s="125"/>
     </row>
-    <row r="92" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="142"/>
       <c r="F92" s="142" t="s">
         <v>1065</v>
@@ -16616,7 +16616,7 @@
       <c r="AD92" s="140"/>
       <c r="AE92" s="140"/>
     </row>
-    <row r="93" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="142"/>
       <c r="F93" s="142" t="s">
         <v>1065</v>
@@ -16683,7 +16683,7 @@
       <c r="AD93" s="140"/>
       <c r="AE93" s="140"/>
     </row>
-    <row r="94" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94"/>
       <c r="B94" s="129"/>
       <c r="C94" s="129"/>
@@ -16745,7 +16745,7 @@
       </c>
       <c r="Z94" s="121"/>
     </row>
-    <row r="95" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95"/>
       <c r="B95" s="128"/>
       <c r="C95" s="128"/>
@@ -16807,7 +16807,7 @@
       </c>
       <c r="Z95" s="121"/>
     </row>
-    <row r="96" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="131" t="s">
         <v>913</v>
       </c>
@@ -16888,7 +16888,7 @@
       <c r="AD96" s="125"/>
       <c r="AE96" s="125"/>
     </row>
-    <row r="97" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97"/>
       <c r="B97" s="129"/>
       <c r="C97" s="129"/>
@@ -16952,7 +16952,7 @@
       </c>
       <c r="Z97" s="119"/>
     </row>
-    <row r="98" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98"/>
       <c r="B98" s="126"/>
       <c r="C98" s="126"/>
@@ -17016,7 +17016,7 @@
       </c>
       <c r="Z98" s="119"/>
     </row>
-    <row r="99" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99"/>
       <c r="B99" s="126"/>
       <c r="C99" s="126"/>
@@ -17080,7 +17080,7 @@
       </c>
       <c r="Z99" s="119"/>
     </row>
-    <row r="100" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100"/>
       <c r="B100" s="128"/>
       <c r="C100" s="128"/>
@@ -17144,7 +17144,7 @@
       </c>
       <c r="Z100" s="119"/>
     </row>
-    <row r="101" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="142"/>
       <c r="F101" s="142"/>
       <c r="G101" s="132" t="s">
@@ -17209,7 +17209,7 @@
       <c r="AD101" s="125"/>
       <c r="AE101" s="125"/>
     </row>
-    <row r="102" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102"/>
       <c r="B102" s="129"/>
       <c r="C102" s="129"/>
@@ -17273,7 +17273,7 @@
       </c>
       <c r="Z102" s="119"/>
     </row>
-    <row r="103" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103"/>
       <c r="B103" s="126"/>
       <c r="C103" s="126"/>
@@ -17337,7 +17337,7 @@
       </c>
       <c r="Z103" s="121"/>
     </row>
-    <row r="104" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104"/>
       <c r="B104" s="126"/>
       <c r="C104" s="126"/>
@@ -17401,7 +17401,7 @@
       </c>
       <c r="Z104" s="121"/>
     </row>
-    <row r="105" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105"/>
       <c r="B105" s="128"/>
       <c r="C105" s="128"/>
@@ -17465,7 +17465,7 @@
       </c>
       <c r="Z105" s="121"/>
     </row>
-    <row r="106" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="131" t="s">
         <v>975</v>
       </c>
@@ -17543,7 +17543,7 @@
       <c r="AD106" s="125"/>
       <c r="AE106" s="125"/>
     </row>
-    <row r="107" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107"/>
       <c r="B107" s="129"/>
       <c r="C107" s="129"/>
@@ -17607,7 +17607,7 @@
       </c>
       <c r="Z107" s="121"/>
     </row>
-    <row r="108" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108"/>
       <c r="B108" s="126"/>
       <c r="C108" s="126"/>
@@ -17673,7 +17673,7 @@
       </c>
       <c r="Z108" s="121"/>
     </row>
-    <row r="109" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109"/>
       <c r="B109" s="128"/>
       <c r="C109" s="128"/>
@@ -17737,7 +17737,7 @@
       </c>
       <c r="Z109" s="121"/>
     </row>
-    <row r="110" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110"/>
       <c r="G110" s="119" t="s">
         <v>499</v>
@@ -17796,7 +17796,7 @@
       </c>
       <c r="Z110" s="121"/>
     </row>
-    <row r="111" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111"/>
       <c r="B111" s="129"/>
       <c r="C111" s="129"/>
@@ -17860,7 +17860,7 @@
       </c>
       <c r="Z111" s="121"/>
     </row>
-    <row r="112" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112"/>
       <c r="B112" s="126"/>
       <c r="C112" s="126"/>
@@ -17924,7 +17924,7 @@
       </c>
       <c r="Z112" s="121"/>
     </row>
-    <row r="113" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113"/>
       <c r="B113" s="128"/>
       <c r="C113" s="128"/>
@@ -17988,7 +17988,7 @@
       </c>
       <c r="Z113" s="121"/>
     </row>
-    <row r="114" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114"/>
       <c r="G114" s="119" t="s">
         <v>499</v>
@@ -18047,7 +18047,7 @@
       </c>
       <c r="Z114" s="121"/>
     </row>
-    <row r="115" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115"/>
       <c r="B115" s="129"/>
       <c r="C115" s="129"/>
@@ -18111,7 +18111,7 @@
       </c>
       <c r="Z115" s="121"/>
     </row>
-    <row r="116" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116"/>
       <c r="B116" s="126"/>
       <c r="C116" s="126"/>
@@ -18175,7 +18175,7 @@
       </c>
       <c r="Z116" s="121"/>
     </row>
-    <row r="117" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117"/>
       <c r="B117" s="126"/>
       <c r="C117" s="126"/>
@@ -18239,7 +18239,7 @@
       </c>
       <c r="Z117" s="121"/>
     </row>
-    <row r="118" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118"/>
       <c r="B118" s="126"/>
       <c r="C118" s="126"/>
@@ -18303,7 +18303,7 @@
       </c>
       <c r="Z118" s="121"/>
     </row>
-    <row r="119" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119"/>
       <c r="B119" s="126"/>
       <c r="C119" s="126"/>
@@ -18367,7 +18367,7 @@
       </c>
       <c r="Z119" s="121"/>
     </row>
-    <row r="120" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120"/>
       <c r="B120" s="126"/>
       <c r="C120" s="126"/>
@@ -18431,7 +18431,7 @@
       </c>
       <c r="Z120" s="121"/>
     </row>
-    <row r="121" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121"/>
       <c r="B121" s="126"/>
       <c r="C121" s="126"/>
@@ -18495,7 +18495,7 @@
       </c>
       <c r="Z121" s="121"/>
     </row>
-    <row r="122" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122"/>
       <c r="B122" s="126"/>
       <c r="C122" s="126"/>
@@ -18559,7 +18559,7 @@
       </c>
       <c r="Z122" s="121"/>
     </row>
-    <row r="123" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123"/>
       <c r="B123" s="126"/>
       <c r="C123" s="126"/>
@@ -18623,7 +18623,7 @@
       </c>
       <c r="Z123" s="121"/>
     </row>
-    <row r="124" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124"/>
       <c r="B124" s="126"/>
       <c r="C124" s="126"/>
@@ -18687,7 +18687,7 @@
       </c>
       <c r="Z124" s="121"/>
     </row>
-    <row r="125" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125"/>
       <c r="B125" s="126"/>
       <c r="C125" s="126"/>
@@ -18751,7 +18751,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="126" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126"/>
       <c r="B126" s="128"/>
       <c r="C126" s="128"/>
@@ -18815,7 +18815,7 @@
       </c>
       <c r="Z126" s="121"/>
     </row>
-    <row r="127" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="131" t="s">
         <v>1201</v>
       </c>
@@ -18896,7 +18896,7 @@
       <c r="AD127" s="125"/>
       <c r="AE127" s="125"/>
     </row>
-    <row r="128" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128"/>
       <c r="G128" s="119" t="s">
         <v>499</v>
@@ -18955,7 +18955,7 @@
       </c>
       <c r="Z128" s="121"/>
     </row>
-    <row r="129" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129"/>
       <c r="B129" s="129"/>
       <c r="C129" s="129"/>
@@ -19019,7 +19019,7 @@
       </c>
       <c r="Z129" s="121"/>
     </row>
-    <row r="130" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130"/>
       <c r="B130" s="126"/>
       <c r="C130" s="126"/>
@@ -19083,7 +19083,7 @@
       </c>
       <c r="Z130" s="121"/>
     </row>
-    <row r="131" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131"/>
       <c r="B131" s="126"/>
       <c r="C131" s="126"/>
@@ -19147,7 +19147,7 @@
       </c>
       <c r="Z131" s="121"/>
     </row>
-    <row r="132" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132"/>
       <c r="B132" s="126"/>
       <c r="C132" s="126"/>
@@ -19211,7 +19211,7 @@
       </c>
       <c r="Z132" s="119"/>
     </row>
-    <row r="133" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133"/>
       <c r="B133" s="126"/>
       <c r="C133" s="126"/>
@@ -19277,7 +19277,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="134" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134"/>
       <c r="B134" s="126"/>
       <c r="C134" s="126"/>
@@ -19339,7 +19339,7 @@
       </c>
       <c r="Z134" s="121"/>
     </row>
-    <row r="135" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135"/>
       <c r="B135" s="128"/>
       <c r="C135" s="128"/>
@@ -19403,7 +19403,7 @@
       </c>
       <c r="Z135" s="121"/>
     </row>
-    <row r="136" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="142"/>
       <c r="F136" s="142"/>
       <c r="G136" s="132" t="s">
@@ -19468,7 +19468,7 @@
       <c r="AD136" s="125"/>
       <c r="AE136" s="125"/>
     </row>
-    <row r="137" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="142"/>
       <c r="F137" s="142" t="s">
         <v>1242</v>
@@ -19535,7 +19535,7 @@
       <c r="AD137" s="125"/>
       <c r="AE137" s="125"/>
     </row>
-    <row r="138" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138"/>
       <c r="B138" s="129"/>
       <c r="C138" s="129"/>
@@ -19599,7 +19599,7 @@
       </c>
       <c r="Z138" s="121"/>
     </row>
-    <row r="139" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139"/>
       <c r="B139" s="126"/>
       <c r="C139" s="126"/>
@@ -19663,7 +19663,7 @@
       </c>
       <c r="Z139" s="121"/>
     </row>
-    <row r="140" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140"/>
       <c r="B140" s="128"/>
       <c r="C140" s="128"/>
@@ -19727,7 +19727,7 @@
       </c>
       <c r="Z140" s="121"/>
     </row>
-    <row r="141" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="131" t="s">
         <v>934</v>
       </c>
@@ -19805,7 +19805,7 @@
       <c r="AD141" s="125"/>
       <c r="AE141" s="125"/>
     </row>
-    <row r="142" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="131" t="s">
         <v>934</v>
       </c>
@@ -19883,7 +19883,7 @@
       <c r="AD142" s="125"/>
       <c r="AE142" s="125"/>
     </row>
-    <row r="143" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143"/>
       <c r="B143" s="129"/>
       <c r="C143" s="129"/>
@@ -19947,7 +19947,7 @@
       </c>
       <c r="Z143" s="121"/>
     </row>
-    <row r="144" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144"/>
       <c r="B144" s="126"/>
       <c r="C144" s="126"/>
@@ -20011,7 +20011,7 @@
       </c>
       <c r="Z144" s="121"/>
     </row>
-    <row r="145" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145"/>
       <c r="B145" s="126"/>
       <c r="C145" s="126"/>
@@ -20075,7 +20075,7 @@
       </c>
       <c r="Z145" s="119"/>
     </row>
-    <row r="146" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146"/>
       <c r="B146" s="126"/>
       <c r="C146" s="126"/>
@@ -20139,7 +20139,7 @@
       </c>
       <c r="Z146" s="119"/>
     </row>
-    <row r="147" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147"/>
       <c r="B147" s="126"/>
       <c r="C147" s="126"/>
@@ -20203,7 +20203,7 @@
       </c>
       <c r="Z147" s="121"/>
     </row>
-    <row r="148" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148"/>
       <c r="B148" s="126"/>
       <c r="C148" s="126"/>
@@ -20267,7 +20267,7 @@
       </c>
       <c r="Z148" s="121"/>
     </row>
-    <row r="149" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149"/>
       <c r="B149" s="126"/>
       <c r="C149" s="126"/>
@@ -20331,7 +20331,7 @@
       </c>
       <c r="Z149" s="119"/>
     </row>
-    <row r="150" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150"/>
       <c r="B150" s="126"/>
       <c r="C150" s="126"/>
@@ -20395,7 +20395,7 @@
       </c>
       <c r="Z150" s="121"/>
     </row>
-    <row r="151" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151"/>
       <c r="B151" s="126"/>
       <c r="C151" s="126"/>
@@ -20459,7 +20459,7 @@
       </c>
       <c r="Z151" s="121"/>
     </row>
-    <row r="152" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152"/>
       <c r="B152" s="126"/>
       <c r="C152" s="126"/>
@@ -20523,7 +20523,7 @@
       </c>
       <c r="Z152" s="121"/>
     </row>
-    <row r="153" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153"/>
       <c r="B153" s="126"/>
       <c r="C153" s="126"/>
@@ -20587,7 +20587,7 @@
       </c>
       <c r="Z153" s="121"/>
     </row>
-    <row r="154" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154"/>
       <c r="B154" s="126"/>
       <c r="C154" s="126"/>
@@ -20651,7 +20651,7 @@
       </c>
       <c r="Z154" s="119"/>
     </row>
-    <row r="155" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155"/>
       <c r="B155" s="126"/>
       <c r="C155" s="126"/>
@@ -20715,7 +20715,7 @@
       </c>
       <c r="Z155" s="119"/>
     </row>
-    <row r="156" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156"/>
       <c r="B156" s="126"/>
       <c r="C156" s="126"/>
@@ -20779,7 +20779,7 @@
       </c>
       <c r="Z156" s="119"/>
     </row>
-    <row r="157" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157"/>
       <c r="B157" s="126"/>
       <c r="C157" s="126"/>
@@ -20843,7 +20843,7 @@
       </c>
       <c r="Z157" s="119"/>
     </row>
-    <row r="158" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158"/>
       <c r="B158" s="126"/>
       <c r="C158" s="126"/>
@@ -20907,7 +20907,7 @@
       </c>
       <c r="Z158" s="119"/>
     </row>
-    <row r="159" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159"/>
       <c r="B159" s="126"/>
       <c r="C159" s="126"/>
@@ -20971,7 +20971,7 @@
       </c>
       <c r="Z159" s="119"/>
     </row>
-    <row r="160" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160"/>
       <c r="B160" s="126"/>
       <c r="C160" s="126"/>
@@ -21035,7 +21035,7 @@
       </c>
       <c r="Z160" s="121"/>
     </row>
-    <row r="161" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161"/>
       <c r="B161" s="126"/>
       <c r="C161" s="126"/>
@@ -21099,7 +21099,7 @@
       </c>
       <c r="Z161" s="121"/>
     </row>
-    <row r="162" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162"/>
       <c r="B162" s="126"/>
       <c r="C162" s="126"/>
@@ -21163,7 +21163,7 @@
       </c>
       <c r="Z162" s="121"/>
     </row>
-    <row r="163" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163"/>
       <c r="B163" s="126"/>
       <c r="C163" s="126"/>
@@ -21227,7 +21227,7 @@
       </c>
       <c r="Z163" s="121"/>
     </row>
-    <row r="164" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164"/>
       <c r="B164" s="126"/>
       <c r="C164" s="126"/>
@@ -21291,7 +21291,7 @@
       </c>
       <c r="Z164" s="121"/>
     </row>
-    <row r="165" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165"/>
       <c r="B165" s="128"/>
       <c r="C165" s="128"/>
@@ -21355,7 +21355,7 @@
       </c>
       <c r="Z165" s="121"/>
     </row>
-    <row r="166" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="131" t="s">
         <v>934</v>
       </c>
@@ -21433,7 +21433,7 @@
       <c r="AD166" s="125"/>
       <c r="AE166" s="125"/>
     </row>
-    <row r="167" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167"/>
       <c r="B167" s="129"/>
       <c r="C167" s="129"/>
@@ -21497,7 +21497,7 @@
       </c>
       <c r="Z167" s="121"/>
     </row>
-    <row r="168" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168"/>
       <c r="B168" s="128"/>
       <c r="C168" s="128"/>
@@ -21561,7 +21561,7 @@
       </c>
       <c r="Z168" s="121"/>
     </row>
-    <row r="169" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="131" t="s">
         <v>919</v>
       </c>
@@ -21642,7 +21642,7 @@
       <c r="AD169" s="125"/>
       <c r="AE169" s="125"/>
     </row>
-    <row r="170" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170"/>
       <c r="B170" s="129"/>
       <c r="C170" s="129"/>
@@ -21706,7 +21706,7 @@
       </c>
       <c r="Z170" s="121"/>
     </row>
-    <row r="171" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171"/>
       <c r="B171" s="126"/>
       <c r="C171" s="126"/>
@@ -21770,7 +21770,7 @@
       </c>
       <c r="Z171" s="121"/>
     </row>
-    <row r="172" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172"/>
       <c r="B172" s="126"/>
       <c r="C172" s="126"/>
@@ -21834,7 +21834,7 @@
       </c>
       <c r="Z172" s="121"/>
     </row>
-    <row r="173" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173"/>
       <c r="B173" s="126"/>
       <c r="C173" s="126"/>
@@ -21898,7 +21898,7 @@
       </c>
       <c r="Z173" s="121"/>
     </row>
-    <row r="174" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174"/>
       <c r="B174" s="126"/>
       <c r="C174" s="126"/>
@@ -21962,7 +21962,7 @@
       </c>
       <c r="Z174" s="121"/>
     </row>
-    <row r="175" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175"/>
       <c r="B175" s="126"/>
       <c r="C175" s="126"/>
@@ -22026,7 +22026,7 @@
       </c>
       <c r="Z175" s="121"/>
     </row>
-    <row r="176" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176"/>
       <c r="B176" s="126"/>
       <c r="C176" s="126"/>
@@ -22092,7 +22092,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="177" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177"/>
       <c r="B177" s="126"/>
       <c r="C177" s="126"/>
@@ -22156,7 +22156,7 @@
       </c>
       <c r="Z177" s="121"/>
     </row>
-    <row r="178" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178"/>
       <c r="B178" s="126"/>
       <c r="C178" s="126"/>
@@ -22220,7 +22220,7 @@
       </c>
       <c r="Z178" s="121"/>
     </row>
-    <row r="179" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179"/>
       <c r="B179" s="126"/>
       <c r="C179" s="126"/>
@@ -22284,7 +22284,7 @@
       </c>
       <c r="Z179" s="121"/>
     </row>
-    <row r="180" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180"/>
       <c r="B180" s="128"/>
       <c r="C180" s="128"/>
@@ -22348,7 +22348,7 @@
       </c>
       <c r="Z180" s="121"/>
     </row>
-    <row r="181" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="131" t="s">
         <v>975</v>
       </c>
@@ -22426,7 +22426,7 @@
       <c r="AD181" s="125"/>
       <c r="AE181" s="125"/>
     </row>
-    <row r="182" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182"/>
       <c r="G182" s="119" t="s">
         <v>499</v>
@@ -22487,7 +22487,7 @@
       </c>
       <c r="Z182" s="121"/>
     </row>
-    <row r="183" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="131" t="s">
         <v>934</v>
       </c>
@@ -22568,7 +22568,7 @@
       <c r="AD183" s="125"/>
       <c r="AE183" s="125"/>
     </row>
-    <row r="184" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184"/>
       <c r="B184" s="129"/>
       <c r="C184" s="129"/>
@@ -22632,7 +22632,7 @@
       </c>
       <c r="Z184" s="121"/>
     </row>
-    <row r="185" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185"/>
       <c r="B185" s="126"/>
       <c r="C185" s="126"/>
@@ -22696,7 +22696,7 @@
       </c>
       <c r="Z185" s="121"/>
     </row>
-    <row r="186" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186"/>
       <c r="B186" s="126"/>
       <c r="C186" s="126"/>
@@ -22760,7 +22760,7 @@
       </c>
       <c r="Z186" s="121"/>
     </row>
-    <row r="187" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187"/>
       <c r="B187" s="126"/>
       <c r="C187" s="126"/>
@@ -22824,7 +22824,7 @@
       </c>
       <c r="Z187" s="121"/>
     </row>
-    <row r="188" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188"/>
       <c r="B188" s="126"/>
       <c r="C188" s="126"/>
@@ -22888,7 +22888,7 @@
       </c>
       <c r="Z188" s="121"/>
     </row>
-    <row r="189" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189"/>
       <c r="B189" s="128"/>
       <c r="C189" s="128"/>
@@ -22952,7 +22952,7 @@
       </c>
       <c r="Z189" s="121"/>
     </row>
-    <row r="190" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="131" t="s">
         <v>919</v>
       </c>
@@ -23030,7 +23030,7 @@
       <c r="AD190" s="125"/>
       <c r="AE190" s="125"/>
     </row>
-    <row r="191" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191"/>
       <c r="B191" s="130"/>
       <c r="C191" s="130"/>
@@ -23094,7 +23094,7 @@
       </c>
       <c r="Z191" s="119"/>
     </row>
-    <row r="192" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="131" t="s">
         <v>1454</v>
       </c>
@@ -23172,7 +23172,7 @@
       <c r="AD192" s="125"/>
       <c r="AE192" s="125"/>
     </row>
-    <row r="193" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="131" t="s">
         <v>934</v>
       </c>
@@ -23245,7 +23245,7 @@
       </c>
       <c r="Z193" s="133"/>
     </row>
-    <row r="194" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194"/>
       <c r="B194" s="129"/>
       <c r="C194" s="129"/>
@@ -23309,7 +23309,7 @@
       </c>
       <c r="Z194" s="119"/>
     </row>
-    <row r="195" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195"/>
       <c r="B195" s="126"/>
       <c r="C195" s="126"/>
@@ -23373,7 +23373,7 @@
       </c>
       <c r="Z195" s="121"/>
     </row>
-    <row r="196" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196"/>
       <c r="B196" s="126"/>
       <c r="C196" s="126"/>
@@ -23437,7 +23437,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="197" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197"/>
       <c r="B197" s="126"/>
       <c r="C197" s="126"/>
@@ -23501,7 +23501,7 @@
       </c>
       <c r="Z197" s="121"/>
     </row>
-    <row r="198" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198"/>
       <c r="B198" s="126"/>
       <c r="C198" s="126"/>
@@ -23565,7 +23565,7 @@
       </c>
       <c r="Z198" s="121"/>
     </row>
-    <row r="199" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199"/>
       <c r="B199" s="126"/>
       <c r="C199" s="126"/>
@@ -23629,7 +23629,7 @@
       </c>
       <c r="Z199" s="121"/>
     </row>
-    <row r="200" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200"/>
       <c r="B200" s="126"/>
       <c r="C200" s="126"/>
@@ -23693,7 +23693,7 @@
       </c>
       <c r="Z200" s="121"/>
     </row>
-    <row r="201" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201"/>
       <c r="B201" s="126"/>
       <c r="C201" s="126"/>
@@ -23757,7 +23757,7 @@
       </c>
       <c r="Z201" s="119"/>
     </row>
-    <row r="202" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202"/>
       <c r="B202" s="128"/>
       <c r="C202" s="128"/>
@@ -23821,7 +23821,7 @@
       </c>
       <c r="Z202" s="121"/>
     </row>
-    <row r="203" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="131" t="s">
         <v>1508</v>
       </c>
@@ -23898,7 +23898,7 @@
       <c r="AC203" s="125"/>
       <c r="AD203" s="125"/>
     </row>
-    <row r="204" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204"/>
       <c r="B204" s="129"/>
       <c r="C204" s="129"/>
@@ -23962,7 +23962,7 @@
       </c>
       <c r="Z204" s="119"/>
     </row>
-    <row r="205" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205"/>
       <c r="B205" s="126"/>
       <c r="C205" s="126"/>
@@ -24026,7 +24026,7 @@
       </c>
       <c r="Z205" s="121"/>
     </row>
-    <row r="206" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206"/>
       <c r="B206" s="128"/>
       <c r="C206" s="128"/>
@@ -24090,7 +24090,7 @@
       </c>
       <c r="Z206" s="119"/>
     </row>
-    <row r="207" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="131" t="s">
         <v>1201</v>
       </c>
@@ -24170,7 +24170,7 @@
       <c r="AC207" s="125"/>
       <c r="AD207" s="125"/>
     </row>
-    <row r="208" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208"/>
       <c r="B208" s="129"/>
       <c r="C208" s="129"/>
@@ -24234,7 +24234,7 @@
       </c>
       <c r="Z208" s="121"/>
     </row>
-    <row r="209" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209"/>
       <c r="B209" s="126"/>
       <c r="C209" s="126"/>
@@ -24298,7 +24298,7 @@
       </c>
       <c r="Z209" s="121"/>
     </row>
-    <row r="210" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210"/>
       <c r="B210" s="126"/>
       <c r="C210" s="126"/>
@@ -24362,7 +24362,7 @@
       </c>
       <c r="Z210" s="121"/>
     </row>
-    <row r="211" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211"/>
       <c r="B211" s="128"/>
       <c r="C211" s="128"/>
@@ -24426,7 +24426,7 @@
       </c>
       <c r="Z211" s="121"/>
     </row>
-    <row r="212" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="131" t="s">
         <v>700</v>
       </c>
@@ -24508,7 +24508,7 @@
       <c r="AC212" s="125"/>
       <c r="AD212" s="125"/>
     </row>
-    <row r="213" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213"/>
       <c r="B213" s="129"/>
       <c r="C213" s="129"/>
@@ -24572,7 +24572,7 @@
       </c>
       <c r="Z213" s="121"/>
     </row>
-    <row r="214" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214"/>
       <c r="B214" s="126"/>
       <c r="C214" s="126"/>
@@ -24636,7 +24636,7 @@
       </c>
       <c r="Z214" s="121"/>
     </row>
-    <row r="215" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215"/>
       <c r="B215" s="126"/>
       <c r="C215" s="126"/>
@@ -24700,7 +24700,7 @@
       </c>
       <c r="Z215" s="121"/>
     </row>
-    <row r="216" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216"/>
       <c r="B216" s="126"/>
       <c r="C216" s="126"/>
@@ -24764,7 +24764,7 @@
       </c>
       <c r="Z216" s="121"/>
     </row>
-    <row r="217" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217"/>
       <c r="B217" s="126"/>
       <c r="C217" s="126"/>
@@ -24828,7 +24828,7 @@
       </c>
       <c r="Z217" s="121"/>
     </row>
-    <row r="218" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218"/>
       <c r="B218" s="126"/>
       <c r="C218" s="126"/>
@@ -24890,7 +24890,7 @@
       </c>
       <c r="Z218" s="121"/>
     </row>
-    <row r="219" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219"/>
       <c r="B219" s="126"/>
       <c r="C219" s="126"/>
@@ -24952,7 +24952,7 @@
       </c>
       <c r="Z219" s="121"/>
     </row>
-    <row r="220" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220"/>
       <c r="B220" s="126"/>
       <c r="C220" s="126"/>
@@ -25016,7 +25016,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="221" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221"/>
       <c r="B221" s="126"/>
       <c r="C221" s="126"/>
@@ -25080,7 +25080,7 @@
       </c>
       <c r="Z221" s="121"/>
     </row>
-    <row r="222" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222"/>
       <c r="B222" s="128"/>
       <c r="C222" s="128"/>
@@ -25144,7 +25144,7 @@
       </c>
       <c r="Z222" s="121"/>
     </row>
-    <row r="223" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G223" s="119" t="s">
         <v>499</v>
       </c>
@@ -25202,7 +25202,7 @@
       </c>
       <c r="Z223" s="121"/>
     </row>
-    <row r="224" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224"/>
       <c r="B224" s="129"/>
       <c r="C224" s="129"/>
@@ -25266,7 +25266,7 @@
       </c>
       <c r="Z224" s="121"/>
     </row>
-    <row r="225" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225"/>
       <c r="B225" s="128"/>
       <c r="C225" s="128"/>
@@ -25330,7 +25330,7 @@
       </c>
       <c r="Z225" s="121"/>
     </row>
-    <row r="226" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G226" s="119" t="s">
         <v>499</v>
       </c>
@@ -25388,7 +25388,7 @@
       </c>
       <c r="Z226" s="121"/>
     </row>
-    <row r="227" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227"/>
       <c r="B227" s="130"/>
       <c r="C227" s="130"/>
@@ -25452,7 +25452,7 @@
       </c>
       <c r="Z227" s="119"/>
     </row>
-    <row r="228" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G228" s="119" t="s">
         <v>499</v>
       </c>
@@ -25508,7 +25508,7 @@
       </c>
       <c r="Z228" s="121"/>
     </row>
-    <row r="229" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229"/>
       <c r="B229" s="129"/>
       <c r="C229" s="129"/>
@@ -25570,7 +25570,7 @@
       </c>
       <c r="Z229" s="121"/>
     </row>
-    <row r="230" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230"/>
       <c r="B230" s="126"/>
       <c r="C230" s="126"/>
@@ -25634,7 +25634,7 @@
       </c>
       <c r="Z230" s="119"/>
     </row>
-    <row r="231" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231"/>
       <c r="B231" s="126"/>
       <c r="C231" s="126"/>
@@ -25698,7 +25698,7 @@
       </c>
       <c r="Z231" s="121"/>
     </row>
-    <row r="232" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232"/>
       <c r="B232" s="126"/>
       <c r="C232" s="126"/>
@@ -25760,7 +25760,7 @@
       </c>
       <c r="Z232" s="121"/>
     </row>
-    <row r="233" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233"/>
       <c r="B233" s="126"/>
       <c r="C233" s="126"/>
@@ -25824,7 +25824,7 @@
       </c>
       <c r="Z233" s="121"/>
     </row>
-    <row r="234" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234"/>
       <c r="B234" s="128"/>
       <c r="C234" s="128"/>
@@ -25890,7 +25890,7 @@
       </c>
       <c r="Z234" s="121"/>
     </row>
-    <row r="235" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G235" s="119" t="s">
         <v>499</v>
       </c>
@@ -25946,7 +25946,7 @@
       </c>
       <c r="Z235" s="121"/>
     </row>
-    <row r="236" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236"/>
       <c r="B236" s="129"/>
       <c r="C236" s="129"/>
@@ -26014,7 +26014,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="237" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237"/>
       <c r="B237" s="126"/>
       <c r="C237" s="126"/>
@@ -26080,7 +26080,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="238" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238"/>
       <c r="B238" s="126"/>
       <c r="C238" s="126"/>
@@ -26142,7 +26142,7 @@
       </c>
       <c r="Z238" s="121"/>
     </row>
-    <row r="239" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239"/>
       <c r="B239" s="126"/>
       <c r="C239" s="126"/>
@@ -26208,7 +26208,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="240" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240"/>
       <c r="B240" s="128"/>
       <c r="C240" s="128"/>
@@ -26270,7 +26270,7 @@
       </c>
       <c r="Z240" s="121"/>
     </row>
-    <row r="241" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G241" s="119" t="s">
         <v>499</v>
       </c>
@@ -26328,7 +26328,7 @@
       </c>
       <c r="Z241" s="121"/>
     </row>
-    <row r="242" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242"/>
       <c r="B242" s="129"/>
       <c r="C242" s="129"/>
@@ -26390,7 +26390,7 @@
       </c>
       <c r="Z242" s="121"/>
     </row>
-    <row r="243" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243"/>
       <c r="B243" s="128"/>
       <c r="C243" s="128"/>
@@ -26452,7 +26452,7 @@
       </c>
       <c r="Z243" s="121"/>
     </row>
-    <row r="244" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G244" s="119" t="s">
         <v>499</v>
       </c>
@@ -26510,7 +26510,7 @@
       </c>
       <c r="Z244" s="119"/>
     </row>
-    <row r="245" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245"/>
       <c r="B245" s="129"/>
       <c r="C245" s="129"/>
@@ -26574,7 +26574,7 @@
       </c>
       <c r="Z245" s="121"/>
     </row>
-    <row r="246" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246"/>
       <c r="B246" s="126"/>
       <c r="C246" s="126"/>
@@ -26638,7 +26638,7 @@
       </c>
       <c r="Z246" s="121"/>
     </row>
-    <row r="247" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247"/>
       <c r="B247" s="126"/>
       <c r="C247" s="126"/>
@@ -26702,7 +26702,7 @@
       </c>
       <c r="Z247" s="121"/>
     </row>
-    <row r="248" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248"/>
       <c r="B248" s="126"/>
       <c r="C248" s="126"/>
@@ -26766,7 +26766,7 @@
       </c>
       <c r="Z248" s="121"/>
     </row>
-    <row r="249" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249"/>
       <c r="B249" s="126"/>
       <c r="C249" s="126"/>
@@ -26830,7 +26830,7 @@
       </c>
       <c r="Z249" s="121"/>
     </row>
-    <row r="250" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250"/>
       <c r="B250" s="126"/>
       <c r="C250" s="126"/>
@@ -26894,7 +26894,7 @@
       </c>
       <c r="Z250" s="121"/>
     </row>
-    <row r="251" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251"/>
       <c r="B251" s="126"/>
       <c r="C251" s="126"/>
@@ -26958,7 +26958,7 @@
       </c>
       <c r="Z251" s="121"/>
     </row>
-    <row r="252" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252"/>
       <c r="B252" s="126"/>
       <c r="C252" s="126"/>
@@ -27022,7 +27022,7 @@
       </c>
       <c r="Z252" s="119"/>
     </row>
-    <row r="253" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253"/>
       <c r="B253" s="126"/>
       <c r="C253" s="126"/>
@@ -27086,7 +27086,7 @@
       </c>
       <c r="Z253" s="121"/>
     </row>
-    <row r="254" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254"/>
       <c r="B254" s="126"/>
       <c r="C254" s="126"/>
@@ -27150,7 +27150,7 @@
       </c>
       <c r="Z254" s="121"/>
     </row>
-    <row r="255" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255"/>
       <c r="B255" s="126"/>
       <c r="C255" s="126"/>
@@ -27214,7 +27214,7 @@
       </c>
       <c r="Z255" s="121"/>
     </row>
-    <row r="256" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256"/>
       <c r="B256" s="126"/>
       <c r="C256" s="126"/>
@@ -27278,7 +27278,7 @@
       </c>
       <c r="Z256" s="121"/>
     </row>
-    <row r="257" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257"/>
       <c r="B257" s="126"/>
       <c r="C257" s="126"/>
@@ -27342,7 +27342,7 @@
       </c>
       <c r="Z257" s="119"/>
     </row>
-    <row r="258" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258"/>
       <c r="B258" s="126"/>
       <c r="C258" s="126"/>
@@ -27406,7 +27406,7 @@
       </c>
       <c r="Z258" s="121"/>
     </row>
-    <row r="259" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259"/>
       <c r="B259" s="126"/>
       <c r="C259" s="126"/>
@@ -27470,7 +27470,7 @@
       </c>
       <c r="Z259" s="119"/>
     </row>
-    <row r="260" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260"/>
       <c r="B260" s="126"/>
       <c r="C260" s="126"/>
@@ -27534,7 +27534,7 @@
       </c>
       <c r="Z260" s="121"/>
     </row>
-    <row r="261" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261"/>
       <c r="B261" s="126"/>
       <c r="C261" s="126"/>
@@ -27600,7 +27600,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="262" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262"/>
       <c r="B262" s="126"/>
       <c r="C262" s="126"/>
@@ -27664,7 +27664,7 @@
       </c>
       <c r="Z262" s="121"/>
     </row>
-    <row r="263" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263"/>
       <c r="B263" s="126"/>
       <c r="C263" s="126"/>
@@ -27730,7 +27730,7 @@
       </c>
       <c r="Z263" s="121"/>
     </row>
-    <row r="264" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264"/>
       <c r="B264" s="126"/>
       <c r="C264" s="126"/>
@@ -27794,7 +27794,7 @@
       </c>
       <c r="Z264" s="121"/>
     </row>
-    <row r="265" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265"/>
       <c r="B265" s="126"/>
       <c r="C265" s="126"/>
@@ -27860,7 +27860,7 @@
       </c>
       <c r="Z265" s="119"/>
     </row>
-    <row r="266" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266"/>
       <c r="B266" s="126"/>
       <c r="C266" s="126"/>
@@ -27926,7 +27926,7 @@
       </c>
       <c r="Z266" s="121"/>
     </row>
-    <row r="267" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267"/>
       <c r="B267" s="126"/>
       <c r="C267" s="126"/>
@@ -27992,7 +27992,7 @@
       </c>
       <c r="Z267" s="119"/>
     </row>
-    <row r="268" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268"/>
       <c r="B268" s="128"/>
       <c r="C268" s="128"/>
@@ -28058,7 +28058,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="269" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G269" s="119" t="s">
         <v>499</v>
       </c>
@@ -28116,7 +28116,7 @@
       </c>
       <c r="Z269" s="121"/>
     </row>
-    <row r="270" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270"/>
       <c r="B270" s="129"/>
       <c r="C270" s="129"/>
@@ -28180,7 +28180,7 @@
       </c>
       <c r="Z270" s="121"/>
     </row>
-    <row r="271" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271"/>
       <c r="B271" s="126"/>
       <c r="C271" s="126"/>
@@ -28244,7 +28244,7 @@
       </c>
       <c r="Z271" s="119"/>
     </row>
-    <row r="272" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272"/>
       <c r="B272" s="126"/>
       <c r="C272" s="126"/>
@@ -28308,7 +28308,7 @@
       </c>
       <c r="Z272" s="119"/>
     </row>
-    <row r="273" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273"/>
       <c r="B273" s="126"/>
       <c r="C273" s="126"/>
@@ -28372,7 +28372,7 @@
       </c>
       <c r="Z273" s="119"/>
     </row>
-    <row r="274" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274"/>
       <c r="B274" s="126"/>
       <c r="C274" s="126"/>
@@ -28438,7 +28438,7 @@
       </c>
       <c r="Z274" s="119"/>
     </row>
-    <row r="275" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275"/>
       <c r="B275" s="126"/>
       <c r="C275" s="126"/>
@@ -28502,7 +28502,7 @@
       </c>
       <c r="Z275" s="119"/>
     </row>
-    <row r="276" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276"/>
       <c r="B276" s="126"/>
       <c r="C276" s="126"/>
@@ -28566,7 +28566,7 @@
       </c>
       <c r="Z276" s="119"/>
     </row>
-    <row r="277" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277"/>
       <c r="B277" s="126"/>
       <c r="C277" s="126"/>
@@ -28632,7 +28632,7 @@
       </c>
       <c r="Z277" s="121"/>
     </row>
-    <row r="278" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278"/>
       <c r="B278" s="126"/>
       <c r="C278" s="126"/>
@@ -28698,7 +28698,7 @@
       </c>
       <c r="Z278" s="119"/>
     </row>
-    <row r="279" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279"/>
       <c r="B279" s="126"/>
       <c r="C279" s="126"/>
@@ -28764,7 +28764,7 @@
       </c>
       <c r="Z279" s="119"/>
     </row>
-    <row r="280" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280"/>
       <c r="B280" s="126"/>
       <c r="C280" s="126"/>
@@ -28828,7 +28828,7 @@
       </c>
       <c r="Z280" s="119"/>
     </row>
-    <row r="281" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281"/>
       <c r="B281" s="126"/>
       <c r="C281" s="126"/>
@@ -28894,7 +28894,7 @@
         <v>1817</v>
       </c>
     </row>
-    <row r="282" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282"/>
       <c r="B282" s="126"/>
       <c r="C282" s="126"/>
@@ -28960,7 +28960,7 @@
       </c>
       <c r="Z282" s="121"/>
     </row>
-    <row r="283" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283"/>
       <c r="B283" s="126"/>
       <c r="C283" s="126"/>
@@ -29026,7 +29026,7 @@
       </c>
       <c r="Z283" s="119"/>
     </row>
-    <row r="284" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284"/>
       <c r="B284" s="128"/>
       <c r="C284" s="128"/>
@@ -29094,7 +29094,7 @@
         <v>1833</v>
       </c>
     </row>
-    <row r="285" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285"/>
       <c r="G285" s="119" t="s">
         <v>499</v>
@@ -29155,7 +29155,7 @@
         <v>1836</v>
       </c>
     </row>
-    <row r="286" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286"/>
       <c r="B286" s="129"/>
       <c r="C286" s="129"/>
@@ -29221,7 +29221,7 @@
       </c>
       <c r="Z286" s="121"/>
     </row>
-    <row r="287" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287"/>
       <c r="B287" s="126"/>
       <c r="C287" s="126"/>
@@ -29287,7 +29287,7 @@
       </c>
       <c r="Z287" s="121"/>
     </row>
-    <row r="288" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288"/>
       <c r="B288" s="126"/>
       <c r="C288" s="126"/>
@@ -29353,7 +29353,7 @@
       </c>
       <c r="Z288" s="121"/>
     </row>
-    <row r="289" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289"/>
       <c r="B289" s="126"/>
       <c r="C289" s="126"/>
@@ -29421,7 +29421,7 @@
         <v>1855</v>
       </c>
     </row>
-    <row r="290" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290"/>
       <c r="B290" s="126"/>
       <c r="C290" s="126"/>
@@ -29485,7 +29485,7 @@
       </c>
       <c r="Z290" s="121"/>
     </row>
-    <row r="291" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291"/>
       <c r="B291" s="128"/>
       <c r="C291" s="128"/>
@@ -29586,16 +29586,16 @@
   <dimension ref="A1:AH22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.5546875" customWidth="1"/>
-    <col min="2" max="3" width="10.109375" customWidth="1"/>
+    <col min="1" max="1" width="26.5703125" customWidth="1"/>
+    <col min="2" max="3" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1865</v>
       </c>
@@ -29699,7 +29699,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>553</v>
       </c>
@@ -29805,7 +29805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34" s="150" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34" s="150" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="150" t="s">
         <v>1866</v>
       </c>
@@ -29942,7 +29942,7 @@
         <v>2.5821153522474293E-8</v>
       </c>
     </row>
-    <row r="4" spans="1:34" s="150" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34" s="150" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="150" t="s">
         <v>1867</v>
       </c>
@@ -30079,7 +30079,7 @@
         <v>6.9268013420629465E-7</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>555</v>
       </c>
@@ -30185,7 +30185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>556</v>
       </c>
@@ -30291,7 +30291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>557</v>
       </c>
@@ -30397,7 +30397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>558</v>
       </c>
@@ -30503,7 +30503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1868</v>
       </c>
@@ -30609,7 +30609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34" s="150" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:34" s="150" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="150" t="s">
         <v>1869</v>
       </c>
@@ -30746,7 +30746,7 @@
         <v>1.2800439172574605E-6</v>
       </c>
     </row>
-    <row r="11" spans="1:34" s="150" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34" s="150" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="150" t="s">
         <v>1870</v>
       </c>
@@ -30883,7 +30883,7 @@
         <v>1.2800439172574605E-6</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>562</v>
       </c>
@@ -30989,7 +30989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>563</v>
       </c>
@@ -31095,7 +31095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34" s="150" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:34" s="150" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="150" t="s">
         <v>1871</v>
       </c>
@@ -31232,7 +31232,7 @@
         <v>1.2800439172574605E-6</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>565</v>
       </c>
@@ -31338,7 +31338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>566</v>
       </c>
@@ -31444,7 +31444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34" s="150" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:34" s="150" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="150" t="s">
         <v>1872</v>
       </c>
@@ -31581,7 +31581,7 @@
         <v>2.5821153522474293E-8</v>
       </c>
     </row>
-    <row r="18" spans="1:34" s="150" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:34" s="150" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="150" t="s">
         <v>568</v>
       </c>
@@ -31718,7 +31718,7 @@
         <v>1.2800439172574605E-6</v>
       </c>
     </row>
-    <row r="19" spans="1:34" s="150" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:34" s="150" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="150" t="s">
         <v>569</v>
       </c>
@@ -31855,7 +31855,7 @@
         <v>1.2800439172574605E-6</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>570</v>
       </c>
@@ -31961,7 +31961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>571</v>
       </c>
@@ -32067,7 +32067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>574</v>
       </c>
@@ -32187,12 +32187,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1865</v>
       </c>
@@ -32296,7 +32296,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1873</v>
       </c>
@@ -32420,7 +32420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1874</v>
       </c>
@@ -32544,7 +32544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1875</v>
       </c>
@@ -32668,7 +32668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1876</v>
       </c>
@@ -32792,7 +32792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1877</v>
       </c>
@@ -32916,7 +32916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1878</v>
       </c>
@@ -33040,7 +33040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1879</v>
       </c>
@@ -33164,7 +33164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1880</v>
       </c>
@@ -33288,7 +33288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1881</v>
       </c>
@@ -33412,7 +33412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1882</v>
       </c>
@@ -33536,7 +33536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1883</v>
       </c>
@@ -33660,7 +33660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1884</v>
       </c>
@@ -33784,7 +33784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1885</v>
       </c>
@@ -33908,7 +33908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1886</v>
       </c>
@@ -34012,7 +34012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1887</v>
       </c>
@@ -34116,7 +34116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1888</v>
       </c>
@@ -34234,12 +34234,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1865</v>
       </c>
@@ -34343,7 +34343,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1873</v>
       </c>
@@ -34467,7 +34467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1874</v>
       </c>
@@ -34591,7 +34591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1875</v>
       </c>
@@ -34715,7 +34715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1876</v>
       </c>
@@ -34839,7 +34839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1877</v>
       </c>
@@ -34963,7 +34963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1878</v>
       </c>
@@ -35087,7 +35087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1879</v>
       </c>
@@ -35211,7 +35211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1880</v>
       </c>
@@ -35335,7 +35335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1881</v>
       </c>
@@ -35459,7 +35459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1882</v>
       </c>
@@ -35583,7 +35583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1883</v>
       </c>
@@ -35707,7 +35707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1884</v>
       </c>
@@ -35831,7 +35831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1885</v>
       </c>
@@ -35955,7 +35955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1886</v>
       </c>
@@ -36059,7 +36059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1887</v>
       </c>
@@ -36163,7 +36163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1888</v>
       </c>
@@ -36279,14 +36279,16 @@
   </sheetPr>
   <dimension ref="A1:AH17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1865</v>
       </c>
@@ -36390,7 +36392,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1873</v>
       </c>
@@ -36514,7 +36516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1874</v>
       </c>
@@ -36638,7 +36640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1875</v>
       </c>
@@ -36762,7 +36764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1876</v>
       </c>
@@ -36886,7 +36888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1877</v>
       </c>
@@ -37010,7 +37012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1878</v>
       </c>
@@ -37134,7 +37136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1879</v>
       </c>
@@ -37258,7 +37260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1880</v>
       </c>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1881</v>
       </c>
@@ -37506,7 +37508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1882</v>
       </c>
@@ -37630,7 +37632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1883</v>
       </c>
@@ -37754,7 +37756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1884</v>
       </c>
@@ -37878,7 +37880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1885</v>
       </c>
@@ -38002,7 +38004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1886</v>
       </c>
@@ -38106,7 +38108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1887</v>
       </c>
@@ -38210,7 +38212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1888</v>
       </c>
@@ -38330,12 +38332,12 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1865</v>
       </c>
@@ -38439,7 +38441,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1889</v>
       </c>
@@ -38563,7 +38565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1890</v>
       </c>
@@ -38687,7 +38689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1891</v>
       </c>
@@ -38811,7 +38813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1892</v>
       </c>
@@ -38935,7 +38937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1893</v>
       </c>
@@ -39059,7 +39061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1894</v>
       </c>
@@ -39183,7 +39185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1895</v>
       </c>
@@ -39307,7 +39309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1896</v>
       </c>
@@ -39431,7 +39433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1897</v>
       </c>
@@ -39555,7 +39557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1898</v>
       </c>
@@ -39679,7 +39681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1899</v>
       </c>
@@ -39803,7 +39805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1900</v>
       </c>
@@ -39927,7 +39929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1901</v>
       </c>
@@ -40051,7 +40053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1886</v>
       </c>
@@ -40155,7 +40157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1887</v>
       </c>
@@ -40259,7 +40261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1888</v>
       </c>
@@ -40372,22 +40374,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{915E3A4A-39C8-4551-BDDC-89311EE448C8}">
   <dimension ref="A4:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="89.88671875" customWidth="1"/>
+    <col min="2" max="2" width="89.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="156" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="152" t="s">
         <v>1902</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="156" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="152" t="s">
         <v>1903</v>
       </c>
       <c r="C5" t="s">
@@ -40397,11 +40399,11 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="157" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="153" t="s">
         <v>1906</v>
       </c>
-      <c r="B6" s="157" t="s">
+      <c r="B6" s="153" t="s">
         <v>1907</v>
       </c>
     </row>
@@ -40418,26 +40420,26 @@
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="A3" sqref="A3:G4"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3:G4"/>
       <selection pane="bottomRight" activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.5546875" style="9" customWidth="1"/>
+    <col min="1" max="1" width="43.5703125" style="9" customWidth="1"/>
     <col min="2" max="2" width="24" style="9" customWidth="1"/>
-    <col min="3" max="3" width="19.44140625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" style="9" customWidth="1"/>
-    <col min="5" max="6" width="12.44140625" style="9"/>
-    <col min="7" max="7" width="23.5546875" style="9" customWidth="1"/>
-    <col min="8" max="8" width="67.44140625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" style="9" customWidth="1"/>
+    <col min="5" max="6" width="12.42578125" style="9"/>
+    <col min="7" max="7" width="23.5703125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="67.42578125" style="9" customWidth="1"/>
     <col min="9" max="9" width="15" style="9" customWidth="1"/>
-    <col min="10" max="16384" width="12.44140625" style="9"/>
+    <col min="10" max="16384" width="12.42578125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>55</v>
       </c>
@@ -40445,48 +40447,48 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C2" s="65" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="152" t="s">
+    <row r="3" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="154" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="152" t="s">
+      <c r="B3" s="154" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="153" t="s">
+      <c r="C3" s="155" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="154" t="s">
+      <c r="D3" s="156" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="155" t="s">
+      <c r="E3" s="157" t="s">
         <v>62</v>
       </c>
-      <c r="F3" s="155" t="s">
+      <c r="F3" s="157" t="s">
         <v>63</v>
       </c>
-      <c r="G3" s="152" t="s">
+      <c r="G3" s="154" t="s">
         <v>64</v>
       </c>
-      <c r="H3" s="152" t="s">
+      <c r="H3" s="154" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="152"/>
-      <c r="B4" s="152"/>
-      <c r="C4" s="153"/>
-      <c r="D4" s="154"/>
-      <c r="E4" s="155"/>
-      <c r="F4" s="155"/>
-      <c r="G4" s="152"/>
-      <c r="H4" s="152"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="154"/>
+      <c r="B4" s="154"/>
+      <c r="C4" s="155"/>
+      <c r="D4" s="156"/>
+      <c r="E4" s="157"/>
+      <c r="F4" s="157"/>
+      <c r="G4" s="154"/>
+      <c r="H4" s="154"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
         <v>66</v>
       </c>
@@ -40498,7 +40500,7 @@
       <c r="G5" s="26"/>
       <c r="H5" s="26"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="27" t="s">
         <v>67</v>
       </c>
@@ -40510,7 +40512,7 @@
       <c r="G6" s="28"/>
       <c r="H6" s="28"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="59" t="s">
         <v>68</v>
       </c>
@@ -40537,7 +40539,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="59" t="s">
         <v>68</v>
       </c>
@@ -40564,7 +40566,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="61" t="s">
         <v>75</v>
       </c>
@@ -40593,7 +40595,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="61" t="s">
         <v>80</v>
       </c>
@@ -40623,7 +40625,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="61" t="s">
         <v>84</v>
       </c>
@@ -40655,7 +40657,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="59" t="s">
         <v>88</v>
       </c>
@@ -40684,7 +40686,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="61" t="s">
         <v>80</v>
       </c>
@@ -40714,7 +40716,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="59" t="s">
         <v>92</v>
       </c>
@@ -40741,7 +40743,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="59" t="s">
         <v>92</v>
       </c>
@@ -40768,7 +40770,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="28" t="s">
         <v>94</v>
       </c>
@@ -40794,7 +40796,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="59" t="s">
         <v>97</v>
       </c>
@@ -40818,7 +40820,7 @@
       </c>
       <c r="H17" s="28"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="28" t="s">
         <v>100</v>
       </c>
@@ -40842,7 +40844,7 @@
       </c>
       <c r="H18" s="28"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="28" t="s">
         <v>101</v>
       </c>
@@ -40866,7 +40868,7 @@
       </c>
       <c r="H19" s="28"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="28" t="s">
         <v>103</v>
       </c>
@@ -40890,7 +40892,7 @@
       </c>
       <c r="H20" s="28"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="27" t="s">
         <v>104</v>
       </c>
@@ -40911,7 +40913,7 @@
       <c r="G21" s="28"/>
       <c r="H21" s="28"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="28"/>
       <c r="B22" s="28"/>
       <c r="C22" s="28"/>
@@ -40921,7 +40923,7 @@
       <c r="G22" s="28"/>
       <c r="H22" s="28"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="27" t="s">
         <v>105</v>
       </c>
@@ -40933,7 +40935,7 @@
       <c r="G23" s="28"/>
       <c r="H23" s="28"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="28" t="s">
         <v>106</v>
       </c>
@@ -40962,7 +40964,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="28" t="s">
         <v>109</v>
       </c>
@@ -40991,7 +40993,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="28" t="s">
         <v>110</v>
       </c>
@@ -41020,7 +41022,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="28" t="s">
         <v>112</v>
       </c>
@@ -41052,7 +41054,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="28" t="s">
         <v>114</v>
       </c>
@@ -41081,7 +41083,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="28" t="s">
         <v>117</v>
       </c>
@@ -41108,7 +41110,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="28" t="s">
         <v>119</v>
       </c>
@@ -41135,7 +41137,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="28" t="s">
         <v>120</v>
       </c>
@@ -41164,7 +41166,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="27" t="s">
         <v>121</v>
       </c>
@@ -41185,7 +41187,7 @@
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
     </row>
-    <row r="33" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="27" t="s">
         <v>122</v>
       </c>
@@ -41206,7 +41208,7 @@
       <c r="G33" s="27"/>
       <c r="H33" s="27"/>
     </row>
-    <row r="34" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="26" t="s">
         <v>123</v>
       </c>
@@ -41218,7 +41220,7 @@
       <c r="G34" s="26"/>
       <c r="H34" s="26"/>
     </row>
-    <row r="35" spans="1:8" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A35" s="38" t="s">
         <v>124</v>
       </c>
@@ -41247,7 +41249,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A36" s="38" t="s">
         <v>128</v>
       </c>
@@ -41276,7 +41278,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="35" t="s">
         <v>131</v>
       </c>
@@ -41305,7 +41307,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="35" t="s">
         <v>134</v>
       </c>
@@ -41334,7 +41336,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="35" t="s">
         <v>136</v>
       </c>
@@ -41363,7 +41365,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="11" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" s="11" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="38" t="s">
         <v>139</v>
       </c>
@@ -41392,7 +41394,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="44" t="s">
         <v>140</v>
       </c>
@@ -41413,7 +41415,7 @@
       <c r="G41" s="44"/>
       <c r="H41" s="44"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="47"/>
       <c r="B42" s="47"/>
       <c r="C42" s="47"/>
@@ -41423,7 +41425,7 @@
       <c r="G42" s="47"/>
       <c r="H42" s="47"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="49" t="s">
         <v>141</v>
       </c>
@@ -41444,10 +41446,10 @@
       <c r="G43" s="47"/>
       <c r="H43" s="47"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D50" s="12"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D51" s="12"/>
     </row>
   </sheetData>
@@ -41475,20 +41477,20 @@
       <selection pane="bottomLeft" activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.5546875" customWidth="1"/>
-    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.5703125" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" style="52" customWidth="1"/>
-    <col min="5" max="5" width="19.44140625" style="55" customWidth="1"/>
-    <col min="6" max="17" width="17.109375" style="55" customWidth="1"/>
-    <col min="18" max="18" width="62.6640625" customWidth="1"/>
-    <col min="19" max="19" width="38.5546875" customWidth="1"/>
-    <col min="20" max="20" width="20.109375" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" style="52" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" style="55" customWidth="1"/>
+    <col min="6" max="17" width="17.140625" style="55" customWidth="1"/>
+    <col min="18" max="18" width="62.7109375" customWidth="1"/>
+    <col min="19" max="19" width="38.5703125" customWidth="1"/>
+    <col min="20" max="20" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>58</v>
       </c>
@@ -41558,7 +41560,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="72" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="69" t="s">
         <v>146</v>
       </c>
@@ -41579,7 +41581,7 @@
       <c r="P2" s="71"/>
       <c r="Q2" s="71"/>
     </row>
-    <row r="3" spans="1:21" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
         <v>67</v>
       </c>
@@ -41599,7 +41601,7 @@
       <c r="P3" s="55"/>
       <c r="Q3" s="55"/>
     </row>
-    <row r="4" spans="1:21" s="54" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" s="54" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="54" t="s">
         <v>147</v>
       </c>
@@ -41665,7 +41667,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="54" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" s="54" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="56" t="s">
         <v>150</v>
       </c>
@@ -41701,7 +41703,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="54" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" s="54" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="54" t="s">
         <v>154</v>
       </c>
@@ -41773,7 +41775,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="54" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" s="54" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="56" t="s">
         <v>159</v>
       </c>
@@ -41840,7 +41842,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="54" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" s="54" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="54" t="s">
         <v>162</v>
       </c>
@@ -41879,7 +41881,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="54" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" s="54" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="54" t="s">
         <v>166</v>
       </c>
@@ -41948,7 +41950,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="54" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" s="54" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="114" t="s">
         <v>169</v>
       </c>
@@ -42014,7 +42016,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="54" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" s="54" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="54" t="s">
         <v>172</v>
       </c>
@@ -42056,7 +42058,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="54" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" s="54" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="54" t="s">
         <v>175</v>
       </c>
@@ -42125,7 +42127,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="54" t="s">
         <v>177</v>
       </c>
@@ -42157,7 +42159,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="54" t="s">
         <v>180</v>
       </c>
@@ -42189,7 +42191,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="54" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" s="54" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="54" t="s">
         <v>181</v>
       </c>
@@ -42221,7 +42223,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
         <v>68</v>
       </c>
@@ -42290,7 +42292,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:22" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
         <v>68</v>
       </c>
@@ -42359,7 +42361,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:22" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
         <v>92</v>
       </c>
@@ -42428,7 +42430,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:22" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
         <v>92</v>
       </c>
@@ -42497,7 +42499,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:22" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
         <v>97</v>
       </c>
@@ -42527,7 +42529,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:22" s="54" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" s="54" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" s="62" t="s">
         <v>88</v>
       </c>
@@ -42596,7 +42598,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:22" s="54" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" s="54" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A22" s="62" t="s">
         <v>184</v>
       </c>
@@ -42625,7 +42627,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:22" s="54" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" s="54" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="62" t="s">
         <v>186</v>
       </c>
@@ -42654,7 +42656,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:22" s="54" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" s="54" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="62" t="s">
         <v>188</v>
       </c>
@@ -42721,7 +42723,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="25" spans="1:22" s="54" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" s="54" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A25" s="110" t="s">
         <v>191</v>
       </c>
@@ -42771,7 +42773,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="26" spans="1:22" s="54" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" s="54" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="62" t="s">
         <v>194</v>
       </c>
@@ -42836,7 +42838,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="27" spans="1:22" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="62" t="s">
         <v>196</v>
       </c>
@@ -42897,7 +42899,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:22" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="62"/>
       <c r="B28" s="62"/>
       <c r="C28" s="62"/>
@@ -42916,7 +42918,7 @@
       <c r="P28" s="55"/>
       <c r="Q28" s="55"/>
     </row>
-    <row r="29" spans="1:22" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="27" t="s">
         <v>105</v>
       </c>
@@ -42936,7 +42938,7 @@
       <c r="P29" s="55"/>
       <c r="Q29" s="55"/>
     </row>
-    <row r="30" spans="1:22" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="56" t="s">
         <v>197</v>
       </c>
@@ -43001,7 +43003,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:22" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="54" t="s">
         <v>200</v>
       </c>
@@ -43069,7 +43071,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:22" s="54" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" s="54" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="56" t="s">
         <v>204</v>
       </c>
@@ -43136,7 +43138,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:20" s="54" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" s="54" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="54" t="s">
         <v>210</v>
       </c>
@@ -43204,7 +43206,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="54" t="s">
         <v>214</v>
       </c>
@@ -43269,7 +43271,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="113" t="s">
         <v>215</v>
       </c>
@@ -43335,7 +43337,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="113" t="s">
         <v>216</v>
       </c>
@@ -43400,7 +43402,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="37" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="54" t="s">
         <v>218</v>
       </c>
@@ -43428,7 +43430,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="54" t="s">
         <v>219</v>
       </c>
@@ -43456,7 +43458,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="54" t="s">
         <v>220</v>
       </c>
@@ -43484,7 +43486,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="54" t="s">
         <v>221</v>
       </c>
@@ -43512,7 +43514,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="54" t="s">
         <v>222</v>
       </c>
@@ -43540,7 +43542,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="113" t="s">
         <v>223</v>
       </c>
@@ -43604,7 +43606,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="54" t="s">
         <v>224</v>
       </c>
@@ -43632,7 +43634,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="54" t="s">
         <v>225</v>
       </c>
@@ -43695,7 +43697,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="54" t="s">
         <v>226</v>
       </c>
@@ -43761,7 +43763,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="54" t="s">
         <v>228</v>
       </c>
@@ -43824,7 +43826,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="54" t="s">
         <v>229</v>
       </c>
@@ -43886,7 +43888,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="54" t="s">
         <v>230</v>
       </c>
@@ -43914,7 +43916,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="54" t="s">
         <v>231</v>
       </c>
@@ -43942,7 +43944,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="54" t="s">
         <v>232</v>
       </c>
@@ -43970,7 +43972,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="54" t="s">
         <v>233</v>
       </c>
@@ -43998,7 +44000,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="54" t="s">
         <v>234</v>
       </c>
@@ -44026,7 +44028,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="54" t="s">
         <v>235</v>
       </c>
@@ -44089,7 +44091,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="54" t="s">
         <v>237</v>
       </c>
@@ -44152,7 +44154,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="54" t="s">
         <v>238</v>
       </c>
@@ -44215,7 +44217,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="54" t="s">
         <v>239</v>
       </c>
@@ -44278,7 +44280,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="54" t="s">
         <v>240</v>
       </c>
@@ -44341,7 +44343,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="54" t="s">
         <v>241</v>
       </c>
@@ -44404,7 +44406,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="54" t="s">
         <v>242</v>
       </c>
@@ -44467,7 +44469,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="54" t="s">
         <v>243</v>
       </c>
@@ -44530,7 +44532,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="54" t="s">
         <v>244</v>
       </c>
@@ -44593,7 +44595,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="54" t="s">
         <v>245</v>
       </c>
@@ -44658,7 +44660,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="63" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="54" t="s">
         <v>246</v>
       </c>
@@ -44687,7 +44689,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="54" t="s">
         <v>247</v>
       </c>
@@ -44716,7 +44718,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:21" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:21" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="54" t="s">
         <v>248</v>
       </c>
@@ -44745,7 +44747,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:21" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:21" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="54" t="s">
         <v>249</v>
       </c>
@@ -44813,7 +44815,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="67" spans="1:21" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:21" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="54" t="s">
         <v>251</v>
       </c>
@@ -44875,7 +44877,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:21" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:21" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="56" t="s">
         <v>252</v>
       </c>
@@ -44937,7 +44939,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:21" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:21" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="54" t="s">
         <v>253</v>
       </c>
@@ -44965,7 +44967,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:21" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:21" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="54" t="s">
         <v>120</v>
       </c>
@@ -44993,7 +44995,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:21" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:21" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="113" t="s">
         <v>255</v>
       </c>
@@ -45022,7 +45024,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:21" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:21" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="54" t="s">
         <v>256</v>
       </c>
@@ -45050,7 +45052,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:21" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:21" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="54" t="s">
         <v>257</v>
       </c>
@@ -45078,7 +45080,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:21" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:21" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="54" t="s">
         <v>258</v>
       </c>
@@ -45106,7 +45108,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:21" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:21" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="54" t="s">
         <v>259</v>
       </c>
@@ -45134,7 +45136,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:21" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:21" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="54" t="s">
         <v>260</v>
       </c>
@@ -45162,7 +45164,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:21" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:21" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="54" t="s">
         <v>261</v>
       </c>
@@ -45204,7 +45206,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:21" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:21" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="113" t="s">
         <v>263</v>
       </c>
@@ -45243,7 +45245,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:21" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:21" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="113" t="s">
         <v>264</v>
       </c>
@@ -45281,7 +45283,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:21" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:21" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="54" t="s">
         <v>265</v>
       </c>
@@ -45309,7 +45311,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="54" t="s">
         <v>266</v>
       </c>
@@ -45371,7 +45373,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="54" t="s">
         <v>267</v>
       </c>
@@ -45434,7 +45436,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="54" t="s">
         <v>268</v>
       </c>
@@ -45496,7 +45498,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="54" t="s">
         <v>269</v>
       </c>
@@ -45558,7 +45560,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="54" t="s">
         <v>270</v>
       </c>
@@ -45586,7 +45588,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="54" t="s">
         <v>271</v>
       </c>
@@ -45649,7 +45651,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="54" t="s">
         <v>272</v>
       </c>
@@ -45677,7 +45679,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="54" t="s">
         <v>273</v>
       </c>
@@ -45740,7 +45742,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="54" t="s">
         <v>274</v>
       </c>
@@ -45803,7 +45805,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="54" t="s">
         <v>275</v>
       </c>
@@ -45865,7 +45867,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="93" t="s">
         <v>276</v>
       </c>
@@ -45927,7 +45929,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="93" t="s">
         <v>277</v>
       </c>
@@ -45989,7 +45991,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="93" t="s">
         <v>278</v>
       </c>
@@ -46051,7 +46053,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="93" t="s">
         <v>279</v>
       </c>
@@ -46113,7 +46115,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="54" t="s">
         <v>280</v>
       </c>
@@ -46176,7 +46178,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="96" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="54" t="s">
         <v>281</v>
       </c>
@@ -46239,7 +46241,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="97" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="54" t="s">
         <v>282</v>
       </c>
@@ -46303,7 +46305,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="98" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="54" t="s">
         <v>283</v>
       </c>
@@ -46366,7 +46368,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="99" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="54" t="s">
         <v>285</v>
       </c>
@@ -46429,7 +46431,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="100" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="54" t="s">
         <v>287</v>
       </c>
@@ -46492,7 +46494,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="101" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="54" t="s">
         <v>288</v>
       </c>
@@ -46556,7 +46558,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="102" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="54" t="s">
         <v>289</v>
       </c>
@@ -46620,7 +46622,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="103" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="54" t="s">
         <v>290</v>
       </c>
@@ -46684,7 +46686,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="104" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="54" t="s">
         <v>291</v>
       </c>
@@ -46747,7 +46749,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="105" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D105" s="55"/>
       <c r="E105" s="55"/>
       <c r="F105" s="55"/>
@@ -46763,7 +46765,7 @@
       <c r="P105" s="55"/>
       <c r="Q105" s="55"/>
     </row>
-    <row r="106" spans="1:20" s="72" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:20" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="69" t="s">
         <v>293</v>
       </c>
@@ -46784,7 +46786,7 @@
       <c r="P106" s="71"/>
       <c r="Q106" s="71"/>
     </row>
-    <row r="107" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="54" t="s">
         <v>294</v>
       </c>
@@ -46815,7 +46817,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="54" t="s">
         <v>295</v>
       </c>
@@ -46844,7 +46846,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="54" t="s">
         <v>296</v>
       </c>
@@ -46871,7 +46873,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="54" t="s">
         <v>297</v>
       </c>
@@ -46898,7 +46900,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="54" t="s">
         <v>298</v>
       </c>
@@ -46925,7 +46927,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="1:20" s="54" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:20" s="54" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A112" s="54" t="s">
         <v>299</v>
       </c>
@@ -46991,7 +46993,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:20" s="54" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:20" s="54" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A113" s="54" t="s">
         <v>301</v>
       </c>
@@ -47056,7 +47058,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:20" s="54" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:20" s="54" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A114" s="54" t="s">
         <v>303</v>
       </c>
@@ -47122,7 +47124,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="54" t="s">
         <v>305</v>
       </c>
@@ -47149,7 +47151,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A116" s="54" t="s">
         <v>306</v>
       </c>
@@ -47164,7 +47166,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A117" s="54" t="s">
         <v>307</v>
       </c>
@@ -47229,7 +47231,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A118" s="54" t="s">
         <v>309</v>
       </c>
@@ -47246,7 +47248,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A119" s="54" t="s">
         <v>310</v>
       </c>
@@ -47307,7 +47309,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A120" s="54" t="s">
         <v>311</v>
       </c>
@@ -47324,7 +47326,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A121" s="54" t="s">
         <v>312</v>
       </c>
@@ -47339,7 +47341,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>313</v>
       </c>
@@ -47354,7 +47356,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A123" s="54" t="s">
         <v>314</v>
       </c>
@@ -47369,7 +47371,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A124" s="54" t="s">
         <v>315</v>
       </c>
@@ -47384,7 +47386,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A125" s="54" t="s">
         <v>316</v>
       </c>
@@ -47399,7 +47401,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A126" s="54" t="s">
         <v>317</v>
       </c>
@@ -47420,7 +47422,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A127" s="54" t="s">
         <v>318</v>
       </c>
@@ -47444,7 +47446,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A128" s="54" t="s">
         <v>319</v>
       </c>
@@ -47461,7 +47463,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A129" s="54" t="s">
         <v>320</v>
       </c>
@@ -47482,7 +47484,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A130" s="54" t="s">
         <v>321</v>
       </c>
@@ -47499,7 +47501,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A131" s="54" t="s">
         <v>322</v>
       </c>
@@ -47582,37 +47584,37 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.6640625" style="13"/>
+    <col min="1" max="16384" width="8.7109375" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:47" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="2" spans="1:47" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:47" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="3" spans="1:47" ht="21" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:47" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="4" spans="1:47" ht="21" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:47" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="7" spans="1:47" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>328</v>
       </c>
@@ -47755,7 +47757,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>375</v>
       </c>
@@ -47898,7 +47900,7 @@
         <v>10667.53</v>
       </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>376</v>
       </c>
@@ -48041,7 +48043,7 @@
         <v>3181.5</v>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>377</v>
       </c>
@@ -48184,7 +48186,7 @@
         <v>2601.15</v>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>378</v>
       </c>
@@ -48327,7 +48329,7 @@
         <v>57.93</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>379</v>
       </c>
@@ -48470,7 +48472,7 @@
         <v>1606.54</v>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>380</v>
       </c>
@@ -48613,7 +48615,7 @@
         <v>1072.78</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>381</v>
       </c>
@@ -48756,12 +48758,12 @@
         <v>2147.62</v>
       </c>
     </row>
-    <row r="17" spans="1:47" ht="18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>328</v>
       </c>
@@ -48904,7 +48906,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>376</v>
       </c>
@@ -49047,7 +49049,7 @@
         <v>757.54</v>
       </c>
     </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>377</v>
       </c>
@@ -49190,7 +49192,7 @@
         <v>78.69</v>
       </c>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>378</v>
       </c>
@@ -49333,7 +49335,7 @@
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>379</v>
       </c>
@@ -49476,7 +49478,7 @@
         <v>1606.54</v>
       </c>
     </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>380</v>
       </c>
@@ -49619,7 +49621,7 @@
         <v>1072.78</v>
       </c>
     </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>381</v>
       </c>
@@ -49762,12 +49764,12 @@
         <v>151.83000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:47" ht="18" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="14" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>328</v>
       </c>
@@ -49910,7 +49912,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="28" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>375</v>
       </c>
@@ -50068,18 +50070,18 @@
   <dimension ref="A1:AJ28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.109375" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5546875" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="92" t="s">
         <v>384</v>
       </c>
@@ -50119,7 +50121,7 @@
       <c r="AI1" s="92"/>
       <c r="AJ1" s="92"/>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>385</v>
       </c>
@@ -50170,10 +50172,10 @@
         <v>386</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>70</v>
       </c>
@@ -50226,7 +50228,7 @@
         <v>2845.0041279999996</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>74</v>
       </c>
@@ -50279,7 +50281,7 @@
         <v>526.09217600000011</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -50332,7 +50334,7 @@
         <v>4851.1591253333327</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>111</v>
       </c>
@@ -50385,7 +50387,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>90</v>
       </c>
@@ -50438,18 +50440,18 @@
         <v>237.4</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11">
         <v>2020</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>388</v>
       </c>
@@ -50458,7 +50460,7 @@
         <v>502.66</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>389</v>
       </c>
@@ -50467,7 +50469,7 @@
         <v>4939.5</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>390</v>
       </c>
@@ -50476,22 +50478,22 @@
         <v>4289.68</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>2020</v>
       </c>
@@ -50539,7 +50541,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>388</v>
       </c>
@@ -50592,7 +50594,7 @@
         <v>12.301965260423517</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>389</v>
       </c>
@@ -50645,7 +50647,7 @@
         <v>3242.9499924235756</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>390</v>
       </c>
@@ -50698,12 +50700,12 @@
         <v>5204.4434716493333</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25">
         <v>2020</v>
@@ -50752,7 +50754,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>388</v>
       </c>
@@ -50805,7 +50807,7 @@
         <v>2.5821153522474293E-8</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>389</v>
       </c>
@@ -50858,7 +50860,7 @@
         <v>6.9268013420629465E-7</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>390</v>
       </c>
@@ -50927,38 +50929,38 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.88671875" style="13" customWidth="1"/>
-    <col min="2" max="16384" width="8.5546875" style="13"/>
+    <col min="1" max="1" width="31.85546875" style="13" customWidth="1"/>
+    <col min="2" max="16384" width="8.5703125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:37" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:37" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="21" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:37" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="21" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:37" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="7" spans="1:37" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:37" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>328</v>
       </c>
@@ -51071,7 +51073,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>376</v>
       </c>
@@ -51184,7 +51186,7 @@
         <v>1361.02</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>377</v>
       </c>
@@ -51297,7 +51299,7 @@
         <v>44.04</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>378</v>
       </c>
@@ -51410,7 +51412,7 @@
         <v>376.38</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>379</v>
       </c>
@@ -51523,7 +51525,7 @@
         <v>1603.27</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>380</v>
       </c>
@@ -51636,7 +51638,7 @@
         <v>954.69</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>381</v>
       </c>
@@ -51749,12 +51751,12 @@
         <v>498.67</v>
       </c>
     </row>
-    <row r="16" spans="1:37" ht="18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:37" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>328</v>
       </c>
@@ -51867,7 +51869,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>375</v>
       </c>
@@ -51980,12 +51982,12 @@
         <v>2472.81</v>
       </c>
     </row>
-    <row r="20" spans="1:37" ht="18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:37" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>328</v>
       </c>
@@ -52098,7 +52100,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>375</v>
       </c>
@@ -52211,7 +52213,7 @@
         <v>16233.21</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>376</v>
       </c>
@@ -52324,7 +52326,7 @@
         <v>7177.01</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>377</v>
       </c>
@@ -52437,7 +52439,7 @@
         <v>4945.05</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>378</v>
       </c>
@@ -52550,7 +52552,7 @@
         <v>522.86</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>379</v>
       </c>
@@ -52663,7 +52665,7 @@
         <v>1603.27</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>380</v>
       </c>
@@ -52776,7 +52778,7 @@
         <v>954.69</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>381</v>
       </c>
@@ -52910,18 +52912,18 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" customWidth="1"/>
-    <col min="2" max="8" width="16.44140625" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="8" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -52930,7 +52932,7 @@
         <v>1229.9960000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -52939,7 +52941,7 @@
         <v>502.589</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -52948,7 +52950,7 @@
         <v>936.89649999999995</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>111</v>
       </c>
@@ -52957,7 +52959,7 @@
         <v>117.054</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>90</v>
       </c>
@@ -52966,12 +52968,12 @@
         <v>126.34400000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>388</v>
       </c>
@@ -52980,7 +52982,7 @@
         <v>791.03</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>389</v>
       </c>
@@ -52989,7 +52991,7 @@
         <v>4539.49</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>390</v>
       </c>
@@ -52998,22 +53000,22 @@
         <v>4748.18</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="16" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>388</v>
       </c>
@@ -53022,7 +53024,7 @@
         <v>126.97014933672001</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>389</v>
       </c>
@@ -53031,7 +53033,7 @@
         <v>1017.4172999495516</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>390</v>
       </c>
@@ -53040,12 +53042,12 @@
         <v>1768.4920507137283</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="18" t="s">
         <v>403</v>
@@ -53063,7 +53065,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>388</v>
       </c>
@@ -53088,7 +53090,7 @@
         <v>2.0281125301606299E-7</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>389</v>
       </c>
@@ -53113,7 +53115,7 @@
         <v>2.8318837841479042E-7</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>390</v>
       </c>
@@ -53138,7 +53140,7 @@
         <v>4.7060800478962028E-7</v>
       </c>
     </row>
-    <row r="33" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="33" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -53148,41 +53150,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.5546875" customWidth="1"/>
-    <col min="2" max="2" width="42.88671875" style="21" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="2" max="2" width="42.85546875" style="21" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" style="21" customWidth="1"/>
-    <col min="5" max="5" width="20.109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" style="21" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="51" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>412</v>
       </c>
@@ -53202,7 +53204,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>418</v>
       </c>
@@ -53222,7 +53224,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>418</v>
       </c>
@@ -53242,7 +53244,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>418</v>
       </c>
@@ -53262,7 +53264,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>429</v>
       </c>
@@ -53282,7 +53284,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>434</v>
       </c>
@@ -53302,7 +53304,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>438</v>
       </c>
@@ -53322,7 +53324,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>443</v>
       </c>
@@ -53330,7 +53332,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>445</v>
       </c>
@@ -53350,7 +53352,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>450</v>
       </c>
@@ -53358,7 +53360,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>451</v>
       </c>
@@ -53366,7 +53368,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>452</v>
       </c>
@@ -53386,7 +53388,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>452</v>
       </c>
@@ -53406,7 +53408,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>460</v>
       </c>
@@ -53415,7 +53417,7 @@
       </c>
       <c r="C21" s="21"/>
     </row>
-    <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>461</v>
       </c>
@@ -53435,7 +53437,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>461</v>
       </c>
@@ -53455,7 +53457,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>470</v>
       </c>
@@ -53475,7 +53477,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>470</v>
       </c>
@@ -53495,7 +53497,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>470</v>
       </c>
@@ -53515,7 +53517,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>484</v>
       </c>
@@ -53535,7 +53537,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>484</v>
       </c>
@@ -53555,7 +53557,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>484</v>
       </c>
@@ -53592,37 +53594,37 @@
       <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.6640625" style="13"/>
+    <col min="1" max="16384" width="8.7109375" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:47" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="2" spans="1:47" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:47" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="3" spans="1:47" ht="21" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:47" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="4" spans="1:47" ht="21" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:47" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="7" spans="1:47" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>328</v>
       </c>
@@ -53765,7 +53767,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>500</v>
       </c>
@@ -53908,7 +53910,7 @@
         <v>446455.8</v>
       </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>501</v>
       </c>
@@ -54051,7 +54053,7 @@
         <v>188617.4</v>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>502</v>
       </c>
@@ -54194,7 +54196,7 @@
         <v>7658.64</v>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>503</v>
       </c>
@@ -54337,7 +54339,7 @@
         <v>62179.97</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>504</v>
       </c>
@@ -54480,7 +54482,7 @@
         <v>96063.03</v>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>505</v>
       </c>
@@ -54623,7 +54625,7 @@
         <v>88.62</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>376</v>
       </c>
@@ -54766,7 +54768,7 @@
         <v>69154.7</v>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>70</v>
       </c>
@@ -54909,12 +54911,12 @@
         <v>5720.7</v>
       </c>
     </row>
-    <row r="18" spans="1:47" ht="18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>328</v>
       </c>
@@ -55057,7 +55059,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>500</v>
       </c>
@@ -55200,7 +55202,7 @@
         <v>52458.85</v>
       </c>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>501</v>
       </c>
@@ -55343,7 +55345,7 @@
         <v>982.55</v>
       </c>
     </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>502</v>
       </c>
@@ -55486,7 +55488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>503</v>
       </c>
@@ -55629,7 +55631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>504</v>
       </c>
@@ -55772,7 +55774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>505</v>
       </c>
@@ -55915,7 +55917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>376</v>
       </c>
@@ -56058,7 +56060,7 @@
         <v>1413.07</v>
       </c>
     </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>70</v>
       </c>
@@ -56201,12 +56203,12 @@
         <v>189.45</v>
       </c>
     </row>
-    <row r="29" spans="1:47" ht="18" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="14" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="30" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>328</v>
       </c>
@@ -56349,7 +56351,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="31" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>500</v>
       </c>
@@ -56492,7 +56494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>501</v>
       </c>
@@ -56635,7 +56637,7 @@
         <v>1885.59</v>
       </c>
     </row>
-    <row r="33" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>502</v>
       </c>
@@ -56778,7 +56780,7 @@
         <v>4.49</v>
       </c>
     </row>
-    <row r="34" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>503</v>
       </c>
@@ -56921,7 +56923,7 @@
         <v>160.61000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>504</v>
       </c>
@@ -57064,7 +57066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>505</v>
       </c>
@@ -57207,7 +57209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>376</v>
       </c>
@@ -57350,7 +57352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>70</v>
       </c>
@@ -57493,12 +57495,12 @@
         <v>48.27</v>
       </c>
     </row>
-    <row r="40" spans="1:47" ht="18" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A40" s="14" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="41" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
         <v>328</v>
       </c>
@@ -57641,7 +57643,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="42" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
         <v>500</v>
       </c>
@@ -57784,7 +57786,7 @@
         <v>1207.82</v>
       </c>
     </row>
-    <row r="43" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
         <v>501</v>
       </c>
@@ -57927,7 +57929,7 @@
         <v>3954</v>
       </c>
     </row>
-    <row r="44" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
         <v>502</v>
       </c>
@@ -58070,7 +58072,7 @@
         <v>200.63</v>
       </c>
     </row>
-    <row r="45" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
         <v>503</v>
       </c>
@@ -58213,7 +58215,7 @@
         <v>528.46</v>
       </c>
     </row>
-    <row r="46" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>504</v>
       </c>
@@ -58356,7 +58358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
         <v>505</v>
       </c>
@@ -58499,7 +58501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
         <v>376</v>
       </c>
@@ -58642,7 +58644,7 @@
         <v>2932.47</v>
       </c>
     </row>
-    <row r="49" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
         <v>70</v>
       </c>
@@ -58785,12 +58787,12 @@
         <v>407.56</v>
       </c>
     </row>
-    <row r="51" spans="1:47" ht="18" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A51" s="14" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="52" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
         <v>328</v>
       </c>
@@ -58933,7 +58935,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="53" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
         <v>500</v>
       </c>
@@ -59076,7 +59078,7 @@
         <v>3123.74</v>
       </c>
     </row>
-    <row r="54" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
         <v>501</v>
       </c>
@@ -59219,7 +59221,7 @@
         <v>3743.52</v>
       </c>
     </row>
-    <row r="55" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
         <v>502</v>
       </c>
@@ -59362,7 +59364,7 @@
         <v>509.39</v>
       </c>
     </row>
-    <row r="56" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
         <v>503</v>
       </c>
@@ -59505,7 +59507,7 @@
         <v>1042.67</v>
       </c>
     </row>
-    <row r="57" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
         <v>504</v>
       </c>
@@ -59648,7 +59650,7 @@
         <v>5353.24</v>
       </c>
     </row>
-    <row r="58" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
         <v>505</v>
       </c>
@@ -59791,7 +59793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
         <v>376</v>
       </c>
@@ -59934,7 +59936,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="60" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
         <v>70</v>
       </c>
@@ -60077,12 +60079,12 @@
         <v>90.41</v>
       </c>
     </row>
-    <row r="62" spans="1:47" ht="18" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A62" s="14" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="63" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
         <v>328</v>
       </c>
@@ -60225,7 +60227,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="64" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
         <v>500</v>
       </c>
@@ -60368,7 +60370,7 @@
         <v>217546.8</v>
       </c>
     </row>
-    <row r="65" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
         <v>501</v>
       </c>
@@ -60511,7 +60513,7 @@
         <v>29345.68</v>
       </c>
     </row>
-    <row r="66" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
         <v>502</v>
       </c>
@@ -60654,7 +60656,7 @@
         <v>1557.93</v>
       </c>
     </row>
-    <row r="67" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
         <v>503</v>
       </c>
@@ -60797,7 +60799,7 @@
         <v>9235.25</v>
       </c>
     </row>
-    <row r="68" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
         <v>504</v>
       </c>
@@ -60940,7 +60942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
         <v>505</v>
       </c>
@@ -61083,7 +61085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
         <v>376</v>
       </c>
@@ -61226,7 +61228,7 @@
         <v>186.63</v>
       </c>
     </row>
-    <row r="71" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
         <v>70</v>
       </c>
@@ -61369,12 +61371,12 @@
         <v>402.43</v>
       </c>
     </row>
-    <row r="73" spans="1:47" ht="18" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A73" s="14" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="74" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
         <v>328</v>
       </c>
@@ -61517,7 +61519,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="75" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
         <v>500</v>
       </c>
@@ -61660,7 +61662,7 @@
         <v>42724.63</v>
       </c>
     </row>
-    <row r="76" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
         <v>501</v>
       </c>
@@ -61803,7 +61805,7 @@
         <v>73400.41</v>
       </c>
     </row>
-    <row r="77" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
         <v>502</v>
       </c>
@@ -61946,7 +61948,7 @@
         <v>783.61</v>
       </c>
     </row>
-    <row r="78" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
         <v>503</v>
       </c>
@@ -62089,7 +62091,7 @@
         <v>30297.55</v>
       </c>
     </row>
-    <row r="79" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="s">
         <v>504</v>
       </c>
@@ -62232,7 +62234,7 @@
         <v>90709.79</v>
       </c>
     </row>
-    <row r="80" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
         <v>505</v>
       </c>
@@ -62375,7 +62377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
         <v>376</v>
       </c>
@@ -62518,7 +62520,7 @@
         <v>4852.41</v>
       </c>
     </row>
-    <row r="82" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
         <v>70</v>
       </c>
@@ -62661,12 +62663,12 @@
         <v>4029.9</v>
       </c>
     </row>
-    <row r="84" spans="1:47" ht="18" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A84" s="14" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="85" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
         <v>328</v>
       </c>
@@ -62809,7 +62811,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="86" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
         <v>500</v>
       </c>
@@ -62952,7 +62954,7 @@
         <v>39040.559999999998</v>
       </c>
     </row>
-    <row r="87" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A87" s="13" t="s">
         <v>501</v>
       </c>
@@ -63095,7 +63097,7 @@
         <v>6301.06</v>
       </c>
     </row>
-    <row r="88" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="s">
         <v>502</v>
       </c>
@@ -63238,7 +63240,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="89" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="s">
         <v>503</v>
       </c>
@@ -63381,7 +63383,7 @@
         <v>2353.86</v>
       </c>
     </row>
-    <row r="90" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A90" s="13" t="s">
         <v>504</v>
       </c>
@@ -63524,7 +63526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A91" s="13" t="s">
         <v>505</v>
       </c>
@@ -63667,7 +63669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
         <v>376</v>
       </c>
@@ -63810,7 +63812,7 @@
         <v>168.86</v>
       </c>
     </row>
-    <row r="93" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A93" s="13" t="s">
         <v>70</v>
       </c>
@@ -63953,12 +63955,12 @@
         <v>24.1</v>
       </c>
     </row>
-    <row r="95" spans="1:47" ht="18" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A95" s="14" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="96" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A96" s="13" t="s">
         <v>328</v>
       </c>
@@ -64101,7 +64103,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="97" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="s">
         <v>500</v>
       </c>
@@ -64244,7 +64246,7 @@
         <v>505.55</v>
       </c>
     </row>
-    <row r="98" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A98" s="13" t="s">
         <v>501</v>
       </c>
@@ -64387,7 +64389,7 @@
         <v>35844.17</v>
       </c>
     </row>
-    <row r="99" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A99" s="13" t="s">
         <v>502</v>
       </c>
@@ -64530,7 +64532,7 @@
         <v>1278.17</v>
       </c>
     </row>
-    <row r="100" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A100" s="13" t="s">
         <v>503</v>
       </c>
@@ -64673,7 +64675,7 @@
         <v>8876.16</v>
       </c>
     </row>
-    <row r="101" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A101" s="13" t="s">
         <v>504</v>
       </c>
@@ -64816,7 +64818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A102" s="13" t="s">
         <v>505</v>
       </c>
@@ -64959,7 +64961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="s">
         <v>376</v>
       </c>
@@ -65102,7 +65104,7 @@
         <v>49880.18</v>
       </c>
     </row>
-    <row r="104" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="s">
         <v>70</v>
       </c>
@@ -65245,12 +65247,12 @@
         <v>19.079999999999998</v>
       </c>
     </row>
-    <row r="106" spans="1:47" ht="18" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A106" s="14" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="107" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A107" s="13" t="s">
         <v>328</v>
       </c>
@@ -65393,7 +65395,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="108" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="s">
         <v>500</v>
       </c>
@@ -65536,7 +65538,7 @@
         <v>86796.58</v>
       </c>
     </row>
-    <row r="109" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A109" s="13" t="s">
         <v>501</v>
       </c>
@@ -65679,7 +65681,7 @@
         <v>19386.72</v>
       </c>
     </row>
-    <row r="110" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A110" s="13" t="s">
         <v>502</v>
       </c>
@@ -65822,7 +65824,7 @@
         <v>3129.69</v>
       </c>
     </row>
-    <row r="111" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A111" s="13" t="s">
         <v>503</v>
       </c>
@@ -65965,7 +65967,7 @@
         <v>8396.49</v>
       </c>
     </row>
-    <row r="112" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="s">
         <v>504</v>
       </c>
@@ -66108,7 +66110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A113" s="13" t="s">
         <v>505</v>
       </c>
@@ -66251,7 +66253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A114" s="13" t="s">
         <v>376</v>
       </c>
@@ -66394,7 +66396,7 @@
         <v>2433.8200000000002</v>
       </c>
     </row>
-    <row r="115" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A115" s="13" t="s">
         <v>70</v>
       </c>
@@ -66537,12 +66539,12 @@
         <v>171.47</v>
       </c>
     </row>
-    <row r="117" spans="1:47" ht="18" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A117" s="14" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="118" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A118" s="13" t="s">
         <v>328</v>
       </c>
@@ -66685,7 +66687,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="119" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A119" s="13" t="s">
         <v>500</v>
       </c>
@@ -66828,7 +66830,7 @@
         <v>2285.31</v>
       </c>
     </row>
-    <row r="120" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A120" s="13" t="s">
         <v>501</v>
       </c>
@@ -66971,7 +66973,7 @@
         <v>13656.86</v>
       </c>
     </row>
-    <row r="121" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A121" s="13" t="s">
         <v>502</v>
       </c>
@@ -67114,7 +67116,7 @@
         <v>112.74</v>
       </c>
     </row>
-    <row r="122" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A122" s="13" t="s">
         <v>503</v>
       </c>
@@ -67257,7 +67259,7 @@
         <v>1251.07</v>
       </c>
     </row>
-    <row r="123" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A123" s="13" t="s">
         <v>504</v>
       </c>
@@ -67400,7 +67402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A124" s="13" t="s">
         <v>505</v>
       </c>
@@ -67543,7 +67545,7 @@
         <v>88.62</v>
       </c>
     </row>
-    <row r="125" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A125" s="13" t="s">
         <v>376</v>
       </c>
@@ -67686,7 +67688,7 @@
         <v>7200.9</v>
       </c>
     </row>
-    <row r="126" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A126" s="13" t="s">
         <v>70</v>
       </c>
@@ -67829,12 +67831,12 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="128" spans="1:47" ht="18" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A128" s="14" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="129" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A129" s="13" t="s">
         <v>328</v>
       </c>
@@ -67977,7 +67979,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="130" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A130" s="13" t="s">
         <v>500</v>
       </c>
@@ -68120,7 +68122,7 @@
         <v>471.9</v>
       </c>
     </row>
-    <row r="131" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A131" s="13" t="s">
         <v>501</v>
       </c>
@@ -68263,7 +68265,7 @@
         <v>64.64</v>
       </c>
     </row>
-    <row r="132" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A132" s="13" t="s">
         <v>502</v>
       </c>
@@ -68406,7 +68408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A133" s="13" t="s">
         <v>503</v>
       </c>
@@ -68549,7 +68551,7 @@
         <v>10.85</v>
       </c>
     </row>
-    <row r="134" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A134" s="13" t="s">
         <v>504</v>
       </c>
@@ -68692,7 +68694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A135" s="13" t="s">
         <v>505</v>
       </c>
@@ -68835,7 +68837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A136" s="13" t="s">
         <v>376</v>
       </c>
@@ -68978,7 +68980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A137" s="13" t="s">
         <v>70</v>
       </c>
@@ -69121,12 +69123,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:47" ht="18" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A139" s="14" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="140" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A140" s="13" t="s">
         <v>328</v>
       </c>
@@ -69269,7 +69271,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="141" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A141" s="13" t="s">
         <v>500</v>
       </c>
@@ -69412,7 +69414,7 @@
         <v>294.02999999999997</v>
       </c>
     </row>
-    <row r="142" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A142" s="13" t="s">
         <v>501</v>
       </c>
@@ -69555,7 +69557,7 @@
         <v>25.49</v>
       </c>
     </row>
-    <row r="143" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A143" s="13" t="s">
         <v>502</v>
       </c>
@@ -69698,7 +69700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A144" s="13" t="s">
         <v>503</v>
       </c>
@@ -69841,7 +69843,7 @@
         <v>12.64</v>
       </c>
     </row>
-    <row r="145" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A145" s="13" t="s">
         <v>504</v>
       </c>
@@ -69984,7 +69986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A146" s="13" t="s">
         <v>505</v>
       </c>
@@ -70127,7 +70129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A147" s="13" t="s">
         <v>376</v>
       </c>
@@ -70270,7 +70272,7 @@
         <v>86.34</v>
       </c>
     </row>
-    <row r="148" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A148" s="13" t="s">
         <v>70</v>
       </c>
@@ -70413,12 +70415,12 @@
         <v>31.42</v>
       </c>
     </row>
-    <row r="150" spans="1:47" ht="18" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A150" s="14" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="151" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A151" s="13" t="s">
         <v>328</v>
       </c>
@@ -70561,7 +70563,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="152" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A152" s="13" t="s">
         <v>500</v>
       </c>
@@ -70704,7 +70706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A153" s="13" t="s">
         <v>501</v>
       </c>
@@ -70847,7 +70849,7 @@
         <v>26.73</v>
       </c>
     </row>
-    <row r="154" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A154" s="13" t="s">
         <v>502</v>
       </c>
@@ -70990,7 +70992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A155" s="13" t="s">
         <v>503</v>
       </c>
@@ -71133,7 +71135,7 @@
         <v>14.35</v>
       </c>
     </row>
-    <row r="156" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A156" s="13" t="s">
         <v>504</v>
       </c>
@@ -71276,7 +71278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A157" s="13" t="s">
         <v>505</v>
       </c>
@@ -71419,7 +71421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A158" s="13" t="s">
         <v>376</v>
       </c>
@@ -71562,7 +71564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A159" s="13" t="s">
         <v>70</v>
       </c>
@@ -71727,6 +71729,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fdee17017a9ad5b872047a216f95da93">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37825e9edfcb807d863c63152c6d8635" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
@@ -71986,15 +71997,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -72028,6 +72030,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98444FD6-B7EC-4835-90AD-D1891D4C4AB8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8CF27B3-C4C7-4E1C-9709-089B0861105B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -72047,14 +72057,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98444FD6-B7EC-4835-90AD-D1891D4C4AB8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33E8D7F4-79B1-4D5A-8515-4761884C4593}">
   <ds:schemaRefs>

--- a/InputData/fuels/BS/BAU Subsidies.xlsx
+++ b/InputData/fuels/BS/BAU Subsidies.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pembinainstitute.sharepoint.com/sites/PRO-EnergyPolicySimulator2021/Shared Documents/Research and Analysis/CANADA-inputData/fuels/BS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\Canada\canada-eps\InputData\fuels\BS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2096" documentId="13_ncr:1_{9487F567-7ACB-4CC8-A941-FB5B2797BEF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{017CF2F7-591B-4A4C-BF6B-B043F2B74D6A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B883AC-E08E-4A4A-93A4-CEC8471A927F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-17925" yWindow="2610" windowWidth="21600" windowHeight="11295" tabRatio="827" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="945" yWindow="525" windowWidth="16695" windowHeight="16875" tabRatio="827" firstSheet="12" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <sheet name="BS-BSfTFpEUP" sheetId="10" r:id="rId13"/>
     <sheet name="BS-BSpUEO-PreRet" sheetId="30" r:id="rId14"/>
     <sheet name="BS-BSpUEO-PreNonRet" sheetId="31" r:id="rId15"/>
-    <sheet name="BS-BSpUEO-NewBit" sheetId="32" r:id="rId16"/>
+    <sheet name="BS-BSpUEO-NewBlt" sheetId="32" r:id="rId16"/>
     <sheet name="BS-BSpUECB" sheetId="22" r:id="rId17"/>
     <sheet name="Tasks " sheetId="28" r:id="rId18"/>
   </sheets>
@@ -36,7 +36,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Fossil Subsidies'!$A$1:$T$131</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'New Subsidy data'!$B$1:$Z$291</definedName>
   </definedNames>
-  <calcPr calcId="191028" calcCompleted="0" concurrentCalc="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32185,7 +32185,7 @@
   </sheetPr>
   <dimension ref="A1:AH17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -53150,7 +53150,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -71729,15 +71729,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fdee17017a9ad5b872047a216f95da93">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37825e9edfcb807d863c63152c6d8635" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
@@ -71997,6 +71988,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -72030,14 +72030,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98444FD6-B7EC-4835-90AD-D1891D4C4AB8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8CF27B3-C4C7-4E1C-9709-089B0861105B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -72057,6 +72049,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98444FD6-B7EC-4835-90AD-D1891D4C4AB8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33E8D7F4-79B1-4D5A-8515-4761884C4593}">
   <ds:schemaRefs>

--- a/InputData/fuels/BS/BAU Subsidies.xlsx
+++ b/InputData/fuels/BS/BAU Subsidies.xlsx
@@ -71444,8 +71444,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fdee17017a9ad5b872047a216f95da93">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37825e9edfcb807d863c63152c6d8635" ns2:_="" ns3:_="" ns4:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b14dc5c440242a7f7d08dacad5c84df8">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="71a713f9ca42e4f2f02aa83a9b465f65" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
     <xsd:import namespace="de340059-046a-4f1a-8b62-ade039df3700"/>
     <xsd:import namespace="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
@@ -71471,6 +71471,7 @@
                 <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -71571,6 +71572,11 @@
     <xsd:element name="MediaServiceDateTaken" ma:index="27" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="28" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -71744,23 +71750,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8CF27B3-C4C7-4E1C-9709-089B0861105B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
-    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
-    <ds:schemaRef ds:uri="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23353A79-90B5-4736-A398-74839A54E4AB}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
